--- a/zFT/ptf.xlsx
+++ b/zFT/ptf.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="119">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -343,16 +343,10 @@
     <t xml:space="preserve">EKF1995   </t>
   </si>
   <si>
-    <t xml:space="preserve">EKM1995   </t>
-  </si>
-  <si>
     <t xml:space="preserve">I  </t>
   </si>
   <si>
     <t>F</t>
-  </si>
-  <si>
-    <t>M</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -740,7 +734,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DE4"/>
+  <dimension ref="A1:DE2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1074,10 +1068,10 @@
     </row>
     <row r="2" spans="1:109">
       <c r="A2" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>2018</v>
@@ -1089,10 +1083,10 @@
         <v>3</v>
       </c>
       <c r="F2">
-        <v>2168202</v>
+        <v>2172401</v>
       </c>
       <c r="G2">
-        <v>1996.1</v>
+        <v>3525.5</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1104,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>17223</v>
+        <v>17441</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -1122,209 +1116,209 @@
         <v>3</v>
       </c>
       <c r="Q2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="R2">
-        <v>2757.9</v>
+        <v>4233.1</v>
       </c>
       <c r="S2">
-        <v>1949.8</v>
+        <v>3423.8</v>
       </c>
       <c r="T2">
         <v>99</v>
       </c>
       <c r="U2">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="V2" s="2">
-        <v>42095</v>
+        <v>42125</v>
       </c>
       <c r="W2" s="2">
-        <v>78253</v>
+        <v>78283</v>
       </c>
       <c r="X2">
-        <v>1200</v>
+        <v>1440</v>
       </c>
       <c r="Y2">
-        <v>1138</v>
+        <v>1377.2</v>
       </c>
       <c r="Z2">
-        <v>1024.2</v>
+        <v>1239.5</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>1053.8</v>
+        <v>579.2</v>
       </c>
       <c r="AC2">
-        <v>84.2</v>
+        <v>798.1</v>
       </c>
       <c r="AD2">
         <v>1</v>
       </c>
       <c r="AE2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF2" t="s">
         <v>111</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>113</v>
       </c>
       <c r="AG2">
         <v>0.25</v>
       </c>
       <c r="AH2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2" t="s">
         <v>114</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AW2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>62.8</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>112</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>111</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>111</v>
+      </c>
+      <c r="BE2" t="s">
         <v>113</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>112</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>111</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>111</v>
+      </c>
+      <c r="BL2" t="s">
         <v>113</v>
       </c>
-      <c r="AK2" t="s">
-        <v>115</v>
-      </c>
-      <c r="AL2">
-        <v>0</v>
-      </c>
-      <c r="AM2">
-        <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>0</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AP2" t="s">
+      <c r="BM2">
+        <v>0</v>
+      </c>
+      <c r="BN2">
+        <v>0</v>
+      </c>
+      <c r="BO2">
+        <v>0</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>112</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>111</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>111</v>
+      </c>
+      <c r="BS2" t="s">
         <v>113</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="BT2">
+        <v>0</v>
+      </c>
+      <c r="BU2">
+        <v>0</v>
+      </c>
+      <c r="BV2">
+        <v>0</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>112</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>111</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>111</v>
+      </c>
+      <c r="BZ2" t="s">
         <v>113</v>
       </c>
-      <c r="AR2" t="s">
-        <v>115</v>
-      </c>
-      <c r="AS2">
-        <v>0</v>
-      </c>
-      <c r="AT2">
-        <v>0</v>
-      </c>
-      <c r="AU2">
-        <v>0</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>116</v>
-      </c>
-      <c r="AW2" t="s">
+      <c r="CA2">
+        <v>0</v>
+      </c>
+      <c r="CB2">
+        <v>0</v>
+      </c>
+      <c r="CC2">
+        <v>0</v>
+      </c>
+      <c r="CD2">
+        <v>0</v>
+      </c>
+      <c r="CE2">
+        <v>0</v>
+      </c>
+      <c r="CF2" t="s">
         <v>117</v>
       </c>
-      <c r="AX2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>118</v>
-      </c>
-      <c r="AZ2">
-        <v>0</v>
-      </c>
-      <c r="BA2">
-        <v>62</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>114</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>113</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>113</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>115</v>
-      </c>
-      <c r="BF2">
-        <v>0</v>
-      </c>
-      <c r="BG2">
-        <v>0</v>
-      </c>
-      <c r="BH2">
-        <v>0</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>114</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>113</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>113</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>115</v>
-      </c>
-      <c r="BM2">
-        <v>0</v>
-      </c>
-      <c r="BN2">
-        <v>0</v>
-      </c>
-      <c r="BO2">
-        <v>0</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>114</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>113</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>113</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>115</v>
-      </c>
-      <c r="BT2">
-        <v>0</v>
-      </c>
-      <c r="BU2">
-        <v>0</v>
-      </c>
-      <c r="BV2">
-        <v>0</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>114</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>113</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>113</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>115</v>
-      </c>
-      <c r="CA2">
-        <v>0</v>
-      </c>
-      <c r="CB2">
-        <v>0</v>
-      </c>
-      <c r="CC2">
-        <v>0</v>
-      </c>
-      <c r="CD2">
-        <v>0</v>
-      </c>
-      <c r="CE2">
-        <v>0</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>119</v>
-      </c>
       <c r="CG2">
         <v>0</v>
       </c>
@@ -1332,13 +1326,13 @@
         <v>0</v>
       </c>
       <c r="CI2" s="2">
-        <v>16982</v>
+        <v>21535</v>
       </c>
       <c r="CJ2" s="2">
-        <v>42095</v>
+        <v>42125</v>
       </c>
       <c r="CK2">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="CL2">
         <v>999</v>
@@ -1353,22 +1347,22 @@
         <v>409</v>
       </c>
       <c r="CP2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="CQ2">
-        <v>639</v>
+        <v>784</v>
       </c>
       <c r="CR2">
         <v>0</v>
       </c>
       <c r="CS2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="CT2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="CU2">
-        <v>1996.1</v>
+        <v>3525.5</v>
       </c>
       <c r="CX2">
         <v>0</v>
@@ -1380,628 +1374,6 @@
         <v>0</v>
       </c>
       <c r="DB2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:109">
-      <c r="A3" s="1">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>2018</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3">
-        <v>2172401</v>
-      </c>
-      <c r="G3">
-        <v>3525.5</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>17441</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0.25</v>
-      </c>
-      <c r="N3" t="s">
-        <v>108</v>
-      </c>
-      <c r="O3">
-        <v>12</v>
-      </c>
-      <c r="P3">
-        <v>3</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>110</v>
-      </c>
-      <c r="R3">
-        <v>4233.1</v>
-      </c>
-      <c r="S3">
-        <v>3423.8</v>
-      </c>
-      <c r="T3">
-        <v>99</v>
-      </c>
-      <c r="U3">
-        <v>15</v>
-      </c>
-      <c r="V3" s="2">
-        <v>42125</v>
-      </c>
-      <c r="W3" s="2">
-        <v>78283</v>
-      </c>
-      <c r="X3">
-        <v>1440</v>
-      </c>
-      <c r="Y3">
-        <v>1377.2</v>
-      </c>
-      <c r="Z3">
-        <v>1239.5</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>579.2</v>
-      </c>
-      <c r="AC3">
-        <v>798.1</v>
-      </c>
-      <c r="AD3">
-        <v>1</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>111</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>113</v>
-      </c>
-      <c r="AG3">
-        <v>0.25</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>113</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>115</v>
-      </c>
-      <c r="AL3">
-        <v>0</v>
-      </c>
-      <c r="AM3">
-        <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>0</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>113</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>113</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>115</v>
-      </c>
-      <c r="AS3">
-        <v>0</v>
-      </c>
-      <c r="AT3">
-        <v>0</v>
-      </c>
-      <c r="AU3">
-        <v>0</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>116</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>117</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>113</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>118</v>
-      </c>
-      <c r="AZ3">
-        <v>0</v>
-      </c>
-      <c r="BA3">
-        <v>62.8</v>
-      </c>
-      <c r="BB3" t="s">
-        <v>114</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>113</v>
-      </c>
-      <c r="BD3" t="s">
-        <v>113</v>
-      </c>
-      <c r="BE3" t="s">
-        <v>115</v>
-      </c>
-      <c r="BF3">
-        <v>0</v>
-      </c>
-      <c r="BG3">
-        <v>0</v>
-      </c>
-      <c r="BH3">
-        <v>0</v>
-      </c>
-      <c r="BI3" t="s">
-        <v>114</v>
-      </c>
-      <c r="BJ3" t="s">
-        <v>113</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>113</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>115</v>
-      </c>
-      <c r="BM3">
-        <v>0</v>
-      </c>
-      <c r="BN3">
-        <v>0</v>
-      </c>
-      <c r="BO3">
-        <v>0</v>
-      </c>
-      <c r="BP3" t="s">
-        <v>114</v>
-      </c>
-      <c r="BQ3" t="s">
-        <v>113</v>
-      </c>
-      <c r="BR3" t="s">
-        <v>113</v>
-      </c>
-      <c r="BS3" t="s">
-        <v>115</v>
-      </c>
-      <c r="BT3">
-        <v>0</v>
-      </c>
-      <c r="BU3">
-        <v>0</v>
-      </c>
-      <c r="BV3">
-        <v>0</v>
-      </c>
-      <c r="BW3" t="s">
-        <v>114</v>
-      </c>
-      <c r="BX3" t="s">
-        <v>113</v>
-      </c>
-      <c r="BY3" t="s">
-        <v>113</v>
-      </c>
-      <c r="BZ3" t="s">
-        <v>115</v>
-      </c>
-      <c r="CA3">
-        <v>0</v>
-      </c>
-      <c r="CB3">
-        <v>0</v>
-      </c>
-      <c r="CC3">
-        <v>0</v>
-      </c>
-      <c r="CD3">
-        <v>0</v>
-      </c>
-      <c r="CE3">
-        <v>0</v>
-      </c>
-      <c r="CF3" t="s">
-        <v>119</v>
-      </c>
-      <c r="CG3">
-        <v>0</v>
-      </c>
-      <c r="CH3">
-        <v>0</v>
-      </c>
-      <c r="CI3" s="2">
-        <v>21535</v>
-      </c>
-      <c r="CJ3" s="2">
-        <v>42125</v>
-      </c>
-      <c r="CK3">
-        <v>56</v>
-      </c>
-      <c r="CL3">
-        <v>999</v>
-      </c>
-      <c r="CM3" s="3">
-        <v>43465</v>
-      </c>
-      <c r="CN3" s="3">
-        <v>55884</v>
-      </c>
-      <c r="CO3">
-        <v>409</v>
-      </c>
-      <c r="CP3">
-        <v>44</v>
-      </c>
-      <c r="CQ3">
-        <v>784</v>
-      </c>
-      <c r="CR3">
-        <v>0</v>
-      </c>
-      <c r="CS3" t="s">
-        <v>120</v>
-      </c>
-      <c r="CT3" t="s">
-        <v>120</v>
-      </c>
-      <c r="CU3">
-        <v>3525.5</v>
-      </c>
-      <c r="CX3">
-        <v>0</v>
-      </c>
-      <c r="CY3">
-        <v>0</v>
-      </c>
-      <c r="CZ3">
-        <v>0</v>
-      </c>
-      <c r="DB3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:109">
-      <c r="A4" s="1">
-        <v>18</v>
-      </c>
-      <c r="B4">
-        <v>18</v>
-      </c>
-      <c r="C4">
-        <v>2018</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <v>2178001</v>
-      </c>
-      <c r="G4">
-        <v>1148.5</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>120.7</v>
-      </c>
-      <c r="J4">
-        <v>7.6</v>
-      </c>
-      <c r="K4">
-        <v>14560</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0.25</v>
-      </c>
-      <c r="N4" t="s">
-        <v>109</v>
-      </c>
-      <c r="O4">
-        <v>4</v>
-      </c>
-      <c r="P4">
-        <v>3</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>110</v>
-      </c>
-      <c r="R4">
-        <v>1762.7</v>
-      </c>
-      <c r="S4">
-        <v>1148.5</v>
-      </c>
-      <c r="T4">
-        <v>99</v>
-      </c>
-      <c r="U4">
-        <v>99</v>
-      </c>
-      <c r="V4" s="2">
-        <v>42156</v>
-      </c>
-      <c r="W4" s="2">
-        <v>78314</v>
-      </c>
-      <c r="X4">
-        <v>880</v>
-      </c>
-      <c r="Y4">
-        <v>827.6</v>
-      </c>
-      <c r="Z4">
-        <v>744.8</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>587.9</v>
-      </c>
-      <c r="AC4">
-        <v>239.7</v>
-      </c>
-      <c r="AD4">
-        <v>1</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>112</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>113</v>
-      </c>
-      <c r="AG4">
-        <v>0.25</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>114</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>113</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>115</v>
-      </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-      <c r="AM4">
-        <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>0</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>114</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>113</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>113</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>115</v>
-      </c>
-      <c r="AS4">
-        <v>0</v>
-      </c>
-      <c r="AT4">
-        <v>0</v>
-      </c>
-      <c r="AU4">
-        <v>0</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>116</v>
-      </c>
-      <c r="AW4" t="s">
-        <v>117</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>113</v>
-      </c>
-      <c r="AY4" t="s">
-        <v>118</v>
-      </c>
-      <c r="AZ4">
-        <v>0</v>
-      </c>
-      <c r="BA4">
-        <v>52.4</v>
-      </c>
-      <c r="BB4" t="s">
-        <v>114</v>
-      </c>
-      <c r="BC4" t="s">
-        <v>113</v>
-      </c>
-      <c r="BD4" t="s">
-        <v>113</v>
-      </c>
-      <c r="BE4" t="s">
-        <v>115</v>
-      </c>
-      <c r="BF4">
-        <v>0</v>
-      </c>
-      <c r="BG4">
-        <v>0</v>
-      </c>
-      <c r="BH4">
-        <v>0</v>
-      </c>
-      <c r="BI4" t="s">
-        <v>114</v>
-      </c>
-      <c r="BJ4" t="s">
-        <v>113</v>
-      </c>
-      <c r="BK4" t="s">
-        <v>113</v>
-      </c>
-      <c r="BL4" t="s">
-        <v>115</v>
-      </c>
-      <c r="BM4">
-        <v>0</v>
-      </c>
-      <c r="BN4">
-        <v>0</v>
-      </c>
-      <c r="BO4">
-        <v>0</v>
-      </c>
-      <c r="BP4" t="s">
-        <v>114</v>
-      </c>
-      <c r="BQ4" t="s">
-        <v>113</v>
-      </c>
-      <c r="BR4" t="s">
-        <v>113</v>
-      </c>
-      <c r="BS4" t="s">
-        <v>115</v>
-      </c>
-      <c r="BT4">
-        <v>0</v>
-      </c>
-      <c r="BU4">
-        <v>0</v>
-      </c>
-      <c r="BV4">
-        <v>0</v>
-      </c>
-      <c r="BW4" t="s">
-        <v>114</v>
-      </c>
-      <c r="BX4" t="s">
-        <v>113</v>
-      </c>
-      <c r="BY4" t="s">
-        <v>113</v>
-      </c>
-      <c r="BZ4" t="s">
-        <v>115</v>
-      </c>
-      <c r="CA4">
-        <v>0</v>
-      </c>
-      <c r="CB4">
-        <v>0</v>
-      </c>
-      <c r="CC4">
-        <v>0</v>
-      </c>
-      <c r="CD4">
-        <v>0</v>
-      </c>
-      <c r="CE4">
-        <v>0</v>
-      </c>
-      <c r="CF4" t="s">
-        <v>119</v>
-      </c>
-      <c r="CG4">
-        <v>0</v>
-      </c>
-      <c r="CH4">
-        <v>0</v>
-      </c>
-      <c r="CI4" s="2">
-        <v>19758</v>
-      </c>
-      <c r="CJ4" s="2">
-        <v>42156</v>
-      </c>
-      <c r="CK4">
-        <v>61</v>
-      </c>
-      <c r="CL4">
-        <v>999</v>
-      </c>
-      <c r="CM4" s="3">
-        <v>43465</v>
-      </c>
-      <c r="CN4" s="3">
-        <v>55884</v>
-      </c>
-      <c r="CO4">
-        <v>409</v>
-      </c>
-      <c r="CP4">
-        <v>43</v>
-      </c>
-      <c r="CQ4">
-        <v>725</v>
-      </c>
-      <c r="CR4">
-        <v>0</v>
-      </c>
-      <c r="CS4" t="s">
-        <v>120</v>
-      </c>
-      <c r="CT4" t="s">
-        <v>120</v>
-      </c>
-      <c r="CU4">
-        <v>1276.8</v>
-      </c>
-      <c r="CX4">
-        <v>0</v>
-      </c>
-      <c r="CY4">
-        <v>0</v>
-      </c>
-      <c r="CZ4">
-        <v>0</v>
-      </c>
-      <c r="DB4">
         <v>1</v>
       </c>
     </row>

--- a/zFT/ptf.xlsx
+++ b/zFT/ptf.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="121">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -343,10 +343,16 @@
     <t xml:space="preserve">EKF1995   </t>
   </si>
   <si>
-    <t xml:space="preserve">I  </t>
+    <t xml:space="preserve">EKM1995   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">J  </t>
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>M</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -734,7 +740,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DE2"/>
+  <dimension ref="A1:DE10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1068,10 +1074,10 @@
     </row>
     <row r="2" spans="1:109">
       <c r="A2" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>2018</v>
@@ -1083,100 +1089,100 @@
         <v>3</v>
       </c>
       <c r="F2">
-        <v>2172401</v>
+        <v>572503</v>
       </c>
       <c r="G2">
-        <v>3525.5</v>
+        <v>382.5</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>37.6</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="K2">
-        <v>17441</v>
+        <v>11876</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N2" t="s">
         <v>108</v>
       </c>
       <c r="O2">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="P2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R2">
-        <v>4233.1</v>
+        <v>1015.8</v>
       </c>
       <c r="S2">
-        <v>3423.8</v>
+        <v>0</v>
       </c>
       <c r="T2">
         <v>99</v>
       </c>
       <c r="U2">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="V2" s="2">
-        <v>42125</v>
+        <v>42401</v>
       </c>
       <c r="W2" s="2">
-        <v>78283</v>
+        <v>78559</v>
       </c>
       <c r="X2">
-        <v>1440</v>
+        <v>552</v>
       </c>
       <c r="Y2">
-        <v>1377.2</v>
+        <v>509.2</v>
       </c>
       <c r="Z2">
-        <v>1239.5</v>
+        <v>458.3</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>579.2</v>
+        <v>395.9</v>
       </c>
       <c r="AC2">
-        <v>798.1</v>
+        <v>113.4</v>
       </c>
       <c r="AD2">
         <v>1</v>
       </c>
       <c r="AE2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AF2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AG2">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AH2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AI2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AJ2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AK2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -1188,16 +1194,16 @@
         <v>0</v>
       </c>
       <c r="AO2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AP2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AQ2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AR2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AS2">
         <v>0</v>
@@ -1209,34 +1215,34 @@
         <v>0</v>
       </c>
       <c r="AV2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AW2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AX2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AY2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AZ2">
         <v>0</v>
       </c>
       <c r="BA2">
-        <v>62.8</v>
+        <v>42.8</v>
       </c>
       <c r="BB2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="BC2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="BD2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="BE2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="BF2">
         <v>0</v>
@@ -1248,16 +1254,16 @@
         <v>0</v>
       </c>
       <c r="BI2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="BJ2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="BK2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="BL2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="BM2">
         <v>0</v>
@@ -1269,16 +1275,16 @@
         <v>0</v>
       </c>
       <c r="BP2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="BQ2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="BR2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="BS2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="BT2">
         <v>0</v>
@@ -1290,16 +1296,16 @@
         <v>0</v>
       </c>
       <c r="BW2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="BX2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="BY2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="BZ2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="CA2">
         <v>0</v>
@@ -1317,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="CF2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="CG2">
         <v>0</v>
@@ -1326,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="CI2" s="2">
-        <v>21535</v>
+        <v>22248</v>
       </c>
       <c r="CJ2" s="2">
-        <v>42125</v>
+        <v>42401</v>
       </c>
       <c r="CK2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="CL2">
         <v>999</v>
@@ -1347,33 +1353,2557 @@
         <v>409</v>
       </c>
       <c r="CP2">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="CQ2">
-        <v>784</v>
+        <v>805</v>
       </c>
       <c r="CR2">
         <v>0</v>
       </c>
       <c r="CS2" t="s">
+        <v>120</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>120</v>
+      </c>
+      <c r="CU2">
+        <v>423.3</v>
+      </c>
+      <c r="CX2">
+        <v>0</v>
+      </c>
+      <c r="CY2">
+        <v>0</v>
+      </c>
+      <c r="CZ2">
+        <v>0</v>
+      </c>
+      <c r="DB2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:109">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2018</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>732001</v>
+      </c>
+      <c r="G3">
+        <v>383</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>7374</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3" t="s">
+        <v>108</v>
+      </c>
+      <c r="O3">
+        <v>4</v>
+      </c>
+      <c r="P3">
+        <v>2</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>110</v>
+      </c>
+      <c r="R3">
+        <v>759.1</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>99</v>
+      </c>
+      <c r="U3">
+        <v>99</v>
+      </c>
+      <c r="V3" s="2">
+        <v>42370</v>
+      </c>
+      <c r="W3" s="2">
+        <v>78528</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>336.1</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>307.3</v>
+      </c>
+      <c r="AC3">
+        <v>66.2</v>
+      </c>
+      <c r="AD3">
+        <v>1</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>116</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AY3" t="s">
         <v>118</v>
       </c>
-      <c r="CT2" t="s">
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>114</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>113</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>113</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>115</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>114</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>113</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>113</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>115</v>
+      </c>
+      <c r="BM3">
+        <v>0</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>0</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>114</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>113</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>113</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>115</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BV3">
+        <v>0</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>114</v>
+      </c>
+      <c r="BX3" t="s">
+        <v>113</v>
+      </c>
+      <c r="BY3" t="s">
+        <v>113</v>
+      </c>
+      <c r="BZ3" t="s">
+        <v>115</v>
+      </c>
+      <c r="CA3">
+        <v>0</v>
+      </c>
+      <c r="CB3">
+        <v>0</v>
+      </c>
+      <c r="CC3">
+        <v>0</v>
+      </c>
+      <c r="CD3">
+        <v>0</v>
+      </c>
+      <c r="CE3">
+        <v>0</v>
+      </c>
+      <c r="CF3" t="s">
+        <v>119</v>
+      </c>
+      <c r="CG3">
+        <v>0</v>
+      </c>
+      <c r="CH3">
+        <v>4</v>
+      </c>
+      <c r="CI3" s="2">
+        <v>20164</v>
+      </c>
+      <c r="CJ3" s="2">
+        <v>42370</v>
+      </c>
+      <c r="CK3">
+        <v>61</v>
+      </c>
+      <c r="CL3">
+        <v>999</v>
+      </c>
+      <c r="CM3" s="3">
+        <v>43465</v>
+      </c>
+      <c r="CN3" s="3">
+        <v>55884</v>
+      </c>
+      <c r="CO3">
+        <v>409</v>
+      </c>
+      <c r="CP3">
+        <v>36</v>
+      </c>
+      <c r="CQ3">
+        <v>744</v>
+      </c>
+      <c r="CR3">
+        <v>0</v>
+      </c>
+      <c r="CS3" t="s">
+        <v>120</v>
+      </c>
+      <c r="CT3" t="s">
+        <v>120</v>
+      </c>
+      <c r="CU3">
+        <v>383</v>
+      </c>
+      <c r="CX3">
+        <v>0</v>
+      </c>
+      <c r="CY3">
+        <v>0</v>
+      </c>
+      <c r="CZ3">
+        <v>0</v>
+      </c>
+      <c r="DB3">
+        <v>1</v>
+      </c>
+      <c r="DC3">
+        <v>0</v>
+      </c>
+      <c r="DD3">
+        <v>0</v>
+      </c>
+      <c r="DE3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:109">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>2018</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1132701</v>
+      </c>
+      <c r="G4">
+        <v>293.9</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>8700</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4" t="s">
+        <v>108</v>
+      </c>
+      <c r="O4">
+        <v>6</v>
+      </c>
+      <c r="P4">
+        <v>2</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>110</v>
+      </c>
+      <c r="R4">
+        <v>740.8</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>99</v>
+      </c>
+      <c r="U4">
+        <v>99</v>
+      </c>
+      <c r="V4" s="2">
+        <v>42644</v>
+      </c>
+      <c r="W4" s="2">
+        <v>78801</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>436.6</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>414.3</v>
+      </c>
+      <c r="AC4">
+        <v>313.4</v>
+      </c>
+      <c r="AD4">
+        <v>1</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>113</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>115</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>113</v>
+      </c>
+      <c r="AY4" t="s">
         <v>118</v>
       </c>
-      <c r="CU2">
-        <v>3525.5</v>
-      </c>
-      <c r="CX2">
-        <v>0</v>
-      </c>
-      <c r="CY2">
-        <v>0</v>
-      </c>
-      <c r="CZ2">
-        <v>0</v>
-      </c>
-      <c r="DB2">
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>114</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>113</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>113</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>115</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>114</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>113</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>113</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>115</v>
+      </c>
+      <c r="BM4">
+        <v>0</v>
+      </c>
+      <c r="BN4">
+        <v>0</v>
+      </c>
+      <c r="BO4">
+        <v>0</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>114</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>113</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>113</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>115</v>
+      </c>
+      <c r="BT4">
+        <v>0</v>
+      </c>
+      <c r="BU4">
+        <v>0</v>
+      </c>
+      <c r="BV4">
+        <v>0</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>114</v>
+      </c>
+      <c r="BX4" t="s">
+        <v>113</v>
+      </c>
+      <c r="BY4" t="s">
+        <v>113</v>
+      </c>
+      <c r="BZ4" t="s">
+        <v>115</v>
+      </c>
+      <c r="CA4">
+        <v>0</v>
+      </c>
+      <c r="CB4">
+        <v>0</v>
+      </c>
+      <c r="CC4">
+        <v>0</v>
+      </c>
+      <c r="CD4">
+        <v>0</v>
+      </c>
+      <c r="CE4">
+        <v>0</v>
+      </c>
+      <c r="CF4" t="s">
+        <v>119</v>
+      </c>
+      <c r="CG4">
+        <v>0</v>
+      </c>
+      <c r="CH4">
+        <v>4</v>
+      </c>
+      <c r="CI4" s="2">
+        <v>19384</v>
+      </c>
+      <c r="CJ4" s="2">
+        <v>42644</v>
+      </c>
+      <c r="CK4">
+        <v>64</v>
+      </c>
+      <c r="CL4">
+        <v>999</v>
+      </c>
+      <c r="CM4" s="3">
+        <v>43465</v>
+      </c>
+      <c r="CN4" s="3">
+        <v>55884</v>
+      </c>
+      <c r="CO4">
+        <v>409</v>
+      </c>
+      <c r="CP4">
+        <v>27</v>
+      </c>
+      <c r="CQ4">
+        <v>717</v>
+      </c>
+      <c r="CR4">
+        <v>0</v>
+      </c>
+      <c r="CS4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CT4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CU4">
+        <v>293.9</v>
+      </c>
+      <c r="CX4">
+        <v>0</v>
+      </c>
+      <c r="CY4">
+        <v>0</v>
+      </c>
+      <c r="CZ4">
+        <v>0</v>
+      </c>
+      <c r="DB4">
+        <v>1</v>
+      </c>
+      <c r="DC4">
+        <v>0</v>
+      </c>
+      <c r="DD4">
+        <v>0</v>
+      </c>
+      <c r="DE4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:109">
+      <c r="A5" s="1">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>2018</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>572405</v>
+      </c>
+      <c r="G5">
+        <v>981.8</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>72.2</v>
+      </c>
+      <c r="J5">
+        <v>3.2</v>
+      </c>
+      <c r="K5">
+        <v>12204</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5" t="s">
+        <v>109</v>
+      </c>
+      <c r="O5">
+        <v>6</v>
+      </c>
+      <c r="P5">
+        <v>2</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>110</v>
+      </c>
+      <c r="R5">
+        <v>1558</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>99</v>
+      </c>
+      <c r="U5">
+        <v>99</v>
+      </c>
+      <c r="V5" s="2">
+        <v>42401</v>
+      </c>
+      <c r="W5" s="2">
+        <v>78559</v>
+      </c>
+      <c r="X5">
+        <v>1022.4</v>
+      </c>
+      <c r="Y5">
+        <v>978.5</v>
+      </c>
+      <c r="Z5">
+        <v>880.6</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>813.6</v>
+      </c>
+      <c r="AC5">
+        <v>164.9</v>
+      </c>
+      <c r="AD5">
+        <v>1</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>115</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>117</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>43.9</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>114</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>113</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>113</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>115</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>114</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>113</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>113</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>115</v>
+      </c>
+      <c r="BM5">
+        <v>0</v>
+      </c>
+      <c r="BN5">
+        <v>0</v>
+      </c>
+      <c r="BO5">
+        <v>0</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>114</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>113</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>113</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>115</v>
+      </c>
+      <c r="BT5">
+        <v>0</v>
+      </c>
+      <c r="BU5">
+        <v>0</v>
+      </c>
+      <c r="BV5">
+        <v>0</v>
+      </c>
+      <c r="BW5" t="s">
+        <v>114</v>
+      </c>
+      <c r="BX5" t="s">
+        <v>113</v>
+      </c>
+      <c r="BY5" t="s">
+        <v>113</v>
+      </c>
+      <c r="BZ5" t="s">
+        <v>115</v>
+      </c>
+      <c r="CA5">
+        <v>0</v>
+      </c>
+      <c r="CB5">
+        <v>0</v>
+      </c>
+      <c r="CC5">
+        <v>0</v>
+      </c>
+      <c r="CD5">
+        <v>0</v>
+      </c>
+      <c r="CE5">
+        <v>0</v>
+      </c>
+      <c r="CF5" t="s">
+        <v>119</v>
+      </c>
+      <c r="CG5">
+        <v>0</v>
+      </c>
+      <c r="CH5">
+        <v>0</v>
+      </c>
+      <c r="CI5" s="2">
+        <v>20743</v>
+      </c>
+      <c r="CJ5" s="2">
+        <v>42401</v>
+      </c>
+      <c r="CK5">
+        <v>59</v>
+      </c>
+      <c r="CL5">
+        <v>999</v>
+      </c>
+      <c r="CM5" s="3">
+        <v>43465</v>
+      </c>
+      <c r="CN5" s="3">
+        <v>55884</v>
+      </c>
+      <c r="CO5">
+        <v>409</v>
+      </c>
+      <c r="CP5">
+        <v>35</v>
+      </c>
+      <c r="CQ5">
+        <v>757</v>
+      </c>
+      <c r="CR5">
+        <v>0</v>
+      </c>
+      <c r="CS5" t="s">
+        <v>120</v>
+      </c>
+      <c r="CT5" t="s">
+        <v>120</v>
+      </c>
+      <c r="CU5">
+        <v>1057.2</v>
+      </c>
+      <c r="CX5">
+        <v>0</v>
+      </c>
+      <c r="CY5">
+        <v>0</v>
+      </c>
+      <c r="CZ5">
+        <v>0</v>
+      </c>
+      <c r="DB5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:109">
+      <c r="A6" s="1">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>2018</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>731902</v>
+      </c>
+      <c r="G6">
+        <v>372.6</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>5722</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6" t="s">
+        <v>109</v>
+      </c>
+      <c r="O6">
+        <v>4</v>
+      </c>
+      <c r="P6">
+        <v>2</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>110</v>
+      </c>
+      <c r="R6">
+        <v>651.9</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>99</v>
+      </c>
+      <c r="U6">
+        <v>99</v>
+      </c>
+      <c r="V6" s="2">
+        <v>42370</v>
+      </c>
+      <c r="W6" s="2">
+        <v>78528</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>341.5</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>286.1</v>
+      </c>
+      <c r="AC6">
+        <v>93.3</v>
+      </c>
+      <c r="AD6">
+        <v>1</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>113</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>115</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>116</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>117</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>113</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>114</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>113</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>113</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>115</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>114</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>113</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>113</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>115</v>
+      </c>
+      <c r="BM6">
+        <v>0</v>
+      </c>
+      <c r="BN6">
+        <v>0</v>
+      </c>
+      <c r="BO6">
+        <v>0</v>
+      </c>
+      <c r="BP6" t="s">
+        <v>114</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>113</v>
+      </c>
+      <c r="BR6" t="s">
+        <v>113</v>
+      </c>
+      <c r="BS6" t="s">
+        <v>115</v>
+      </c>
+      <c r="BT6">
+        <v>0</v>
+      </c>
+      <c r="BU6">
+        <v>0</v>
+      </c>
+      <c r="BV6">
+        <v>0</v>
+      </c>
+      <c r="BW6" t="s">
+        <v>114</v>
+      </c>
+      <c r="BX6" t="s">
+        <v>113</v>
+      </c>
+      <c r="BY6" t="s">
+        <v>113</v>
+      </c>
+      <c r="BZ6" t="s">
+        <v>115</v>
+      </c>
+      <c r="CA6">
+        <v>0</v>
+      </c>
+      <c r="CB6">
+        <v>0</v>
+      </c>
+      <c r="CC6">
+        <v>0</v>
+      </c>
+      <c r="CD6">
+        <v>0</v>
+      </c>
+      <c r="CE6">
+        <v>0</v>
+      </c>
+      <c r="CF6" t="s">
+        <v>119</v>
+      </c>
+      <c r="CG6">
+        <v>0</v>
+      </c>
+      <c r="CH6">
+        <v>4</v>
+      </c>
+      <c r="CI6" s="2">
+        <v>18509</v>
+      </c>
+      <c r="CJ6" s="2">
+        <v>42370</v>
+      </c>
+      <c r="CK6">
+        <v>65</v>
+      </c>
+      <c r="CL6">
+        <v>999</v>
+      </c>
+      <c r="CM6" s="3">
+        <v>43465</v>
+      </c>
+      <c r="CN6" s="3">
+        <v>55884</v>
+      </c>
+      <c r="CO6">
+        <v>409</v>
+      </c>
+      <c r="CP6">
+        <v>36</v>
+      </c>
+      <c r="CQ6">
+        <v>684</v>
+      </c>
+      <c r="CR6">
+        <v>0</v>
+      </c>
+      <c r="CS6" t="s">
+        <v>120</v>
+      </c>
+      <c r="CT6" t="s">
+        <v>120</v>
+      </c>
+      <c r="CU6">
+        <v>372.6</v>
+      </c>
+      <c r="CX6">
+        <v>0</v>
+      </c>
+      <c r="CY6">
+        <v>0</v>
+      </c>
+      <c r="CZ6">
+        <v>0</v>
+      </c>
+      <c r="DB6">
+        <v>1</v>
+      </c>
+      <c r="DC6">
+        <v>0</v>
+      </c>
+      <c r="DD6">
+        <v>0</v>
+      </c>
+      <c r="DE6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:109">
+      <c r="A7" s="1">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>2018</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>818202</v>
+      </c>
+      <c r="G7">
+        <v>325.5</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>11949</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7" t="s">
+        <v>109</v>
+      </c>
+      <c r="O7">
+        <v>4</v>
+      </c>
+      <c r="P7">
+        <v>2</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>110</v>
+      </c>
+      <c r="R7">
+        <v>940.7</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>99</v>
+      </c>
+      <c r="U7">
+        <v>99</v>
+      </c>
+      <c r="V7" s="2">
+        <v>42644</v>
+      </c>
+      <c r="W7" s="2">
+        <v>78801</v>
+      </c>
+      <c r="X7">
+        <v>736</v>
+      </c>
+      <c r="Y7">
+        <v>693</v>
+      </c>
+      <c r="Z7">
+        <v>623.7</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>497.9</v>
+      </c>
+      <c r="AC7">
+        <v>195.1</v>
+      </c>
+      <c r="AD7">
+        <v>1</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>113</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>115</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>116</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>117</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>113</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <v>43</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>114</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>113</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>113</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>115</v>
+      </c>
+      <c r="BF7">
+        <v>0</v>
+      </c>
+      <c r="BG7">
+        <v>0</v>
+      </c>
+      <c r="BH7">
+        <v>0</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>114</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>113</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>113</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>115</v>
+      </c>
+      <c r="BM7">
+        <v>0</v>
+      </c>
+      <c r="BN7">
+        <v>0</v>
+      </c>
+      <c r="BO7">
+        <v>0</v>
+      </c>
+      <c r="BP7" t="s">
+        <v>114</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>113</v>
+      </c>
+      <c r="BR7" t="s">
+        <v>113</v>
+      </c>
+      <c r="BS7" t="s">
+        <v>115</v>
+      </c>
+      <c r="BT7">
+        <v>0</v>
+      </c>
+      <c r="BU7">
+        <v>0</v>
+      </c>
+      <c r="BV7">
+        <v>0</v>
+      </c>
+      <c r="BW7" t="s">
+        <v>114</v>
+      </c>
+      <c r="BX7" t="s">
+        <v>113</v>
+      </c>
+      <c r="BY7" t="s">
+        <v>113</v>
+      </c>
+      <c r="BZ7" t="s">
+        <v>115</v>
+      </c>
+      <c r="CA7">
+        <v>0</v>
+      </c>
+      <c r="CB7">
+        <v>0</v>
+      </c>
+      <c r="CC7">
+        <v>0</v>
+      </c>
+      <c r="CD7">
+        <v>0</v>
+      </c>
+      <c r="CE7">
+        <v>0</v>
+      </c>
+      <c r="CF7" t="s">
+        <v>119</v>
+      </c>
+      <c r="CG7">
+        <v>0</v>
+      </c>
+      <c r="CH7">
+        <v>0</v>
+      </c>
+      <c r="CI7" s="2">
+        <v>20517</v>
+      </c>
+      <c r="CJ7" s="2">
+        <v>42644</v>
+      </c>
+      <c r="CK7">
+        <v>61</v>
+      </c>
+      <c r="CL7">
+        <v>999</v>
+      </c>
+      <c r="CM7" s="3">
+        <v>43465</v>
+      </c>
+      <c r="CN7" s="3">
+        <v>55884</v>
+      </c>
+      <c r="CO7">
+        <v>409</v>
+      </c>
+      <c r="CP7">
+        <v>27</v>
+      </c>
+      <c r="CQ7">
+        <v>753</v>
+      </c>
+      <c r="CR7">
+        <v>0</v>
+      </c>
+      <c r="CS7" t="s">
+        <v>120</v>
+      </c>
+      <c r="CT7" t="s">
+        <v>120</v>
+      </c>
+      <c r="CU7">
+        <v>325.5</v>
+      </c>
+      <c r="CX7">
+        <v>0</v>
+      </c>
+      <c r="CY7">
+        <v>0</v>
+      </c>
+      <c r="CZ7">
+        <v>0</v>
+      </c>
+      <c r="DB7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:109">
+      <c r="A8" s="1">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>2018</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>889603</v>
+      </c>
+      <c r="G8">
+        <v>208.9</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>31</v>
+      </c>
+      <c r="J8">
+        <v>2.2</v>
+      </c>
+      <c r="K8">
+        <v>8009</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8" t="s">
+        <v>109</v>
+      </c>
+      <c r="O8">
+        <v>2</v>
+      </c>
+      <c r="P8">
+        <v>2</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>110</v>
+      </c>
+      <c r="R8">
+        <v>627.8</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>99</v>
+      </c>
+      <c r="U8">
+        <v>99</v>
+      </c>
+      <c r="V8" s="2">
+        <v>42583</v>
+      </c>
+      <c r="W8" s="2">
+        <v>78740</v>
+      </c>
+      <c r="X8">
+        <v>440</v>
+      </c>
+      <c r="Y8">
+        <v>411.2</v>
+      </c>
+      <c r="Z8">
+        <v>370</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>286</v>
+      </c>
+      <c r="AC8">
+        <v>125.1</v>
+      </c>
+      <c r="AD8">
+        <v>1</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>113</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>115</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>116</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>117</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>113</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ8">
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <v>28.8</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>114</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>113</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>113</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>115</v>
+      </c>
+      <c r="BF8">
+        <v>0</v>
+      </c>
+      <c r="BG8">
+        <v>0</v>
+      </c>
+      <c r="BH8">
+        <v>0</v>
+      </c>
+      <c r="BI8" t="s">
+        <v>114</v>
+      </c>
+      <c r="BJ8" t="s">
+        <v>113</v>
+      </c>
+      <c r="BK8" t="s">
+        <v>113</v>
+      </c>
+      <c r="BL8" t="s">
+        <v>115</v>
+      </c>
+      <c r="BM8">
+        <v>0</v>
+      </c>
+      <c r="BN8">
+        <v>0</v>
+      </c>
+      <c r="BO8">
+        <v>0</v>
+      </c>
+      <c r="BP8" t="s">
+        <v>114</v>
+      </c>
+      <c r="BQ8" t="s">
+        <v>113</v>
+      </c>
+      <c r="BR8" t="s">
+        <v>113</v>
+      </c>
+      <c r="BS8" t="s">
+        <v>115</v>
+      </c>
+      <c r="BT8">
+        <v>0</v>
+      </c>
+      <c r="BU8">
+        <v>0</v>
+      </c>
+      <c r="BV8">
+        <v>0</v>
+      </c>
+      <c r="BW8" t="s">
+        <v>114</v>
+      </c>
+      <c r="BX8" t="s">
+        <v>113</v>
+      </c>
+      <c r="BY8" t="s">
+        <v>113</v>
+      </c>
+      <c r="BZ8" t="s">
+        <v>115</v>
+      </c>
+      <c r="CA8">
+        <v>0</v>
+      </c>
+      <c r="CB8">
+        <v>0</v>
+      </c>
+      <c r="CC8">
+        <v>0</v>
+      </c>
+      <c r="CD8">
+        <v>0</v>
+      </c>
+      <c r="CE8">
+        <v>0</v>
+      </c>
+      <c r="CF8" t="s">
+        <v>119</v>
+      </c>
+      <c r="CG8">
+        <v>0</v>
+      </c>
+      <c r="CH8">
+        <v>0</v>
+      </c>
+      <c r="CI8" s="2">
+        <v>21852</v>
+      </c>
+      <c r="CJ8" s="2">
+        <v>42583</v>
+      </c>
+      <c r="CK8">
+        <v>57</v>
+      </c>
+      <c r="CL8">
+        <v>999</v>
+      </c>
+      <c r="CM8" s="3">
+        <v>43465</v>
+      </c>
+      <c r="CN8" s="3">
+        <v>55884</v>
+      </c>
+      <c r="CO8">
+        <v>409</v>
+      </c>
+      <c r="CP8">
+        <v>29</v>
+      </c>
+      <c r="CQ8">
+        <v>799</v>
+      </c>
+      <c r="CR8">
+        <v>0</v>
+      </c>
+      <c r="CS8" t="s">
+        <v>120</v>
+      </c>
+      <c r="CT8" t="s">
+        <v>120</v>
+      </c>
+      <c r="CU8">
+        <v>242.1</v>
+      </c>
+      <c r="CX8">
+        <v>0</v>
+      </c>
+      <c r="CY8">
+        <v>0</v>
+      </c>
+      <c r="CZ8">
+        <v>0</v>
+      </c>
+      <c r="DB8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:109">
+      <c r="A9" s="1">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>2018</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1132602</v>
+      </c>
+      <c r="G9">
+        <v>405.1</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>8926</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9" t="s">
+        <v>109</v>
+      </c>
+      <c r="O9">
+        <v>6</v>
+      </c>
+      <c r="P9">
+        <v>2</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>110</v>
+      </c>
+      <c r="R9">
+        <v>849.9</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>99</v>
+      </c>
+      <c r="U9">
+        <v>99</v>
+      </c>
+      <c r="V9" s="2">
+        <v>42552</v>
+      </c>
+      <c r="W9" s="2">
+        <v>78709</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>532.7</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>446.3</v>
+      </c>
+      <c r="AC9">
+        <v>145.6</v>
+      </c>
+      <c r="AD9">
+        <v>1</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>113</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>115</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>116</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>117</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>113</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>0</v>
+      </c>
+      <c r="BB9" t="s">
+        <v>114</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>113</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>113</v>
+      </c>
+      <c r="BE9" t="s">
+        <v>115</v>
+      </c>
+      <c r="BF9">
+        <v>0</v>
+      </c>
+      <c r="BG9">
+        <v>0</v>
+      </c>
+      <c r="BH9">
+        <v>0</v>
+      </c>
+      <c r="BI9" t="s">
+        <v>114</v>
+      </c>
+      <c r="BJ9" t="s">
+        <v>113</v>
+      </c>
+      <c r="BK9" t="s">
+        <v>113</v>
+      </c>
+      <c r="BL9" t="s">
+        <v>115</v>
+      </c>
+      <c r="BM9">
+        <v>0</v>
+      </c>
+      <c r="BN9">
+        <v>0</v>
+      </c>
+      <c r="BO9">
+        <v>0</v>
+      </c>
+      <c r="BP9" t="s">
+        <v>114</v>
+      </c>
+      <c r="BQ9" t="s">
+        <v>113</v>
+      </c>
+      <c r="BR9" t="s">
+        <v>113</v>
+      </c>
+      <c r="BS9" t="s">
+        <v>115</v>
+      </c>
+      <c r="BT9">
+        <v>0</v>
+      </c>
+      <c r="BU9">
+        <v>0</v>
+      </c>
+      <c r="BV9">
+        <v>0</v>
+      </c>
+      <c r="BW9" t="s">
+        <v>114</v>
+      </c>
+      <c r="BX9" t="s">
+        <v>113</v>
+      </c>
+      <c r="BY9" t="s">
+        <v>113</v>
+      </c>
+      <c r="BZ9" t="s">
+        <v>115</v>
+      </c>
+      <c r="CA9">
+        <v>0</v>
+      </c>
+      <c r="CB9">
+        <v>0</v>
+      </c>
+      <c r="CC9">
+        <v>0</v>
+      </c>
+      <c r="CD9">
+        <v>0</v>
+      </c>
+      <c r="CE9">
+        <v>0</v>
+      </c>
+      <c r="CF9" t="s">
+        <v>119</v>
+      </c>
+      <c r="CG9">
+        <v>0</v>
+      </c>
+      <c r="CH9">
+        <v>4</v>
+      </c>
+      <c r="CI9" s="2">
+        <v>18685</v>
+      </c>
+      <c r="CJ9" s="2">
+        <v>42552</v>
+      </c>
+      <c r="CK9">
+        <v>65</v>
+      </c>
+      <c r="CL9">
+        <v>999</v>
+      </c>
+      <c r="CM9" s="3">
+        <v>43465</v>
+      </c>
+      <c r="CN9" s="3">
+        <v>55884</v>
+      </c>
+      <c r="CO9">
+        <v>409</v>
+      </c>
+      <c r="CP9">
+        <v>30</v>
+      </c>
+      <c r="CQ9">
+        <v>690</v>
+      </c>
+      <c r="CR9">
+        <v>0</v>
+      </c>
+      <c r="CS9" t="s">
+        <v>120</v>
+      </c>
+      <c r="CT9" t="s">
+        <v>120</v>
+      </c>
+      <c r="CU9">
+        <v>405.1</v>
+      </c>
+      <c r="CX9">
+        <v>0</v>
+      </c>
+      <c r="CY9">
+        <v>0</v>
+      </c>
+      <c r="CZ9">
+        <v>0</v>
+      </c>
+      <c r="DB9">
+        <v>1</v>
+      </c>
+      <c r="DC9">
+        <v>0</v>
+      </c>
+      <c r="DD9">
+        <v>0</v>
+      </c>
+      <c r="DE9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:109">
+      <c r="A10" s="1">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>19</v>
+      </c>
+      <c r="C10">
+        <v>2018</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>2211301</v>
+      </c>
+      <c r="G10">
+        <v>321.2</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>25.5</v>
+      </c>
+      <c r="J10">
+        <v>1.3</v>
+      </c>
+      <c r="K10">
+        <v>4700</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10" t="s">
+        <v>109</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>2</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>110</v>
+      </c>
+      <c r="R10">
+        <v>548.3</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>99</v>
+      </c>
+      <c r="U10">
+        <v>99</v>
+      </c>
+      <c r="V10" s="2">
+        <v>42401</v>
+      </c>
+      <c r="W10" s="2">
+        <v>78559</v>
+      </c>
+      <c r="X10">
+        <v>352</v>
+      </c>
+      <c r="Y10">
+        <v>335.1</v>
+      </c>
+      <c r="Z10">
+        <v>301.6</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>261.1</v>
+      </c>
+      <c r="AC10">
+        <v>74</v>
+      </c>
+      <c r="AD10">
+        <v>1</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>113</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>115</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>116</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>117</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>113</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+      <c r="BA10">
+        <v>16.9</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>114</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>113</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>113</v>
+      </c>
+      <c r="BE10" t="s">
+        <v>115</v>
+      </c>
+      <c r="BF10">
+        <v>0</v>
+      </c>
+      <c r="BG10">
+        <v>0</v>
+      </c>
+      <c r="BH10">
+        <v>0</v>
+      </c>
+      <c r="BI10" t="s">
+        <v>114</v>
+      </c>
+      <c r="BJ10" t="s">
+        <v>113</v>
+      </c>
+      <c r="BK10" t="s">
+        <v>113</v>
+      </c>
+      <c r="BL10" t="s">
+        <v>115</v>
+      </c>
+      <c r="BM10">
+        <v>0</v>
+      </c>
+      <c r="BN10">
+        <v>0</v>
+      </c>
+      <c r="BO10">
+        <v>0</v>
+      </c>
+      <c r="BP10" t="s">
+        <v>114</v>
+      </c>
+      <c r="BQ10" t="s">
+        <v>113</v>
+      </c>
+      <c r="BR10" t="s">
+        <v>113</v>
+      </c>
+      <c r="BS10" t="s">
+        <v>115</v>
+      </c>
+      <c r="BT10">
+        <v>0</v>
+      </c>
+      <c r="BU10">
+        <v>0</v>
+      </c>
+      <c r="BV10">
+        <v>0</v>
+      </c>
+      <c r="BW10" t="s">
+        <v>114</v>
+      </c>
+      <c r="BX10" t="s">
+        <v>113</v>
+      </c>
+      <c r="BY10" t="s">
+        <v>113</v>
+      </c>
+      <c r="BZ10" t="s">
+        <v>115</v>
+      </c>
+      <c r="CA10">
+        <v>0</v>
+      </c>
+      <c r="CB10">
+        <v>0</v>
+      </c>
+      <c r="CC10">
+        <v>0</v>
+      </c>
+      <c r="CD10">
+        <v>0</v>
+      </c>
+      <c r="CE10">
+        <v>0</v>
+      </c>
+      <c r="CF10" t="s">
+        <v>119</v>
+      </c>
+      <c r="CG10">
+        <v>0</v>
+      </c>
+      <c r="CH10">
+        <v>0</v>
+      </c>
+      <c r="CI10" s="2">
+        <v>22258</v>
+      </c>
+      <c r="CJ10" s="2">
+        <v>42401</v>
+      </c>
+      <c r="CK10">
+        <v>55</v>
+      </c>
+      <c r="CL10">
+        <v>999</v>
+      </c>
+      <c r="CM10" s="3">
+        <v>43465</v>
+      </c>
+      <c r="CN10" s="3">
+        <v>55884</v>
+      </c>
+      <c r="CO10">
+        <v>409</v>
+      </c>
+      <c r="CP10">
+        <v>35</v>
+      </c>
+      <c r="CQ10">
+        <v>805</v>
+      </c>
+      <c r="CR10">
+        <v>0</v>
+      </c>
+      <c r="CS10" t="s">
+        <v>120</v>
+      </c>
+      <c r="CT10" t="s">
+        <v>120</v>
+      </c>
+      <c r="CU10">
+        <v>348</v>
+      </c>
+      <c r="CX10">
+        <v>0</v>
+      </c>
+      <c r="CY10">
+        <v>0</v>
+      </c>
+      <c r="CZ10">
+        <v>0</v>
+      </c>
+      <c r="DB10">
         <v>1</v>
       </c>
     </row>

--- a/zFT/ptf.xlsx
+++ b/zFT/ptf.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="130">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -343,18 +343,51 @@
     <t>ANDEBUT</t>
   </si>
   <si>
+    <t xml:space="preserve">EKF1995   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EKM1995   </t>
+  </si>
+  <si>
     <t xml:space="preserve">GKF1995   </t>
   </si>
   <si>
+    <t xml:space="preserve">GKM1995   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">J  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">H  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A  </t>
+  </si>
+  <si>
     <t xml:space="preserve">B  </t>
   </si>
   <si>
+    <t xml:space="preserve">C  </t>
+  </si>
+  <si>
     <t>F</t>
   </si>
   <si>
+    <t>M</t>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
     <t>0000</t>
   </si>
   <si>
@@ -364,7 +397,7 @@
     <t>0103</t>
   </si>
   <si>
-    <t xml:space="preserve">    </t>
+    <t>X</t>
   </si>
   <si>
     <t xml:space="preserve">CHF </t>
@@ -734,7 +767,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DF2"/>
+  <dimension ref="A1:DF29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1071,10 +1104,10 @@
     </row>
     <row r="2" spans="1:110">
       <c r="A2" s="1">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>2018</v>
@@ -1086,46 +1119,46 @@
         <v>3</v>
       </c>
       <c r="F2">
-        <v>743801</v>
+        <v>572503</v>
       </c>
       <c r="G2">
-        <v>2709.2</v>
+        <v>382.5</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>37.6</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="K2">
-        <v>5370</v>
+        <v>11876</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="N2" t="s">
         <v>109</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P2">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="Q2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="R2">
-        <v>2862.6</v>
+        <v>1015.8</v>
       </c>
       <c r="S2">
-        <v>2699.4</v>
+        <v>0</v>
       </c>
       <c r="T2">
         <v>99</v>
@@ -1134,52 +1167,52 @@
         <v>99</v>
       </c>
       <c r="V2" s="2">
-        <v>36892</v>
+        <v>42401</v>
       </c>
       <c r="W2" s="3">
-        <v>73050</v>
+        <v>78559</v>
       </c>
       <c r="X2">
-        <v>400</v>
+        <v>552</v>
       </c>
       <c r="Y2">
-        <v>400</v>
+        <v>509.2</v>
       </c>
       <c r="Z2">
-        <v>338.8</v>
+        <v>458.3</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>379.8</v>
+        <v>395.9</v>
       </c>
       <c r="AC2">
-        <v>0.9</v>
+        <v>113.4</v>
       </c>
       <c r="AD2">
         <v>1</v>
       </c>
       <c r="AE2" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="AF2" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="AG2">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="AH2" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="AI2" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="AJ2" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="AK2" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -1191,16 +1224,16 @@
         <v>0</v>
       </c>
       <c r="AO2" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="AP2" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="AQ2" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="AR2" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="AS2">
         <v>0</v>
@@ -1212,34 +1245,34 @@
         <v>0</v>
       </c>
       <c r="AV2" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="AW2" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="AX2" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="AY2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="AZ2">
         <v>0</v>
       </c>
       <c r="BA2">
-        <v>0</v>
+        <v>42.8</v>
       </c>
       <c r="BB2" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="BC2" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="BD2" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="BE2" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="BF2">
         <v>0</v>
@@ -1251,16 +1284,16 @@
         <v>0</v>
       </c>
       <c r="BI2" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="BJ2" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="BK2" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="BL2" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="BM2">
         <v>0</v>
@@ -1272,16 +1305,16 @@
         <v>0</v>
       </c>
       <c r="BP2" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="BQ2" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="BR2" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="BS2" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="BT2">
         <v>0</v>
@@ -1293,16 +1326,16 @@
         <v>0</v>
       </c>
       <c r="BW2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="BX2" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="BY2" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="BZ2" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="CA2">
         <v>0</v>
@@ -1320,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="CF2" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="CG2">
         <v>0</v>
@@ -1329,13 +1362,13 @@
         <v>0</v>
       </c>
       <c r="CI2" s="3">
-        <v>10218</v>
+        <v>22248</v>
       </c>
       <c r="CJ2" s="3">
-        <v>36892</v>
+        <v>42401</v>
       </c>
       <c r="CK2">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="CL2">
         <v>999</v>
@@ -1350,22 +1383,22 @@
         <v>409</v>
       </c>
       <c r="CP2">
-        <v>216</v>
+        <v>35</v>
       </c>
       <c r="CQ2">
-        <v>972</v>
+        <v>1153</v>
       </c>
       <c r="CR2">
         <v>0</v>
       </c>
       <c r="CS2" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="CT2" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="CU2">
-        <v>2709.2</v>
+        <v>423.3</v>
       </c>
       <c r="CX2">
         <v>0</v>
@@ -1380,7 +1413,8530 @@
         <v>1</v>
       </c>
       <c r="DF2">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="3" spans="1:110">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2018</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>732001</v>
+      </c>
+      <c r="G3">
+        <v>383</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>7374</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3" t="s">
+        <v>109</v>
+      </c>
+      <c r="O3">
+        <v>4</v>
+      </c>
+      <c r="P3">
+        <v>2</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>113</v>
+      </c>
+      <c r="R3">
+        <v>759.1</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>99</v>
+      </c>
+      <c r="U3">
+        <v>99</v>
+      </c>
+      <c r="V3" s="2">
+        <v>42370</v>
+      </c>
+      <c r="W3" s="3">
+        <v>78528</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>336.1</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>307.3</v>
+      </c>
+      <c r="AC3">
+        <v>66.2</v>
+      </c>
+      <c r="AD3">
+        <v>1</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>122</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>123</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>122</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>122</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>126</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>127</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>122</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>123</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>122</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>122</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>123</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>122</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BM3">
+        <v>0</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>0</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>123</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>122</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>122</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BV3">
+        <v>0</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>123</v>
+      </c>
+      <c r="BX3" t="s">
+        <v>122</v>
+      </c>
+      <c r="BY3" t="s">
+        <v>122</v>
+      </c>
+      <c r="BZ3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CA3">
+        <v>0</v>
+      </c>
+      <c r="CB3">
+        <v>0</v>
+      </c>
+      <c r="CC3">
+        <v>0</v>
+      </c>
+      <c r="CD3">
+        <v>0</v>
+      </c>
+      <c r="CE3">
+        <v>0</v>
+      </c>
+      <c r="CF3" t="s">
+        <v>128</v>
+      </c>
+      <c r="CG3">
+        <v>0</v>
+      </c>
+      <c r="CH3">
+        <v>4</v>
+      </c>
+      <c r="CI3" s="3">
+        <v>20164</v>
+      </c>
+      <c r="CJ3" s="3">
+        <v>42370</v>
+      </c>
+      <c r="CK3">
+        <v>60</v>
+      </c>
+      <c r="CL3">
+        <v>999</v>
+      </c>
+      <c r="CM3" s="2">
+        <v>43465</v>
+      </c>
+      <c r="CN3" s="2">
+        <v>55884</v>
+      </c>
+      <c r="CO3">
+        <v>409</v>
+      </c>
+      <c r="CP3">
+        <v>36</v>
+      </c>
+      <c r="CQ3">
+        <v>1152</v>
+      </c>
+      <c r="CR3">
+        <v>0</v>
+      </c>
+      <c r="CS3" t="s">
+        <v>129</v>
+      </c>
+      <c r="CT3" t="s">
+        <v>129</v>
+      </c>
+      <c r="CU3">
+        <v>383</v>
+      </c>
+      <c r="CX3">
+        <v>0</v>
+      </c>
+      <c r="CY3">
+        <v>0</v>
+      </c>
+      <c r="CZ3">
+        <v>0</v>
+      </c>
+      <c r="DB3">
+        <v>1</v>
+      </c>
+      <c r="DC3">
+        <v>0</v>
+      </c>
+      <c r="DD3">
+        <v>0</v>
+      </c>
+      <c r="DE3">
+        <v>0</v>
+      </c>
+      <c r="DF3">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="4" spans="1:110">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>2018</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1132701</v>
+      </c>
+      <c r="G4">
+        <v>293.9</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>8700</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4" t="s">
+        <v>109</v>
+      </c>
+      <c r="O4">
+        <v>6</v>
+      </c>
+      <c r="P4">
+        <v>2</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>113</v>
+      </c>
+      <c r="R4">
+        <v>740.8</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>99</v>
+      </c>
+      <c r="U4">
+        <v>99</v>
+      </c>
+      <c r="V4" s="2">
+        <v>42644</v>
+      </c>
+      <c r="W4" s="3">
+        <v>78801</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>436.6</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>414.3</v>
+      </c>
+      <c r="AC4">
+        <v>313.4</v>
+      </c>
+      <c r="AD4">
+        <v>1</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>122</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>123</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>122</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>122</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>126</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>122</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>123</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>122</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>122</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>125</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>123</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>122</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>125</v>
+      </c>
+      <c r="BM4">
+        <v>0</v>
+      </c>
+      <c r="BN4">
+        <v>0</v>
+      </c>
+      <c r="BO4">
+        <v>0</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>123</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>122</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>122</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>125</v>
+      </c>
+      <c r="BT4">
+        <v>0</v>
+      </c>
+      <c r="BU4">
+        <v>0</v>
+      </c>
+      <c r="BV4">
+        <v>0</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>123</v>
+      </c>
+      <c r="BX4" t="s">
+        <v>122</v>
+      </c>
+      <c r="BY4" t="s">
+        <v>122</v>
+      </c>
+      <c r="BZ4" t="s">
+        <v>125</v>
+      </c>
+      <c r="CA4">
+        <v>0</v>
+      </c>
+      <c r="CB4">
+        <v>0</v>
+      </c>
+      <c r="CC4">
+        <v>0</v>
+      </c>
+      <c r="CD4">
+        <v>0</v>
+      </c>
+      <c r="CE4">
+        <v>0</v>
+      </c>
+      <c r="CF4" t="s">
+        <v>128</v>
+      </c>
+      <c r="CG4">
+        <v>0</v>
+      </c>
+      <c r="CH4">
+        <v>4</v>
+      </c>
+      <c r="CI4" s="3">
+        <v>19384</v>
+      </c>
+      <c r="CJ4" s="3">
+        <v>42644</v>
+      </c>
+      <c r="CK4">
+        <v>63</v>
+      </c>
+      <c r="CL4">
+        <v>999</v>
+      </c>
+      <c r="CM4" s="2">
+        <v>43465</v>
+      </c>
+      <c r="CN4" s="2">
+        <v>55884</v>
+      </c>
+      <c r="CO4">
+        <v>409</v>
+      </c>
+      <c r="CP4">
+        <v>27</v>
+      </c>
+      <c r="CQ4">
+        <v>1161</v>
+      </c>
+      <c r="CR4">
+        <v>0</v>
+      </c>
+      <c r="CS4" t="s">
+        <v>129</v>
+      </c>
+      <c r="CT4" t="s">
+        <v>129</v>
+      </c>
+      <c r="CU4">
+        <v>293.9</v>
+      </c>
+      <c r="CX4">
+        <v>0</v>
+      </c>
+      <c r="CY4">
+        <v>0</v>
+      </c>
+      <c r="CZ4">
+        <v>0</v>
+      </c>
+      <c r="DB4">
+        <v>1</v>
+      </c>
+      <c r="DC4">
+        <v>0</v>
+      </c>
+      <c r="DD4">
+        <v>0</v>
+      </c>
+      <c r="DE4">
+        <v>0</v>
+      </c>
+      <c r="DF4">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="5" spans="1:110">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>2018</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1847803</v>
+      </c>
+      <c r="G5">
+        <v>4095</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>26408</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>1.75</v>
+      </c>
+      <c r="N5" t="s">
+        <v>109</v>
+      </c>
+      <c r="O5">
+        <v>4</v>
+      </c>
+      <c r="P5">
+        <v>8</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>114</v>
+      </c>
+      <c r="R5">
+        <v>5286.2</v>
+      </c>
+      <c r="S5">
+        <v>4041.5</v>
+      </c>
+      <c r="T5">
+        <v>99</v>
+      </c>
+      <c r="U5">
+        <v>99</v>
+      </c>
+      <c r="V5" s="2">
+        <v>40179</v>
+      </c>
+      <c r="W5" s="3">
+        <v>76337</v>
+      </c>
+      <c r="X5">
+        <v>960</v>
+      </c>
+      <c r="Y5">
+        <v>864.9</v>
+      </c>
+      <c r="Z5">
+        <v>769.8</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>611.9</v>
+      </c>
+      <c r="AC5">
+        <v>253</v>
+      </c>
+      <c r="AD5">
+        <v>1</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG5">
+        <v>1.75</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>122</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>125</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>123</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>122</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>122</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>125</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>126</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>127</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>122</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>123</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>122</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>122</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>125</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>123</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>122</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>125</v>
+      </c>
+      <c r="BM5">
+        <v>0</v>
+      </c>
+      <c r="BN5">
+        <v>0</v>
+      </c>
+      <c r="BO5">
+        <v>0</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>123</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>122</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>122</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>125</v>
+      </c>
+      <c r="BT5">
+        <v>0</v>
+      </c>
+      <c r="BU5">
+        <v>0</v>
+      </c>
+      <c r="BV5">
+        <v>0</v>
+      </c>
+      <c r="BW5" t="s">
+        <v>123</v>
+      </c>
+      <c r="BX5" t="s">
+        <v>122</v>
+      </c>
+      <c r="BY5" t="s">
+        <v>122</v>
+      </c>
+      <c r="BZ5" t="s">
+        <v>125</v>
+      </c>
+      <c r="CA5">
+        <v>0</v>
+      </c>
+      <c r="CB5">
+        <v>0</v>
+      </c>
+      <c r="CC5">
+        <v>0</v>
+      </c>
+      <c r="CD5">
+        <v>0</v>
+      </c>
+      <c r="CE5">
+        <v>0</v>
+      </c>
+      <c r="CF5" t="s">
+        <v>128</v>
+      </c>
+      <c r="CG5">
+        <v>0</v>
+      </c>
+      <c r="CH5">
+        <v>0</v>
+      </c>
+      <c r="CI5" s="3">
+        <v>20638</v>
+      </c>
+      <c r="CJ5" s="3">
+        <v>40179</v>
+      </c>
+      <c r="CK5">
+        <v>53</v>
+      </c>
+      <c r="CL5">
+        <v>999</v>
+      </c>
+      <c r="CM5" s="2">
+        <v>43465</v>
+      </c>
+      <c r="CN5" s="2">
+        <v>55884</v>
+      </c>
+      <c r="CO5">
+        <v>409</v>
+      </c>
+      <c r="CP5">
+        <v>108</v>
+      </c>
+      <c r="CQ5">
+        <v>1080</v>
+      </c>
+      <c r="CR5">
+        <v>0</v>
+      </c>
+      <c r="CS5" t="s">
+        <v>129</v>
+      </c>
+      <c r="CT5" t="s">
+        <v>129</v>
+      </c>
+      <c r="CU5">
+        <v>4095</v>
+      </c>
+      <c r="CX5">
+        <v>0</v>
+      </c>
+      <c r="CY5">
+        <v>0</v>
+      </c>
+      <c r="CZ5">
+        <v>0</v>
+      </c>
+      <c r="DB5">
+        <v>1</v>
+      </c>
+      <c r="DF5">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="6" spans="1:110">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>2018</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>2055601</v>
+      </c>
+      <c r="G6">
+        <v>982.7</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>136.1</v>
+      </c>
+      <c r="J6">
+        <v>12.4</v>
+      </c>
+      <c r="K6">
+        <v>9310</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0.5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>109</v>
+      </c>
+      <c r="O6">
+        <v>2</v>
+      </c>
+      <c r="P6">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>115</v>
+      </c>
+      <c r="R6">
+        <v>1384.9</v>
+      </c>
+      <c r="S6">
+        <v>961.1</v>
+      </c>
+      <c r="T6">
+        <v>99</v>
+      </c>
+      <c r="U6">
+        <v>99</v>
+      </c>
+      <c r="V6" s="2">
+        <v>41426</v>
+      </c>
+      <c r="W6" s="3">
+        <v>77584</v>
+      </c>
+      <c r="X6">
+        <v>400</v>
+      </c>
+      <c r="Y6">
+        <v>366.5</v>
+      </c>
+      <c r="Z6">
+        <v>329.8</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>277</v>
+      </c>
+      <c r="AC6">
+        <v>89.5</v>
+      </c>
+      <c r="AD6">
+        <v>1</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG6">
+        <v>0.5</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>122</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>125</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>123</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>122</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>122</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>125</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>126</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>127</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>122</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>33.5</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>123</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>122</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>122</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>125</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>123</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>122</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>125</v>
+      </c>
+      <c r="BM6">
+        <v>0</v>
+      </c>
+      <c r="BN6">
+        <v>0</v>
+      </c>
+      <c r="BO6">
+        <v>0</v>
+      </c>
+      <c r="BP6" t="s">
+        <v>123</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>122</v>
+      </c>
+      <c r="BR6" t="s">
+        <v>122</v>
+      </c>
+      <c r="BS6" t="s">
+        <v>125</v>
+      </c>
+      <c r="BT6">
+        <v>0</v>
+      </c>
+      <c r="BU6">
+        <v>0</v>
+      </c>
+      <c r="BV6">
+        <v>0</v>
+      </c>
+      <c r="BW6" t="s">
+        <v>123</v>
+      </c>
+      <c r="BX6" t="s">
+        <v>122</v>
+      </c>
+      <c r="BY6" t="s">
+        <v>122</v>
+      </c>
+      <c r="BZ6" t="s">
+        <v>125</v>
+      </c>
+      <c r="CA6">
+        <v>0</v>
+      </c>
+      <c r="CB6">
+        <v>0</v>
+      </c>
+      <c r="CC6">
+        <v>0</v>
+      </c>
+      <c r="CD6">
+        <v>0</v>
+      </c>
+      <c r="CE6">
+        <v>0</v>
+      </c>
+      <c r="CF6" t="s">
+        <v>128</v>
+      </c>
+      <c r="CG6">
+        <v>0</v>
+      </c>
+      <c r="CH6">
+        <v>0</v>
+      </c>
+      <c r="CI6" s="3">
+        <v>21557</v>
+      </c>
+      <c r="CJ6" s="3">
+        <v>41426</v>
+      </c>
+      <c r="CK6">
+        <v>54</v>
+      </c>
+      <c r="CL6">
+        <v>999</v>
+      </c>
+      <c r="CM6" s="2">
+        <v>43465</v>
+      </c>
+      <c r="CN6" s="2">
+        <v>55884</v>
+      </c>
+      <c r="CO6">
+        <v>409</v>
+      </c>
+      <c r="CP6">
+        <v>67</v>
+      </c>
+      <c r="CQ6">
+        <v>1121</v>
+      </c>
+      <c r="CR6">
+        <v>0</v>
+      </c>
+      <c r="CS6" t="s">
+        <v>129</v>
+      </c>
+      <c r="CT6" t="s">
+        <v>129</v>
+      </c>
+      <c r="CU6">
+        <v>1131.2</v>
+      </c>
+      <c r="CX6">
+        <v>0</v>
+      </c>
+      <c r="CY6">
+        <v>0</v>
+      </c>
+      <c r="CZ6">
+        <v>0</v>
+      </c>
+      <c r="DB6">
+        <v>1</v>
+      </c>
+      <c r="DF6">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="7" spans="1:110">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>2018</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>2085801</v>
+      </c>
+      <c r="G7">
+        <v>4438</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>84.5</v>
+      </c>
+      <c r="J7">
+        <v>4.1</v>
+      </c>
+      <c r="K7">
+        <v>15443</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0.5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>109</v>
+      </c>
+      <c r="O7">
+        <v>6</v>
+      </c>
+      <c r="P7">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>115</v>
+      </c>
+      <c r="R7">
+        <v>4954.7</v>
+      </c>
+      <c r="S7">
+        <v>4351.2</v>
+      </c>
+      <c r="T7">
+        <v>99</v>
+      </c>
+      <c r="U7">
+        <v>15</v>
+      </c>
+      <c r="V7" s="2">
+        <v>41609</v>
+      </c>
+      <c r="W7" s="3">
+        <v>77767</v>
+      </c>
+      <c r="X7">
+        <v>1200</v>
+      </c>
+      <c r="Y7">
+        <v>1144.4</v>
+      </c>
+      <c r="Z7">
+        <v>1029.9</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>459.5</v>
+      </c>
+      <c r="AC7">
+        <v>684.9</v>
+      </c>
+      <c r="AD7">
+        <v>1</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG7">
+        <v>0.5</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>122</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>125</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>123</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>122</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>122</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>125</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>126</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>127</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>122</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <v>55.6</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>123</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>122</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>122</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>125</v>
+      </c>
+      <c r="BF7">
+        <v>0</v>
+      </c>
+      <c r="BG7">
+        <v>0</v>
+      </c>
+      <c r="BH7">
+        <v>0</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>123</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>122</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>125</v>
+      </c>
+      <c r="BM7">
+        <v>0</v>
+      </c>
+      <c r="BN7">
+        <v>0</v>
+      </c>
+      <c r="BO7">
+        <v>0</v>
+      </c>
+      <c r="BP7" t="s">
+        <v>123</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>122</v>
+      </c>
+      <c r="BR7" t="s">
+        <v>122</v>
+      </c>
+      <c r="BS7" t="s">
+        <v>125</v>
+      </c>
+      <c r="BT7">
+        <v>0</v>
+      </c>
+      <c r="BU7">
+        <v>0</v>
+      </c>
+      <c r="BV7">
+        <v>0</v>
+      </c>
+      <c r="BW7" t="s">
+        <v>123</v>
+      </c>
+      <c r="BX7" t="s">
+        <v>122</v>
+      </c>
+      <c r="BY7" t="s">
+        <v>122</v>
+      </c>
+      <c r="BZ7" t="s">
+        <v>125</v>
+      </c>
+      <c r="CA7">
+        <v>0</v>
+      </c>
+      <c r="CB7">
+        <v>0</v>
+      </c>
+      <c r="CC7">
+        <v>0</v>
+      </c>
+      <c r="CD7">
+        <v>0</v>
+      </c>
+      <c r="CE7">
+        <v>0</v>
+      </c>
+      <c r="CF7" t="s">
+        <v>128</v>
+      </c>
+      <c r="CG7">
+        <v>0</v>
+      </c>
+      <c r="CH7">
+        <v>0</v>
+      </c>
+      <c r="CI7" s="3">
+        <v>21893</v>
+      </c>
+      <c r="CJ7" s="3">
+        <v>41609</v>
+      </c>
+      <c r="CK7">
+        <v>53</v>
+      </c>
+      <c r="CL7">
+        <v>999</v>
+      </c>
+      <c r="CM7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="CN7" s="2">
+        <v>55884</v>
+      </c>
+      <c r="CO7">
+        <v>409</v>
+      </c>
+      <c r="CP7">
+        <v>61</v>
+      </c>
+      <c r="CQ7">
+        <v>1127</v>
+      </c>
+      <c r="CR7">
+        <v>0</v>
+      </c>
+      <c r="CS7" t="s">
+        <v>129</v>
+      </c>
+      <c r="CT7" t="s">
+        <v>129</v>
+      </c>
+      <c r="CU7">
+        <v>4526.6</v>
+      </c>
+      <c r="CX7">
+        <v>0</v>
+      </c>
+      <c r="CY7">
+        <v>0</v>
+      </c>
+      <c r="CZ7">
+        <v>0</v>
+      </c>
+      <c r="DB7">
+        <v>1</v>
+      </c>
+      <c r="DF7">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="8" spans="1:110">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>2018</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>2168202</v>
+      </c>
+      <c r="G8">
+        <v>1996.1</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>17223</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0.25</v>
+      </c>
+      <c r="N8" t="s">
+        <v>109</v>
+      </c>
+      <c r="O8">
+        <v>12</v>
+      </c>
+      <c r="P8">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>116</v>
+      </c>
+      <c r="R8">
+        <v>2757.9</v>
+      </c>
+      <c r="S8">
+        <v>1949.8</v>
+      </c>
+      <c r="T8">
+        <v>99</v>
+      </c>
+      <c r="U8">
+        <v>99</v>
+      </c>
+      <c r="V8" s="2">
+        <v>42095</v>
+      </c>
+      <c r="W8" s="3">
+        <v>78253</v>
+      </c>
+      <c r="X8">
+        <v>1200</v>
+      </c>
+      <c r="Y8">
+        <v>1138</v>
+      </c>
+      <c r="Z8">
+        <v>1024.2</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>1053.8</v>
+      </c>
+      <c r="AC8">
+        <v>84.2</v>
+      </c>
+      <c r="AD8">
+        <v>1</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG8">
+        <v>0.25</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>122</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>125</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>123</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>122</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>122</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>125</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>126</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>127</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>122</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ8">
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <v>62</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>123</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>122</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>122</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>125</v>
+      </c>
+      <c r="BF8">
+        <v>0</v>
+      </c>
+      <c r="BG8">
+        <v>0</v>
+      </c>
+      <c r="BH8">
+        <v>0</v>
+      </c>
+      <c r="BI8" t="s">
+        <v>123</v>
+      </c>
+      <c r="BJ8" t="s">
+        <v>122</v>
+      </c>
+      <c r="BK8" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL8" t="s">
+        <v>125</v>
+      </c>
+      <c r="BM8">
+        <v>0</v>
+      </c>
+      <c r="BN8">
+        <v>0</v>
+      </c>
+      <c r="BO8">
+        <v>0</v>
+      </c>
+      <c r="BP8" t="s">
+        <v>123</v>
+      </c>
+      <c r="BQ8" t="s">
+        <v>122</v>
+      </c>
+      <c r="BR8" t="s">
+        <v>122</v>
+      </c>
+      <c r="BS8" t="s">
+        <v>125</v>
+      </c>
+      <c r="BT8">
+        <v>0</v>
+      </c>
+      <c r="BU8">
+        <v>0</v>
+      </c>
+      <c r="BV8">
+        <v>0</v>
+      </c>
+      <c r="BW8" t="s">
+        <v>123</v>
+      </c>
+      <c r="BX8" t="s">
+        <v>122</v>
+      </c>
+      <c r="BY8" t="s">
+        <v>122</v>
+      </c>
+      <c r="BZ8" t="s">
+        <v>125</v>
+      </c>
+      <c r="CA8">
+        <v>0</v>
+      </c>
+      <c r="CB8">
+        <v>0</v>
+      </c>
+      <c r="CC8">
+        <v>0</v>
+      </c>
+      <c r="CD8">
+        <v>0</v>
+      </c>
+      <c r="CE8">
+        <v>0</v>
+      </c>
+      <c r="CF8" t="s">
+        <v>128</v>
+      </c>
+      <c r="CG8">
+        <v>0</v>
+      </c>
+      <c r="CH8">
+        <v>0</v>
+      </c>
+      <c r="CI8" s="3">
+        <v>16982</v>
+      </c>
+      <c r="CJ8" s="3">
+        <v>42095</v>
+      </c>
+      <c r="CK8">
+        <v>68</v>
+      </c>
+      <c r="CL8">
+        <v>999</v>
+      </c>
+      <c r="CM8" s="2">
+        <v>43465</v>
+      </c>
+      <c r="CN8" s="2">
+        <v>55884</v>
+      </c>
+      <c r="CO8">
+        <v>409</v>
+      </c>
+      <c r="CP8">
+        <v>45</v>
+      </c>
+      <c r="CQ8">
+        <v>1143</v>
+      </c>
+      <c r="CR8">
+        <v>0</v>
+      </c>
+      <c r="CS8" t="s">
+        <v>129</v>
+      </c>
+      <c r="CT8" t="s">
+        <v>129</v>
+      </c>
+      <c r="CU8">
+        <v>1996.1</v>
+      </c>
+      <c r="CX8">
+        <v>0</v>
+      </c>
+      <c r="CY8">
+        <v>0</v>
+      </c>
+      <c r="CZ8">
+        <v>0</v>
+      </c>
+      <c r="DB8">
+        <v>1</v>
+      </c>
+      <c r="DF8">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="9" spans="1:110">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>2018</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>2172401</v>
+      </c>
+      <c r="G9">
+        <v>3525.5</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>17441</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0.25</v>
+      </c>
+      <c r="N9" t="s">
+        <v>109</v>
+      </c>
+      <c r="O9">
+        <v>12</v>
+      </c>
+      <c r="P9">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>116</v>
+      </c>
+      <c r="R9">
+        <v>4233.1</v>
+      </c>
+      <c r="S9">
+        <v>3423.8</v>
+      </c>
+      <c r="T9">
+        <v>99</v>
+      </c>
+      <c r="U9">
+        <v>15</v>
+      </c>
+      <c r="V9" s="2">
+        <v>42125</v>
+      </c>
+      <c r="W9" s="3">
+        <v>78283</v>
+      </c>
+      <c r="X9">
+        <v>1440</v>
+      </c>
+      <c r="Y9">
+        <v>1377.2</v>
+      </c>
+      <c r="Z9">
+        <v>1239.5</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>579.2</v>
+      </c>
+      <c r="AC9">
+        <v>798.1</v>
+      </c>
+      <c r="AD9">
+        <v>1</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG9">
+        <v>0.25</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>122</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>125</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>123</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>122</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>122</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>125</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>126</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>127</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>122</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>62.8</v>
+      </c>
+      <c r="BB9" t="s">
+        <v>123</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>122</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>122</v>
+      </c>
+      <c r="BE9" t="s">
+        <v>125</v>
+      </c>
+      <c r="BF9">
+        <v>0</v>
+      </c>
+      <c r="BG9">
+        <v>0</v>
+      </c>
+      <c r="BH9">
+        <v>0</v>
+      </c>
+      <c r="BI9" t="s">
+        <v>123</v>
+      </c>
+      <c r="BJ9" t="s">
+        <v>122</v>
+      </c>
+      <c r="BK9" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL9" t="s">
+        <v>125</v>
+      </c>
+      <c r="BM9">
+        <v>0</v>
+      </c>
+      <c r="BN9">
+        <v>0</v>
+      </c>
+      <c r="BO9">
+        <v>0</v>
+      </c>
+      <c r="BP9" t="s">
+        <v>123</v>
+      </c>
+      <c r="BQ9" t="s">
+        <v>122</v>
+      </c>
+      <c r="BR9" t="s">
+        <v>122</v>
+      </c>
+      <c r="BS9" t="s">
+        <v>125</v>
+      </c>
+      <c r="BT9">
+        <v>0</v>
+      </c>
+      <c r="BU9">
+        <v>0</v>
+      </c>
+      <c r="BV9">
+        <v>0</v>
+      </c>
+      <c r="BW9" t="s">
+        <v>123</v>
+      </c>
+      <c r="BX9" t="s">
+        <v>122</v>
+      </c>
+      <c r="BY9" t="s">
+        <v>122</v>
+      </c>
+      <c r="BZ9" t="s">
+        <v>125</v>
+      </c>
+      <c r="CA9">
+        <v>0</v>
+      </c>
+      <c r="CB9">
+        <v>0</v>
+      </c>
+      <c r="CC9">
+        <v>0</v>
+      </c>
+      <c r="CD9">
+        <v>0</v>
+      </c>
+      <c r="CE9">
+        <v>0</v>
+      </c>
+      <c r="CF9" t="s">
+        <v>128</v>
+      </c>
+      <c r="CG9">
+        <v>0</v>
+      </c>
+      <c r="CH9">
+        <v>0</v>
+      </c>
+      <c r="CI9" s="3">
+        <v>21535</v>
+      </c>
+      <c r="CJ9" s="3">
+        <v>42125</v>
+      </c>
+      <c r="CK9">
+        <v>56</v>
+      </c>
+      <c r="CL9">
+        <v>999</v>
+      </c>
+      <c r="CM9" s="2">
+        <v>43465</v>
+      </c>
+      <c r="CN9" s="2">
+        <v>55884</v>
+      </c>
+      <c r="CO9">
+        <v>409</v>
+      </c>
+      <c r="CP9">
+        <v>44</v>
+      </c>
+      <c r="CQ9">
+        <v>1144</v>
+      </c>
+      <c r="CR9">
+        <v>0</v>
+      </c>
+      <c r="CS9" t="s">
+        <v>129</v>
+      </c>
+      <c r="CT9" t="s">
+        <v>129</v>
+      </c>
+      <c r="CU9">
+        <v>3525.5</v>
+      </c>
+      <c r="CX9">
+        <v>0</v>
+      </c>
+      <c r="CY9">
+        <v>0</v>
+      </c>
+      <c r="CZ9">
+        <v>0</v>
+      </c>
+      <c r="DB9">
+        <v>1</v>
+      </c>
+      <c r="DF9">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="10" spans="1:110">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>2018</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>101203</v>
+      </c>
+      <c r="G10">
+        <v>342.2</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>3692</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0.5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>110</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>115</v>
+      </c>
+      <c r="R10">
+        <v>503.5</v>
+      </c>
+      <c r="S10">
+        <v>340</v>
+      </c>
+      <c r="T10">
+        <v>99</v>
+      </c>
+      <c r="U10">
+        <v>99</v>
+      </c>
+      <c r="V10" s="2">
+        <v>41852</v>
+      </c>
+      <c r="W10" s="3">
+        <v>78010</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>168</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>127.4</v>
+      </c>
+      <c r="AC10">
+        <v>59.3</v>
+      </c>
+      <c r="AD10">
+        <v>1</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG10">
+        <v>0.5</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>122</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>125</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>123</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>122</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>122</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>125</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>126</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>127</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>122</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+      <c r="BA10">
+        <v>0</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>123</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>122</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>122</v>
+      </c>
+      <c r="BE10" t="s">
+        <v>125</v>
+      </c>
+      <c r="BF10">
+        <v>0</v>
+      </c>
+      <c r="BG10">
+        <v>0</v>
+      </c>
+      <c r="BH10">
+        <v>0</v>
+      </c>
+      <c r="BI10" t="s">
+        <v>123</v>
+      </c>
+      <c r="BJ10" t="s">
+        <v>122</v>
+      </c>
+      <c r="BK10" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL10" t="s">
+        <v>125</v>
+      </c>
+      <c r="BM10">
+        <v>0</v>
+      </c>
+      <c r="BN10">
+        <v>0</v>
+      </c>
+      <c r="BO10">
+        <v>0</v>
+      </c>
+      <c r="BP10" t="s">
+        <v>123</v>
+      </c>
+      <c r="BQ10" t="s">
+        <v>122</v>
+      </c>
+      <c r="BR10" t="s">
+        <v>122</v>
+      </c>
+      <c r="BS10" t="s">
+        <v>125</v>
+      </c>
+      <c r="BT10">
+        <v>0</v>
+      </c>
+      <c r="BU10">
+        <v>0</v>
+      </c>
+      <c r="BV10">
+        <v>0</v>
+      </c>
+      <c r="BW10" t="s">
+        <v>123</v>
+      </c>
+      <c r="BX10" t="s">
+        <v>122</v>
+      </c>
+      <c r="BY10" t="s">
+        <v>122</v>
+      </c>
+      <c r="BZ10" t="s">
+        <v>125</v>
+      </c>
+      <c r="CA10">
+        <v>0</v>
+      </c>
+      <c r="CB10">
+        <v>0</v>
+      </c>
+      <c r="CC10">
+        <v>0</v>
+      </c>
+      <c r="CD10">
+        <v>0</v>
+      </c>
+      <c r="CE10">
+        <v>0</v>
+      </c>
+      <c r="CF10" t="s">
+        <v>128</v>
+      </c>
+      <c r="CG10">
+        <v>0</v>
+      </c>
+      <c r="CH10">
+        <v>4</v>
+      </c>
+      <c r="CI10" s="3">
+        <v>20639</v>
+      </c>
+      <c r="CJ10" s="3">
+        <v>41852</v>
+      </c>
+      <c r="CK10">
+        <v>58</v>
+      </c>
+      <c r="CL10">
+        <v>999</v>
+      </c>
+      <c r="CM10" s="2">
+        <v>43465</v>
+      </c>
+      <c r="CN10" s="2">
+        <v>55884</v>
+      </c>
+      <c r="CO10">
+        <v>409</v>
+      </c>
+      <c r="CP10">
+        <v>53</v>
+      </c>
+      <c r="CQ10">
+        <v>1135</v>
+      </c>
+      <c r="CR10">
+        <v>0</v>
+      </c>
+      <c r="CS10" t="s">
+        <v>129</v>
+      </c>
+      <c r="CT10" t="s">
+        <v>129</v>
+      </c>
+      <c r="CU10">
+        <v>342.2</v>
+      </c>
+      <c r="CX10">
+        <v>0</v>
+      </c>
+      <c r="CY10">
+        <v>0</v>
+      </c>
+      <c r="CZ10">
+        <v>0</v>
+      </c>
+      <c r="DB10">
+        <v>1</v>
+      </c>
+      <c r="DC10">
+        <v>0</v>
+      </c>
+      <c r="DD10">
+        <v>0</v>
+      </c>
+      <c r="DE10">
+        <v>0</v>
+      </c>
+      <c r="DF10">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="11" spans="1:110">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>2018</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>572405</v>
+      </c>
+      <c r="G11">
+        <v>981.8</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>72.2</v>
+      </c>
+      <c r="J11">
+        <v>3.2</v>
+      </c>
+      <c r="K11">
+        <v>12204</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11" t="s">
+        <v>110</v>
+      </c>
+      <c r="O11">
+        <v>6</v>
+      </c>
+      <c r="P11">
+        <v>2</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>113</v>
+      </c>
+      <c r="R11">
+        <v>1558</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>99</v>
+      </c>
+      <c r="U11">
+        <v>99</v>
+      </c>
+      <c r="V11" s="2">
+        <v>42401</v>
+      </c>
+      <c r="W11" s="3">
+        <v>78559</v>
+      </c>
+      <c r="X11">
+        <v>1022.4</v>
+      </c>
+      <c r="Y11">
+        <v>978.5</v>
+      </c>
+      <c r="Z11">
+        <v>880.6</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>813.6</v>
+      </c>
+      <c r="AC11">
+        <v>164.9</v>
+      </c>
+      <c r="AD11">
+        <v>1</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>122</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>125</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>123</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>122</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>122</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>125</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>126</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>127</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>122</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ11">
+        <v>0</v>
+      </c>
+      <c r="BA11">
+        <v>43.9</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>123</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>122</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>122</v>
+      </c>
+      <c r="BE11" t="s">
+        <v>125</v>
+      </c>
+      <c r="BF11">
+        <v>0</v>
+      </c>
+      <c r="BG11">
+        <v>0</v>
+      </c>
+      <c r="BH11">
+        <v>0</v>
+      </c>
+      <c r="BI11" t="s">
+        <v>123</v>
+      </c>
+      <c r="BJ11" t="s">
+        <v>122</v>
+      </c>
+      <c r="BK11" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL11" t="s">
+        <v>125</v>
+      </c>
+      <c r="BM11">
+        <v>0</v>
+      </c>
+      <c r="BN11">
+        <v>0</v>
+      </c>
+      <c r="BO11">
+        <v>0</v>
+      </c>
+      <c r="BP11" t="s">
+        <v>123</v>
+      </c>
+      <c r="BQ11" t="s">
+        <v>122</v>
+      </c>
+      <c r="BR11" t="s">
+        <v>122</v>
+      </c>
+      <c r="BS11" t="s">
+        <v>125</v>
+      </c>
+      <c r="BT11">
+        <v>0</v>
+      </c>
+      <c r="BU11">
+        <v>0</v>
+      </c>
+      <c r="BV11">
+        <v>0</v>
+      </c>
+      <c r="BW11" t="s">
+        <v>123</v>
+      </c>
+      <c r="BX11" t="s">
+        <v>122</v>
+      </c>
+      <c r="BY11" t="s">
+        <v>122</v>
+      </c>
+      <c r="BZ11" t="s">
+        <v>125</v>
+      </c>
+      <c r="CA11">
+        <v>0</v>
+      </c>
+      <c r="CB11">
+        <v>0</v>
+      </c>
+      <c r="CC11">
+        <v>0</v>
+      </c>
+      <c r="CD11">
+        <v>0</v>
+      </c>
+      <c r="CE11">
+        <v>0</v>
+      </c>
+      <c r="CF11" t="s">
+        <v>128</v>
+      </c>
+      <c r="CG11">
+        <v>0</v>
+      </c>
+      <c r="CH11">
+        <v>0</v>
+      </c>
+      <c r="CI11" s="3">
+        <v>20743</v>
+      </c>
+      <c r="CJ11" s="3">
+        <v>42401</v>
+      </c>
+      <c r="CK11">
+        <v>59</v>
+      </c>
+      <c r="CL11">
+        <v>999</v>
+      </c>
+      <c r="CM11" s="2">
+        <v>43465</v>
+      </c>
+      <c r="CN11" s="2">
+        <v>55884</v>
+      </c>
+      <c r="CO11">
+        <v>409</v>
+      </c>
+      <c r="CP11">
+        <v>35</v>
+      </c>
+      <c r="CQ11">
+        <v>1153</v>
+      </c>
+      <c r="CR11">
+        <v>0</v>
+      </c>
+      <c r="CS11" t="s">
+        <v>129</v>
+      </c>
+      <c r="CT11" t="s">
+        <v>129</v>
+      </c>
+      <c r="CU11">
+        <v>1057.2</v>
+      </c>
+      <c r="CX11">
+        <v>0</v>
+      </c>
+      <c r="CY11">
+        <v>0</v>
+      </c>
+      <c r="CZ11">
+        <v>0</v>
+      </c>
+      <c r="DB11">
+        <v>1</v>
+      </c>
+      <c r="DF11">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="12" spans="1:110">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>2018</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>731902</v>
+      </c>
+      <c r="G12">
+        <v>372.6</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>5722</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12" t="s">
+        <v>110</v>
+      </c>
+      <c r="O12">
+        <v>4</v>
+      </c>
+      <c r="P12">
+        <v>2</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>113</v>
+      </c>
+      <c r="R12">
+        <v>651.9</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>99</v>
+      </c>
+      <c r="U12">
+        <v>99</v>
+      </c>
+      <c r="V12" s="2">
+        <v>42370</v>
+      </c>
+      <c r="W12" s="3">
+        <v>78528</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>341.5</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>286.1</v>
+      </c>
+      <c r="AC12">
+        <v>93.3</v>
+      </c>
+      <c r="AD12">
+        <v>1</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>122</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>125</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>123</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>122</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>122</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>125</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
+        <v>0</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>126</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>127</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>122</v>
+      </c>
+      <c r="AY12" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ12">
+        <v>0</v>
+      </c>
+      <c r="BA12">
+        <v>0</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>123</v>
+      </c>
+      <c r="BC12" t="s">
+        <v>122</v>
+      </c>
+      <c r="BD12" t="s">
+        <v>122</v>
+      </c>
+      <c r="BE12" t="s">
+        <v>125</v>
+      </c>
+      <c r="BF12">
+        <v>0</v>
+      </c>
+      <c r="BG12">
+        <v>0</v>
+      </c>
+      <c r="BH12">
+        <v>0</v>
+      </c>
+      <c r="BI12" t="s">
+        <v>123</v>
+      </c>
+      <c r="BJ12" t="s">
+        <v>122</v>
+      </c>
+      <c r="BK12" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL12" t="s">
+        <v>125</v>
+      </c>
+      <c r="BM12">
+        <v>0</v>
+      </c>
+      <c r="BN12">
+        <v>0</v>
+      </c>
+      <c r="BO12">
+        <v>0</v>
+      </c>
+      <c r="BP12" t="s">
+        <v>123</v>
+      </c>
+      <c r="BQ12" t="s">
+        <v>122</v>
+      </c>
+      <c r="BR12" t="s">
+        <v>122</v>
+      </c>
+      <c r="BS12" t="s">
+        <v>125</v>
+      </c>
+      <c r="BT12">
+        <v>0</v>
+      </c>
+      <c r="BU12">
+        <v>0</v>
+      </c>
+      <c r="BV12">
+        <v>0</v>
+      </c>
+      <c r="BW12" t="s">
+        <v>123</v>
+      </c>
+      <c r="BX12" t="s">
+        <v>122</v>
+      </c>
+      <c r="BY12" t="s">
+        <v>122</v>
+      </c>
+      <c r="BZ12" t="s">
+        <v>125</v>
+      </c>
+      <c r="CA12">
+        <v>0</v>
+      </c>
+      <c r="CB12">
+        <v>0</v>
+      </c>
+      <c r="CC12">
+        <v>0</v>
+      </c>
+      <c r="CD12">
+        <v>0</v>
+      </c>
+      <c r="CE12">
+        <v>0</v>
+      </c>
+      <c r="CF12" t="s">
+        <v>128</v>
+      </c>
+      <c r="CG12">
+        <v>0</v>
+      </c>
+      <c r="CH12">
+        <v>4</v>
+      </c>
+      <c r="CI12" s="3">
+        <v>18509</v>
+      </c>
+      <c r="CJ12" s="3">
+        <v>42370</v>
+      </c>
+      <c r="CK12">
+        <v>65</v>
+      </c>
+      <c r="CL12">
+        <v>999</v>
+      </c>
+      <c r="CM12" s="2">
+        <v>43465</v>
+      </c>
+      <c r="CN12" s="2">
+        <v>55884</v>
+      </c>
+      <c r="CO12">
+        <v>409</v>
+      </c>
+      <c r="CP12">
+        <v>36</v>
+      </c>
+      <c r="CQ12">
+        <v>1152</v>
+      </c>
+      <c r="CR12">
+        <v>0</v>
+      </c>
+      <c r="CS12" t="s">
+        <v>129</v>
+      </c>
+      <c r="CT12" t="s">
+        <v>129</v>
+      </c>
+      <c r="CU12">
+        <v>372.6</v>
+      </c>
+      <c r="CX12">
+        <v>0</v>
+      </c>
+      <c r="CY12">
+        <v>0</v>
+      </c>
+      <c r="CZ12">
+        <v>0</v>
+      </c>
+      <c r="DB12">
+        <v>1</v>
+      </c>
+      <c r="DC12">
+        <v>0</v>
+      </c>
+      <c r="DD12">
+        <v>0</v>
+      </c>
+      <c r="DE12">
+        <v>0</v>
+      </c>
+      <c r="DF12">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="13" spans="1:110">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>2018</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>818202</v>
+      </c>
+      <c r="G13">
+        <v>325.5</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>11949</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13" t="s">
+        <v>110</v>
+      </c>
+      <c r="O13">
+        <v>4</v>
+      </c>
+      <c r="P13">
+        <v>2</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>113</v>
+      </c>
+      <c r="R13">
+        <v>940.7</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>99</v>
+      </c>
+      <c r="U13">
+        <v>99</v>
+      </c>
+      <c r="V13" s="2">
+        <v>42644</v>
+      </c>
+      <c r="W13" s="3">
+        <v>78801</v>
+      </c>
+      <c r="X13">
+        <v>736</v>
+      </c>
+      <c r="Y13">
+        <v>693</v>
+      </c>
+      <c r="Z13">
+        <v>623.7</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>497.9</v>
+      </c>
+      <c r="AC13">
+        <v>195.1</v>
+      </c>
+      <c r="AD13">
+        <v>1</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>122</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>125</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>123</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>122</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>122</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>125</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
+      <c r="AU13">
+        <v>0</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>126</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>127</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>122</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ13">
+        <v>0</v>
+      </c>
+      <c r="BA13">
+        <v>43</v>
+      </c>
+      <c r="BB13" t="s">
+        <v>123</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>122</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>122</v>
+      </c>
+      <c r="BE13" t="s">
+        <v>125</v>
+      </c>
+      <c r="BF13">
+        <v>0</v>
+      </c>
+      <c r="BG13">
+        <v>0</v>
+      </c>
+      <c r="BH13">
+        <v>0</v>
+      </c>
+      <c r="BI13" t="s">
+        <v>123</v>
+      </c>
+      <c r="BJ13" t="s">
+        <v>122</v>
+      </c>
+      <c r="BK13" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL13" t="s">
+        <v>125</v>
+      </c>
+      <c r="BM13">
+        <v>0</v>
+      </c>
+      <c r="BN13">
+        <v>0</v>
+      </c>
+      <c r="BO13">
+        <v>0</v>
+      </c>
+      <c r="BP13" t="s">
+        <v>123</v>
+      </c>
+      <c r="BQ13" t="s">
+        <v>122</v>
+      </c>
+      <c r="BR13" t="s">
+        <v>122</v>
+      </c>
+      <c r="BS13" t="s">
+        <v>125</v>
+      </c>
+      <c r="BT13">
+        <v>0</v>
+      </c>
+      <c r="BU13">
+        <v>0</v>
+      </c>
+      <c r="BV13">
+        <v>0</v>
+      </c>
+      <c r="BW13" t="s">
+        <v>123</v>
+      </c>
+      <c r="BX13" t="s">
+        <v>122</v>
+      </c>
+      <c r="BY13" t="s">
+        <v>122</v>
+      </c>
+      <c r="BZ13" t="s">
+        <v>125</v>
+      </c>
+      <c r="CA13">
+        <v>0</v>
+      </c>
+      <c r="CB13">
+        <v>0</v>
+      </c>
+      <c r="CC13">
+        <v>0</v>
+      </c>
+      <c r="CD13">
+        <v>0</v>
+      </c>
+      <c r="CE13">
+        <v>0</v>
+      </c>
+      <c r="CF13" t="s">
+        <v>128</v>
+      </c>
+      <c r="CG13">
+        <v>0</v>
+      </c>
+      <c r="CH13">
+        <v>0</v>
+      </c>
+      <c r="CI13" s="3">
+        <v>20517</v>
+      </c>
+      <c r="CJ13" s="3">
+        <v>42644</v>
+      </c>
+      <c r="CK13">
+        <v>60</v>
+      </c>
+      <c r="CL13">
+        <v>999</v>
+      </c>
+      <c r="CM13" s="2">
+        <v>43465</v>
+      </c>
+      <c r="CN13" s="2">
+        <v>55884</v>
+      </c>
+      <c r="CO13">
+        <v>409</v>
+      </c>
+      <c r="CP13">
+        <v>27</v>
+      </c>
+      <c r="CQ13">
+        <v>1161</v>
+      </c>
+      <c r="CR13">
+        <v>0</v>
+      </c>
+      <c r="CS13" t="s">
+        <v>129</v>
+      </c>
+      <c r="CT13" t="s">
+        <v>129</v>
+      </c>
+      <c r="CU13">
+        <v>325.5</v>
+      </c>
+      <c r="CX13">
+        <v>0</v>
+      </c>
+      <c r="CY13">
+        <v>0</v>
+      </c>
+      <c r="CZ13">
+        <v>0</v>
+      </c>
+      <c r="DB13">
+        <v>1</v>
+      </c>
+      <c r="DF13">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="14" spans="1:110">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>2018</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>889603</v>
+      </c>
+      <c r="G14">
+        <v>208.9</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>31</v>
+      </c>
+      <c r="J14">
+        <v>2.2</v>
+      </c>
+      <c r="K14">
+        <v>8009</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14" t="s">
+        <v>110</v>
+      </c>
+      <c r="O14">
+        <v>2</v>
+      </c>
+      <c r="P14">
+        <v>2</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>113</v>
+      </c>
+      <c r="R14">
+        <v>627.8</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>99</v>
+      </c>
+      <c r="U14">
+        <v>99</v>
+      </c>
+      <c r="V14" s="2">
+        <v>42583</v>
+      </c>
+      <c r="W14" s="3">
+        <v>78740</v>
+      </c>
+      <c r="X14">
+        <v>440</v>
+      </c>
+      <c r="Y14">
+        <v>411.2</v>
+      </c>
+      <c r="Z14">
+        <v>370</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>286</v>
+      </c>
+      <c r="AC14">
+        <v>125.1</v>
+      </c>
+      <c r="AD14">
+        <v>1</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>122</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>125</v>
+      </c>
+      <c r="AL14">
+        <v>0</v>
+      </c>
+      <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>123</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>122</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>122</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>125</v>
+      </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <v>0</v>
+      </c>
+      <c r="AU14">
+        <v>0</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>126</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>127</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>122</v>
+      </c>
+      <c r="AY14" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ14">
+        <v>0</v>
+      </c>
+      <c r="BA14">
+        <v>28.8</v>
+      </c>
+      <c r="BB14" t="s">
+        <v>123</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>122</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>122</v>
+      </c>
+      <c r="BE14" t="s">
+        <v>125</v>
+      </c>
+      <c r="BF14">
+        <v>0</v>
+      </c>
+      <c r="BG14">
+        <v>0</v>
+      </c>
+      <c r="BH14">
+        <v>0</v>
+      </c>
+      <c r="BI14" t="s">
+        <v>123</v>
+      </c>
+      <c r="BJ14" t="s">
+        <v>122</v>
+      </c>
+      <c r="BK14" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL14" t="s">
+        <v>125</v>
+      </c>
+      <c r="BM14">
+        <v>0</v>
+      </c>
+      <c r="BN14">
+        <v>0</v>
+      </c>
+      <c r="BO14">
+        <v>0</v>
+      </c>
+      <c r="BP14" t="s">
+        <v>123</v>
+      </c>
+      <c r="BQ14" t="s">
+        <v>122</v>
+      </c>
+      <c r="BR14" t="s">
+        <v>122</v>
+      </c>
+      <c r="BS14" t="s">
+        <v>125</v>
+      </c>
+      <c r="BT14">
+        <v>0</v>
+      </c>
+      <c r="BU14">
+        <v>0</v>
+      </c>
+      <c r="BV14">
+        <v>0</v>
+      </c>
+      <c r="BW14" t="s">
+        <v>123</v>
+      </c>
+      <c r="BX14" t="s">
+        <v>122</v>
+      </c>
+      <c r="BY14" t="s">
+        <v>122</v>
+      </c>
+      <c r="BZ14" t="s">
+        <v>125</v>
+      </c>
+      <c r="CA14">
+        <v>0</v>
+      </c>
+      <c r="CB14">
+        <v>0</v>
+      </c>
+      <c r="CC14">
+        <v>0</v>
+      </c>
+      <c r="CD14">
+        <v>0</v>
+      </c>
+      <c r="CE14">
+        <v>0</v>
+      </c>
+      <c r="CF14" t="s">
+        <v>128</v>
+      </c>
+      <c r="CG14">
+        <v>0</v>
+      </c>
+      <c r="CH14">
+        <v>0</v>
+      </c>
+      <c r="CI14" s="3">
+        <v>21852</v>
+      </c>
+      <c r="CJ14" s="3">
+        <v>42583</v>
+      </c>
+      <c r="CK14">
+        <v>56</v>
+      </c>
+      <c r="CL14">
+        <v>999</v>
+      </c>
+      <c r="CM14" s="2">
+        <v>43465</v>
+      </c>
+      <c r="CN14" s="2">
+        <v>55884</v>
+      </c>
+      <c r="CO14">
+        <v>409</v>
+      </c>
+      <c r="CP14">
+        <v>29</v>
+      </c>
+      <c r="CQ14">
+        <v>1159</v>
+      </c>
+      <c r="CR14">
+        <v>0</v>
+      </c>
+      <c r="CS14" t="s">
+        <v>129</v>
+      </c>
+      <c r="CT14" t="s">
+        <v>129</v>
+      </c>
+      <c r="CU14">
+        <v>242.1</v>
+      </c>
+      <c r="CX14">
+        <v>0</v>
+      </c>
+      <c r="CY14">
+        <v>0</v>
+      </c>
+      <c r="CZ14">
+        <v>0</v>
+      </c>
+      <c r="DB14">
+        <v>1</v>
+      </c>
+      <c r="DF14">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="15" spans="1:110">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>2018</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>895602</v>
+      </c>
+      <c r="G15">
+        <v>2285.7</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>22804</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0.5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>110</v>
+      </c>
+      <c r="O15">
+        <v>12</v>
+      </c>
+      <c r="P15">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>115</v>
+      </c>
+      <c r="R15">
+        <v>3273.9</v>
+      </c>
+      <c r="S15">
+        <v>2257</v>
+      </c>
+      <c r="T15">
+        <v>99</v>
+      </c>
+      <c r="U15">
+        <v>99</v>
+      </c>
+      <c r="V15" s="2">
+        <v>41730</v>
+      </c>
+      <c r="W15" s="3">
+        <v>77888</v>
+      </c>
+      <c r="X15">
+        <v>1200</v>
+      </c>
+      <c r="Y15">
+        <v>1117.9</v>
+      </c>
+      <c r="Z15">
+        <v>1006.1</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>757</v>
+      </c>
+      <c r="AC15">
+        <v>360.9</v>
+      </c>
+      <c r="AD15">
+        <v>1</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG15">
+        <v>0.5</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>122</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>125</v>
+      </c>
+      <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>123</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>122</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>122</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>125</v>
+      </c>
+      <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <v>0</v>
+      </c>
+      <c r="AU15">
+        <v>0</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>126</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>127</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>122</v>
+      </c>
+      <c r="AY15" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ15">
+        <v>0</v>
+      </c>
+      <c r="BA15">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="BB15" t="s">
+        <v>123</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>122</v>
+      </c>
+      <c r="BD15" t="s">
+        <v>122</v>
+      </c>
+      <c r="BE15" t="s">
+        <v>125</v>
+      </c>
+      <c r="BF15">
+        <v>0</v>
+      </c>
+      <c r="BG15">
+        <v>0</v>
+      </c>
+      <c r="BH15">
+        <v>0</v>
+      </c>
+      <c r="BI15" t="s">
+        <v>123</v>
+      </c>
+      <c r="BJ15" t="s">
+        <v>122</v>
+      </c>
+      <c r="BK15" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL15" t="s">
+        <v>125</v>
+      </c>
+      <c r="BM15">
+        <v>0</v>
+      </c>
+      <c r="BN15">
+        <v>0</v>
+      </c>
+      <c r="BO15">
+        <v>0</v>
+      </c>
+      <c r="BP15" t="s">
+        <v>123</v>
+      </c>
+      <c r="BQ15" t="s">
+        <v>122</v>
+      </c>
+      <c r="BR15" t="s">
+        <v>122</v>
+      </c>
+      <c r="BS15" t="s">
+        <v>125</v>
+      </c>
+      <c r="BT15">
+        <v>0</v>
+      </c>
+      <c r="BU15">
+        <v>0</v>
+      </c>
+      <c r="BV15">
+        <v>0</v>
+      </c>
+      <c r="BW15" t="s">
+        <v>123</v>
+      </c>
+      <c r="BX15" t="s">
+        <v>122</v>
+      </c>
+      <c r="BY15" t="s">
+        <v>122</v>
+      </c>
+      <c r="BZ15" t="s">
+        <v>125</v>
+      </c>
+      <c r="CA15">
+        <v>0</v>
+      </c>
+      <c r="CB15">
+        <v>0</v>
+      </c>
+      <c r="CC15">
+        <v>0</v>
+      </c>
+      <c r="CD15">
+        <v>0</v>
+      </c>
+      <c r="CE15">
+        <v>0</v>
+      </c>
+      <c r="CF15" t="s">
+        <v>128</v>
+      </c>
+      <c r="CG15">
+        <v>0</v>
+      </c>
+      <c r="CH15">
+        <v>0</v>
+      </c>
+      <c r="CI15" s="3">
+        <v>21022</v>
+      </c>
+      <c r="CJ15" s="3">
+        <v>41730</v>
+      </c>
+      <c r="CK15">
+        <v>56</v>
+      </c>
+      <c r="CL15">
+        <v>999</v>
+      </c>
+      <c r="CM15" s="2">
+        <v>43465</v>
+      </c>
+      <c r="CN15" s="2">
+        <v>55884</v>
+      </c>
+      <c r="CO15">
+        <v>409</v>
+      </c>
+      <c r="CP15">
+        <v>57</v>
+      </c>
+      <c r="CQ15">
+        <v>1131</v>
+      </c>
+      <c r="CR15">
+        <v>0</v>
+      </c>
+      <c r="CS15" t="s">
+        <v>129</v>
+      </c>
+      <c r="CT15" t="s">
+        <v>129</v>
+      </c>
+      <c r="CU15">
+        <v>2285.7</v>
+      </c>
+      <c r="CX15">
+        <v>0</v>
+      </c>
+      <c r="CY15">
+        <v>0</v>
+      </c>
+      <c r="CZ15">
+        <v>0</v>
+      </c>
+      <c r="DB15">
+        <v>1</v>
+      </c>
+      <c r="DF15">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="16" spans="1:110">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>2018</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1132602</v>
+      </c>
+      <c r="G16">
+        <v>405.1</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>8926</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16" t="s">
+        <v>110</v>
+      </c>
+      <c r="O16">
+        <v>6</v>
+      </c>
+      <c r="P16">
+        <v>2</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>113</v>
+      </c>
+      <c r="R16">
+        <v>849.9</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>99</v>
+      </c>
+      <c r="U16">
+        <v>99</v>
+      </c>
+      <c r="V16" s="2">
+        <v>42552</v>
+      </c>
+      <c r="W16" s="3">
+        <v>78709</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>532.7</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>446.3</v>
+      </c>
+      <c r="AC16">
+        <v>145.6</v>
+      </c>
+      <c r="AD16">
+        <v>1</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>122</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>125</v>
+      </c>
+      <c r="AL16">
+        <v>0</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>123</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>122</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>122</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>125</v>
+      </c>
+      <c r="AS16">
+        <v>0</v>
+      </c>
+      <c r="AT16">
+        <v>0</v>
+      </c>
+      <c r="AU16">
+        <v>0</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>126</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>127</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>122</v>
+      </c>
+      <c r="AY16" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ16">
+        <v>0</v>
+      </c>
+      <c r="BA16">
+        <v>0</v>
+      </c>
+      <c r="BB16" t="s">
+        <v>123</v>
+      </c>
+      <c r="BC16" t="s">
+        <v>122</v>
+      </c>
+      <c r="BD16" t="s">
+        <v>122</v>
+      </c>
+      <c r="BE16" t="s">
+        <v>125</v>
+      </c>
+      <c r="BF16">
+        <v>0</v>
+      </c>
+      <c r="BG16">
+        <v>0</v>
+      </c>
+      <c r="BH16">
+        <v>0</v>
+      </c>
+      <c r="BI16" t="s">
+        <v>123</v>
+      </c>
+      <c r="BJ16" t="s">
+        <v>122</v>
+      </c>
+      <c r="BK16" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL16" t="s">
+        <v>125</v>
+      </c>
+      <c r="BM16">
+        <v>0</v>
+      </c>
+      <c r="BN16">
+        <v>0</v>
+      </c>
+      <c r="BO16">
+        <v>0</v>
+      </c>
+      <c r="BP16" t="s">
+        <v>123</v>
+      </c>
+      <c r="BQ16" t="s">
+        <v>122</v>
+      </c>
+      <c r="BR16" t="s">
+        <v>122</v>
+      </c>
+      <c r="BS16" t="s">
+        <v>125</v>
+      </c>
+      <c r="BT16">
+        <v>0</v>
+      </c>
+      <c r="BU16">
+        <v>0</v>
+      </c>
+      <c r="BV16">
+        <v>0</v>
+      </c>
+      <c r="BW16" t="s">
+        <v>123</v>
+      </c>
+      <c r="BX16" t="s">
+        <v>122</v>
+      </c>
+      <c r="BY16" t="s">
+        <v>122</v>
+      </c>
+      <c r="BZ16" t="s">
+        <v>125</v>
+      </c>
+      <c r="CA16">
+        <v>0</v>
+      </c>
+      <c r="CB16">
+        <v>0</v>
+      </c>
+      <c r="CC16">
+        <v>0</v>
+      </c>
+      <c r="CD16">
+        <v>0</v>
+      </c>
+      <c r="CE16">
+        <v>0</v>
+      </c>
+      <c r="CF16" t="s">
+        <v>128</v>
+      </c>
+      <c r="CG16">
+        <v>0</v>
+      </c>
+      <c r="CH16">
+        <v>4</v>
+      </c>
+      <c r="CI16" s="3">
+        <v>18685</v>
+      </c>
+      <c r="CJ16" s="3">
+        <v>42552</v>
+      </c>
+      <c r="CK16">
+        <v>65</v>
+      </c>
+      <c r="CL16">
+        <v>999</v>
+      </c>
+      <c r="CM16" s="2">
+        <v>43465</v>
+      </c>
+      <c r="CN16" s="2">
+        <v>55884</v>
+      </c>
+      <c r="CO16">
+        <v>409</v>
+      </c>
+      <c r="CP16">
+        <v>30</v>
+      </c>
+      <c r="CQ16">
+        <v>1158</v>
+      </c>
+      <c r="CR16">
+        <v>0</v>
+      </c>
+      <c r="CS16" t="s">
+        <v>129</v>
+      </c>
+      <c r="CT16" t="s">
+        <v>129</v>
+      </c>
+      <c r="CU16">
+        <v>405.1</v>
+      </c>
+      <c r="CX16">
+        <v>0</v>
+      </c>
+      <c r="CY16">
+        <v>0</v>
+      </c>
+      <c r="CZ16">
+        <v>0</v>
+      </c>
+      <c r="DB16">
+        <v>1</v>
+      </c>
+      <c r="DC16">
+        <v>0</v>
+      </c>
+      <c r="DD16">
+        <v>0</v>
+      </c>
+      <c r="DE16">
+        <v>0</v>
+      </c>
+      <c r="DF16">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="17" spans="1:110">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>2018</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1847802</v>
+      </c>
+      <c r="G17">
+        <v>3838.6</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>20257</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>1.75</v>
+      </c>
+      <c r="N17" t="s">
+        <v>110</v>
+      </c>
+      <c r="O17">
+        <v>4</v>
+      </c>
+      <c r="P17">
+        <v>8</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>114</v>
+      </c>
+      <c r="R17">
+        <v>4781.5</v>
+      </c>
+      <c r="S17">
+        <v>3792.4</v>
+      </c>
+      <c r="T17">
+        <v>99</v>
+      </c>
+      <c r="U17">
+        <v>99</v>
+      </c>
+      <c r="V17" s="2">
+        <v>40179</v>
+      </c>
+      <c r="W17" s="3">
+        <v>76337</v>
+      </c>
+      <c r="X17">
+        <v>960</v>
+      </c>
+      <c r="Y17">
+        <v>887.1</v>
+      </c>
+      <c r="Z17">
+        <v>789.5</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>557.1</v>
+      </c>
+      <c r="AC17">
+        <v>330</v>
+      </c>
+      <c r="AD17">
+        <v>1</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG17">
+        <v>1.75</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>122</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>125</v>
+      </c>
+      <c r="AL17">
+        <v>0</v>
+      </c>
+      <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <v>0</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>123</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>122</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>122</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>125</v>
+      </c>
+      <c r="AS17">
+        <v>0</v>
+      </c>
+      <c r="AT17">
+        <v>0</v>
+      </c>
+      <c r="AU17">
+        <v>0</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>126</v>
+      </c>
+      <c r="AW17" t="s">
+        <v>127</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>122</v>
+      </c>
+      <c r="AY17" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ17">
+        <v>0</v>
+      </c>
+      <c r="BA17">
+        <v>72.90000000000001</v>
+      </c>
+      <c r="BB17" t="s">
+        <v>123</v>
+      </c>
+      <c r="BC17" t="s">
+        <v>122</v>
+      </c>
+      <c r="BD17" t="s">
+        <v>122</v>
+      </c>
+      <c r="BE17" t="s">
+        <v>125</v>
+      </c>
+      <c r="BF17">
+        <v>0</v>
+      </c>
+      <c r="BG17">
+        <v>0</v>
+      </c>
+      <c r="BH17">
+        <v>0</v>
+      </c>
+      <c r="BI17" t="s">
+        <v>123</v>
+      </c>
+      <c r="BJ17" t="s">
+        <v>122</v>
+      </c>
+      <c r="BK17" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL17" t="s">
+        <v>125</v>
+      </c>
+      <c r="BM17">
+        <v>0</v>
+      </c>
+      <c r="BN17">
+        <v>0</v>
+      </c>
+      <c r="BO17">
+        <v>0</v>
+      </c>
+      <c r="BP17" t="s">
+        <v>123</v>
+      </c>
+      <c r="BQ17" t="s">
+        <v>122</v>
+      </c>
+      <c r="BR17" t="s">
+        <v>122</v>
+      </c>
+      <c r="BS17" t="s">
+        <v>125</v>
+      </c>
+      <c r="BT17">
+        <v>0</v>
+      </c>
+      <c r="BU17">
+        <v>0</v>
+      </c>
+      <c r="BV17">
+        <v>0</v>
+      </c>
+      <c r="BW17" t="s">
+        <v>123</v>
+      </c>
+      <c r="BX17" t="s">
+        <v>122</v>
+      </c>
+      <c r="BY17" t="s">
+        <v>122</v>
+      </c>
+      <c r="BZ17" t="s">
+        <v>125</v>
+      </c>
+      <c r="CA17">
+        <v>0</v>
+      </c>
+      <c r="CB17">
+        <v>0</v>
+      </c>
+      <c r="CC17">
+        <v>0</v>
+      </c>
+      <c r="CD17">
+        <v>0</v>
+      </c>
+      <c r="CE17">
+        <v>0</v>
+      </c>
+      <c r="CF17" t="s">
+        <v>128</v>
+      </c>
+      <c r="CG17">
+        <v>0</v>
+      </c>
+      <c r="CH17">
+        <v>0</v>
+      </c>
+      <c r="CI17" s="3">
+        <v>19337</v>
+      </c>
+      <c r="CJ17" s="3">
+        <v>40179</v>
+      </c>
+      <c r="CK17">
+        <v>57</v>
+      </c>
+      <c r="CL17">
+        <v>999</v>
+      </c>
+      <c r="CM17" s="2">
+        <v>43465</v>
+      </c>
+      <c r="CN17" s="2">
+        <v>55884</v>
+      </c>
+      <c r="CO17">
+        <v>409</v>
+      </c>
+      <c r="CP17">
+        <v>108</v>
+      </c>
+      <c r="CQ17">
+        <v>1080</v>
+      </c>
+      <c r="CR17">
+        <v>0</v>
+      </c>
+      <c r="CS17" t="s">
+        <v>129</v>
+      </c>
+      <c r="CT17" t="s">
+        <v>129</v>
+      </c>
+      <c r="CU17">
+        <v>3838.6</v>
+      </c>
+      <c r="CX17">
+        <v>0</v>
+      </c>
+      <c r="CY17">
+        <v>0</v>
+      </c>
+      <c r="CZ17">
+        <v>0</v>
+      </c>
+      <c r="DB17">
+        <v>1</v>
+      </c>
+      <c r="DF17">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="18" spans="1:110">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>2018</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>2056801</v>
+      </c>
+      <c r="G18">
+        <v>938.2</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>8038</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0.5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>110</v>
+      </c>
+      <c r="O18">
+        <v>2</v>
+      </c>
+      <c r="P18">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>115</v>
+      </c>
+      <c r="R18">
+        <v>1280.4</v>
+      </c>
+      <c r="S18">
+        <v>918.5</v>
+      </c>
+      <c r="T18">
+        <v>99</v>
+      </c>
+      <c r="U18">
+        <v>99</v>
+      </c>
+      <c r="V18" s="2">
+        <v>41456</v>
+      </c>
+      <c r="W18" s="3">
+        <v>77614</v>
+      </c>
+      <c r="X18">
+        <v>400</v>
+      </c>
+      <c r="Y18">
+        <v>371.1</v>
+      </c>
+      <c r="Z18">
+        <v>334</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>247.8</v>
+      </c>
+      <c r="AC18">
+        <v>123.3</v>
+      </c>
+      <c r="AD18">
+        <v>1</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG18">
+        <v>0.5</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>122</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>125</v>
+      </c>
+      <c r="AL18">
+        <v>0</v>
+      </c>
+      <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>123</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>122</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>122</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>125</v>
+      </c>
+      <c r="AS18">
+        <v>0</v>
+      </c>
+      <c r="AT18">
+        <v>0</v>
+      </c>
+      <c r="AU18">
+        <v>0</v>
+      </c>
+      <c r="AV18" t="s">
+        <v>126</v>
+      </c>
+      <c r="AW18" t="s">
+        <v>127</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>122</v>
+      </c>
+      <c r="AY18" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ18">
+        <v>0</v>
+      </c>
+      <c r="BA18">
+        <v>28.9</v>
+      </c>
+      <c r="BB18" t="s">
+        <v>123</v>
+      </c>
+      <c r="BC18" t="s">
+        <v>122</v>
+      </c>
+      <c r="BD18" t="s">
+        <v>122</v>
+      </c>
+      <c r="BE18" t="s">
+        <v>125</v>
+      </c>
+      <c r="BF18">
+        <v>0</v>
+      </c>
+      <c r="BG18">
+        <v>0</v>
+      </c>
+      <c r="BH18">
+        <v>0</v>
+      </c>
+      <c r="BI18" t="s">
+        <v>123</v>
+      </c>
+      <c r="BJ18" t="s">
+        <v>122</v>
+      </c>
+      <c r="BK18" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL18" t="s">
+        <v>125</v>
+      </c>
+      <c r="BM18">
+        <v>0</v>
+      </c>
+      <c r="BN18">
+        <v>0</v>
+      </c>
+      <c r="BO18">
+        <v>0</v>
+      </c>
+      <c r="BP18" t="s">
+        <v>123</v>
+      </c>
+      <c r="BQ18" t="s">
+        <v>122</v>
+      </c>
+      <c r="BR18" t="s">
+        <v>122</v>
+      </c>
+      <c r="BS18" t="s">
+        <v>125</v>
+      </c>
+      <c r="BT18">
+        <v>0</v>
+      </c>
+      <c r="BU18">
+        <v>0</v>
+      </c>
+      <c r="BV18">
+        <v>0</v>
+      </c>
+      <c r="BW18" t="s">
+        <v>123</v>
+      </c>
+      <c r="BX18" t="s">
+        <v>122</v>
+      </c>
+      <c r="BY18" t="s">
+        <v>122</v>
+      </c>
+      <c r="BZ18" t="s">
+        <v>125</v>
+      </c>
+      <c r="CA18">
+        <v>0</v>
+      </c>
+      <c r="CB18">
+        <v>0</v>
+      </c>
+      <c r="CC18">
+        <v>0</v>
+      </c>
+      <c r="CD18">
+        <v>0</v>
+      </c>
+      <c r="CE18">
+        <v>0</v>
+      </c>
+      <c r="CF18" t="s">
+        <v>128</v>
+      </c>
+      <c r="CG18">
+        <v>0</v>
+      </c>
+      <c r="CH18">
+        <v>0</v>
+      </c>
+      <c r="CI18" s="3">
+        <v>21376</v>
+      </c>
+      <c r="CJ18" s="3">
+        <v>41456</v>
+      </c>
+      <c r="CK18">
+        <v>54</v>
+      </c>
+      <c r="CL18">
+        <v>999</v>
+      </c>
+      <c r="CM18" s="2">
+        <v>43465</v>
+      </c>
+      <c r="CN18" s="2">
+        <v>55884</v>
+      </c>
+      <c r="CO18">
+        <v>409</v>
+      </c>
+      <c r="CP18">
+        <v>66</v>
+      </c>
+      <c r="CQ18">
+        <v>1122</v>
+      </c>
+      <c r="CR18">
+        <v>0</v>
+      </c>
+      <c r="CS18" t="s">
+        <v>129</v>
+      </c>
+      <c r="CT18" t="s">
+        <v>129</v>
+      </c>
+      <c r="CU18">
+        <v>938.2</v>
+      </c>
+      <c r="CX18">
+        <v>0</v>
+      </c>
+      <c r="CY18">
+        <v>0</v>
+      </c>
+      <c r="CZ18">
+        <v>0</v>
+      </c>
+      <c r="DB18">
+        <v>1</v>
+      </c>
+      <c r="DF18">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="19" spans="1:110">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>2018</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>2085901</v>
+      </c>
+      <c r="G19">
+        <v>4340.3</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>85.2</v>
+      </c>
+      <c r="J19">
+        <v>3.4</v>
+      </c>
+      <c r="K19">
+        <v>12874</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0.5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>110</v>
+      </c>
+      <c r="O19">
+        <v>6</v>
+      </c>
+      <c r="P19">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>115</v>
+      </c>
+      <c r="R19">
+        <v>4741.9</v>
+      </c>
+      <c r="S19">
+        <v>4257</v>
+      </c>
+      <c r="T19">
+        <v>99</v>
+      </c>
+      <c r="U19">
+        <v>13</v>
+      </c>
+      <c r="V19" s="2">
+        <v>41609</v>
+      </c>
+      <c r="W19" s="3">
+        <v>77767</v>
+      </c>
+      <c r="X19">
+        <v>1200</v>
+      </c>
+      <c r="Y19">
+        <v>1153.6</v>
+      </c>
+      <c r="Z19">
+        <v>1038.3</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>427.4</v>
+      </c>
+      <c r="AC19">
+        <v>726.3</v>
+      </c>
+      <c r="AD19">
+        <v>1</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG19">
+        <v>0.5</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>122</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>125</v>
+      </c>
+      <c r="AL19">
+        <v>0</v>
+      </c>
+      <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>123</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>122</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>122</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>125</v>
+      </c>
+      <c r="AS19">
+        <v>0</v>
+      </c>
+      <c r="AT19">
+        <v>0</v>
+      </c>
+      <c r="AU19">
+        <v>0</v>
+      </c>
+      <c r="AV19" t="s">
+        <v>126</v>
+      </c>
+      <c r="AW19" t="s">
+        <v>127</v>
+      </c>
+      <c r="AX19" t="s">
+        <v>122</v>
+      </c>
+      <c r="AY19" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ19">
+        <v>0</v>
+      </c>
+      <c r="BA19">
+        <v>46.4</v>
+      </c>
+      <c r="BB19" t="s">
+        <v>123</v>
+      </c>
+      <c r="BC19" t="s">
+        <v>122</v>
+      </c>
+      <c r="BD19" t="s">
+        <v>122</v>
+      </c>
+      <c r="BE19" t="s">
+        <v>125</v>
+      </c>
+      <c r="BF19">
+        <v>0</v>
+      </c>
+      <c r="BG19">
+        <v>0</v>
+      </c>
+      <c r="BH19">
+        <v>0</v>
+      </c>
+      <c r="BI19" t="s">
+        <v>123</v>
+      </c>
+      <c r="BJ19" t="s">
+        <v>122</v>
+      </c>
+      <c r="BK19" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL19" t="s">
+        <v>125</v>
+      </c>
+      <c r="BM19">
+        <v>0</v>
+      </c>
+      <c r="BN19">
+        <v>0</v>
+      </c>
+      <c r="BO19">
+        <v>0</v>
+      </c>
+      <c r="BP19" t="s">
+        <v>123</v>
+      </c>
+      <c r="BQ19" t="s">
+        <v>122</v>
+      </c>
+      <c r="BR19" t="s">
+        <v>122</v>
+      </c>
+      <c r="BS19" t="s">
+        <v>125</v>
+      </c>
+      <c r="BT19">
+        <v>0</v>
+      </c>
+      <c r="BU19">
+        <v>0</v>
+      </c>
+      <c r="BV19">
+        <v>0</v>
+      </c>
+      <c r="BW19" t="s">
+        <v>123</v>
+      </c>
+      <c r="BX19" t="s">
+        <v>122</v>
+      </c>
+      <c r="BY19" t="s">
+        <v>122</v>
+      </c>
+      <c r="BZ19" t="s">
+        <v>125</v>
+      </c>
+      <c r="CA19">
+        <v>0</v>
+      </c>
+      <c r="CB19">
+        <v>0</v>
+      </c>
+      <c r="CC19">
+        <v>0</v>
+      </c>
+      <c r="CD19">
+        <v>0</v>
+      </c>
+      <c r="CE19">
+        <v>0</v>
+      </c>
+      <c r="CF19" t="s">
+        <v>128</v>
+      </c>
+      <c r="CG19">
+        <v>0</v>
+      </c>
+      <c r="CH19">
+        <v>0</v>
+      </c>
+      <c r="CI19" s="3">
+        <v>20810</v>
+      </c>
+      <c r="CJ19" s="3">
+        <v>41609</v>
+      </c>
+      <c r="CK19">
+        <v>56</v>
+      </c>
+      <c r="CL19">
+        <v>999</v>
+      </c>
+      <c r="CM19" s="2">
+        <v>43465</v>
+      </c>
+      <c r="CN19" s="2">
+        <v>55884</v>
+      </c>
+      <c r="CO19">
+        <v>409</v>
+      </c>
+      <c r="CP19">
+        <v>61</v>
+      </c>
+      <c r="CQ19">
+        <v>1127</v>
+      </c>
+      <c r="CR19">
+        <v>0</v>
+      </c>
+      <c r="CS19" t="s">
+        <v>129</v>
+      </c>
+      <c r="CT19" t="s">
+        <v>129</v>
+      </c>
+      <c r="CU19">
+        <v>4428.9</v>
+      </c>
+      <c r="CX19">
+        <v>0</v>
+      </c>
+      <c r="CY19">
+        <v>0</v>
+      </c>
+      <c r="CZ19">
+        <v>0</v>
+      </c>
+      <c r="DB19">
+        <v>1</v>
+      </c>
+      <c r="DF19">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="20" spans="1:110">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>2018</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>2178001</v>
+      </c>
+      <c r="G20">
+        <v>1148.5</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>120.7</v>
+      </c>
+      <c r="J20">
+        <v>7.6</v>
+      </c>
+      <c r="K20">
+        <v>14560</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0.25</v>
+      </c>
+      <c r="N20" t="s">
+        <v>110</v>
+      </c>
+      <c r="O20">
+        <v>4</v>
+      </c>
+      <c r="P20">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>116</v>
+      </c>
+      <c r="R20">
+        <v>1762.7</v>
+      </c>
+      <c r="S20">
+        <v>1148.5</v>
+      </c>
+      <c r="T20">
+        <v>99</v>
+      </c>
+      <c r="U20">
+        <v>99</v>
+      </c>
+      <c r="V20" s="2">
+        <v>42156</v>
+      </c>
+      <c r="W20" s="3">
+        <v>78314</v>
+      </c>
+      <c r="X20">
+        <v>880</v>
+      </c>
+      <c r="Y20">
+        <v>827.6</v>
+      </c>
+      <c r="Z20">
+        <v>744.8</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>587.9</v>
+      </c>
+      <c r="AC20">
+        <v>239.7</v>
+      </c>
+      <c r="AD20">
+        <v>1</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG20">
+        <v>0.25</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>122</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>125</v>
+      </c>
+      <c r="AL20">
+        <v>0</v>
+      </c>
+      <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <v>0</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>123</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>122</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>122</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>125</v>
+      </c>
+      <c r="AS20">
+        <v>0</v>
+      </c>
+      <c r="AT20">
+        <v>0</v>
+      </c>
+      <c r="AU20">
+        <v>0</v>
+      </c>
+      <c r="AV20" t="s">
+        <v>126</v>
+      </c>
+      <c r="AW20" t="s">
+        <v>127</v>
+      </c>
+      <c r="AX20" t="s">
+        <v>122</v>
+      </c>
+      <c r="AY20" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ20">
+        <v>0</v>
+      </c>
+      <c r="BA20">
+        <v>52.4</v>
+      </c>
+      <c r="BB20" t="s">
+        <v>123</v>
+      </c>
+      <c r="BC20" t="s">
+        <v>122</v>
+      </c>
+      <c r="BD20" t="s">
+        <v>122</v>
+      </c>
+      <c r="BE20" t="s">
+        <v>125</v>
+      </c>
+      <c r="BF20">
+        <v>0</v>
+      </c>
+      <c r="BG20">
+        <v>0</v>
+      </c>
+      <c r="BH20">
+        <v>0</v>
+      </c>
+      <c r="BI20" t="s">
+        <v>123</v>
+      </c>
+      <c r="BJ20" t="s">
+        <v>122</v>
+      </c>
+      <c r="BK20" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL20" t="s">
+        <v>125</v>
+      </c>
+      <c r="BM20">
+        <v>0</v>
+      </c>
+      <c r="BN20">
+        <v>0</v>
+      </c>
+      <c r="BO20">
+        <v>0</v>
+      </c>
+      <c r="BP20" t="s">
+        <v>123</v>
+      </c>
+      <c r="BQ20" t="s">
+        <v>122</v>
+      </c>
+      <c r="BR20" t="s">
+        <v>122</v>
+      </c>
+      <c r="BS20" t="s">
+        <v>125</v>
+      </c>
+      <c r="BT20">
+        <v>0</v>
+      </c>
+      <c r="BU20">
+        <v>0</v>
+      </c>
+      <c r="BV20">
+        <v>0</v>
+      </c>
+      <c r="BW20" t="s">
+        <v>123</v>
+      </c>
+      <c r="BX20" t="s">
+        <v>122</v>
+      </c>
+      <c r="BY20" t="s">
+        <v>122</v>
+      </c>
+      <c r="BZ20" t="s">
+        <v>125</v>
+      </c>
+      <c r="CA20">
+        <v>0</v>
+      </c>
+      <c r="CB20">
+        <v>0</v>
+      </c>
+      <c r="CC20">
+        <v>0</v>
+      </c>
+      <c r="CD20">
+        <v>0</v>
+      </c>
+      <c r="CE20">
+        <v>0</v>
+      </c>
+      <c r="CF20" t="s">
+        <v>128</v>
+      </c>
+      <c r="CG20">
+        <v>0</v>
+      </c>
+      <c r="CH20">
+        <v>0</v>
+      </c>
+      <c r="CI20" s="3">
+        <v>19758</v>
+      </c>
+      <c r="CJ20" s="3">
+        <v>42156</v>
+      </c>
+      <c r="CK20">
+        <v>61</v>
+      </c>
+      <c r="CL20">
+        <v>999</v>
+      </c>
+      <c r="CM20" s="2">
+        <v>43465</v>
+      </c>
+      <c r="CN20" s="2">
+        <v>55884</v>
+      </c>
+      <c r="CO20">
+        <v>409</v>
+      </c>
+      <c r="CP20">
+        <v>43</v>
+      </c>
+      <c r="CQ20">
+        <v>1145</v>
+      </c>
+      <c r="CR20">
+        <v>0</v>
+      </c>
+      <c r="CS20" t="s">
+        <v>129</v>
+      </c>
+      <c r="CT20" t="s">
+        <v>129</v>
+      </c>
+      <c r="CU20">
+        <v>1276.8</v>
+      </c>
+      <c r="CX20">
+        <v>0</v>
+      </c>
+      <c r="CY20">
+        <v>0</v>
+      </c>
+      <c r="CZ20">
+        <v>0</v>
+      </c>
+      <c r="DB20">
+        <v>1</v>
+      </c>
+      <c r="DF20">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="21" spans="1:110">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>2018</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>2211301</v>
+      </c>
+      <c r="G21">
+        <v>321.2</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>25.5</v>
+      </c>
+      <c r="J21">
+        <v>1.3</v>
+      </c>
+      <c r="K21">
+        <v>4700</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21" t="s">
+        <v>110</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>2</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>113</v>
+      </c>
+      <c r="R21">
+        <v>548.3</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>99</v>
+      </c>
+      <c r="U21">
+        <v>99</v>
+      </c>
+      <c r="V21" s="2">
+        <v>42401</v>
+      </c>
+      <c r="W21" s="3">
+        <v>78559</v>
+      </c>
+      <c r="X21">
+        <v>352</v>
+      </c>
+      <c r="Y21">
+        <v>335.1</v>
+      </c>
+      <c r="Z21">
+        <v>301.6</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>261.1</v>
+      </c>
+      <c r="AC21">
+        <v>74</v>
+      </c>
+      <c r="AD21">
+        <v>1</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>122</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>125</v>
+      </c>
+      <c r="AL21">
+        <v>0</v>
+      </c>
+      <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <v>0</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>123</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>122</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>122</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>125</v>
+      </c>
+      <c r="AS21">
+        <v>0</v>
+      </c>
+      <c r="AT21">
+        <v>0</v>
+      </c>
+      <c r="AU21">
+        <v>0</v>
+      </c>
+      <c r="AV21" t="s">
+        <v>126</v>
+      </c>
+      <c r="AW21" t="s">
+        <v>127</v>
+      </c>
+      <c r="AX21" t="s">
+        <v>122</v>
+      </c>
+      <c r="AY21" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ21">
+        <v>0</v>
+      </c>
+      <c r="BA21">
+        <v>16.9</v>
+      </c>
+      <c r="BB21" t="s">
+        <v>123</v>
+      </c>
+      <c r="BC21" t="s">
+        <v>122</v>
+      </c>
+      <c r="BD21" t="s">
+        <v>122</v>
+      </c>
+      <c r="BE21" t="s">
+        <v>125</v>
+      </c>
+      <c r="BF21">
+        <v>0</v>
+      </c>
+      <c r="BG21">
+        <v>0</v>
+      </c>
+      <c r="BH21">
+        <v>0</v>
+      </c>
+      <c r="BI21" t="s">
+        <v>123</v>
+      </c>
+      <c r="BJ21" t="s">
+        <v>122</v>
+      </c>
+      <c r="BK21" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL21" t="s">
+        <v>125</v>
+      </c>
+      <c r="BM21">
+        <v>0</v>
+      </c>
+      <c r="BN21">
+        <v>0</v>
+      </c>
+      <c r="BO21">
+        <v>0</v>
+      </c>
+      <c r="BP21" t="s">
+        <v>123</v>
+      </c>
+      <c r="BQ21" t="s">
+        <v>122</v>
+      </c>
+      <c r="BR21" t="s">
+        <v>122</v>
+      </c>
+      <c r="BS21" t="s">
+        <v>125</v>
+      </c>
+      <c r="BT21">
+        <v>0</v>
+      </c>
+      <c r="BU21">
+        <v>0</v>
+      </c>
+      <c r="BV21">
+        <v>0</v>
+      </c>
+      <c r="BW21" t="s">
+        <v>123</v>
+      </c>
+      <c r="BX21" t="s">
+        <v>122</v>
+      </c>
+      <c r="BY21" t="s">
+        <v>122</v>
+      </c>
+      <c r="BZ21" t="s">
+        <v>125</v>
+      </c>
+      <c r="CA21">
+        <v>0</v>
+      </c>
+      <c r="CB21">
+        <v>0</v>
+      </c>
+      <c r="CC21">
+        <v>0</v>
+      </c>
+      <c r="CD21">
+        <v>0</v>
+      </c>
+      <c r="CE21">
+        <v>0</v>
+      </c>
+      <c r="CF21" t="s">
+        <v>128</v>
+      </c>
+      <c r="CG21">
+        <v>0</v>
+      </c>
+      <c r="CH21">
+        <v>0</v>
+      </c>
+      <c r="CI21" s="3">
+        <v>22258</v>
+      </c>
+      <c r="CJ21" s="3">
+        <v>42401</v>
+      </c>
+      <c r="CK21">
+        <v>55</v>
+      </c>
+      <c r="CL21">
+        <v>999</v>
+      </c>
+      <c r="CM21" s="2">
+        <v>43465</v>
+      </c>
+      <c r="CN21" s="2">
+        <v>55884</v>
+      </c>
+      <c r="CO21">
+        <v>409</v>
+      </c>
+      <c r="CP21">
+        <v>35</v>
+      </c>
+      <c r="CQ21">
+        <v>1153</v>
+      </c>
+      <c r="CR21">
+        <v>0</v>
+      </c>
+      <c r="CS21" t="s">
+        <v>129</v>
+      </c>
+      <c r="CT21" t="s">
+        <v>129</v>
+      </c>
+      <c r="CU21">
+        <v>348</v>
+      </c>
+      <c r="CX21">
+        <v>0</v>
+      </c>
+      <c r="CY21">
+        <v>0</v>
+      </c>
+      <c r="CZ21">
+        <v>0</v>
+      </c>
+      <c r="DB21">
+        <v>1</v>
+      </c>
+      <c r="DF21">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="22" spans="1:110">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>2018</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>71801</v>
+      </c>
+      <c r="G22">
+        <v>10445.8</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>53.1</v>
+      </c>
+      <c r="J22">
+        <v>6.2</v>
+      </c>
+      <c r="K22">
+        <v>23396.7</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>3.5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>111</v>
+      </c>
+      <c r="O22">
+        <v>4</v>
+      </c>
+      <c r="P22">
+        <v>20</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>117</v>
+      </c>
+      <c r="R22">
+        <v>10930.3</v>
+      </c>
+      <c r="S22">
+        <v>10403.6</v>
+      </c>
+      <c r="T22">
+        <v>99</v>
+      </c>
+      <c r="U22">
+        <v>99</v>
+      </c>
+      <c r="V22" s="2">
+        <v>36008</v>
+      </c>
+      <c r="W22" s="3">
+        <v>72167</v>
+      </c>
+      <c r="X22">
+        <v>800</v>
+      </c>
+      <c r="Y22">
+        <v>715.8</v>
+      </c>
+      <c r="Z22">
+        <v>637</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>488.3</v>
+      </c>
+      <c r="AC22">
+        <v>227.4</v>
+      </c>
+      <c r="AD22">
+        <v>1</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG22">
+        <v>3.5</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>122</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>125</v>
+      </c>
+      <c r="AL22">
+        <v>0</v>
+      </c>
+      <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <v>0</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>123</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>122</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>122</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>125</v>
+      </c>
+      <c r="AS22">
+        <v>0</v>
+      </c>
+      <c r="AT22">
+        <v>0</v>
+      </c>
+      <c r="AU22">
+        <v>0</v>
+      </c>
+      <c r="AV22" t="s">
+        <v>126</v>
+      </c>
+      <c r="AW22" t="s">
+        <v>127</v>
+      </c>
+      <c r="AX22" t="s">
+        <v>122</v>
+      </c>
+      <c r="AY22" t="s">
+        <v>117</v>
+      </c>
+      <c r="AZ22">
+        <v>0</v>
+      </c>
+      <c r="BA22">
+        <v>84.2</v>
+      </c>
+      <c r="BB22" t="s">
+        <v>123</v>
+      </c>
+      <c r="BC22" t="s">
+        <v>122</v>
+      </c>
+      <c r="BD22" t="s">
+        <v>122</v>
+      </c>
+      <c r="BE22" t="s">
+        <v>125</v>
+      </c>
+      <c r="BF22">
+        <v>0</v>
+      </c>
+      <c r="BG22">
+        <v>0</v>
+      </c>
+      <c r="BH22">
+        <v>0</v>
+      </c>
+      <c r="BI22" t="s">
+        <v>123</v>
+      </c>
+      <c r="BJ22" t="s">
+        <v>122</v>
+      </c>
+      <c r="BK22" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL22" t="s">
+        <v>125</v>
+      </c>
+      <c r="BM22">
+        <v>0</v>
+      </c>
+      <c r="BN22">
+        <v>0</v>
+      </c>
+      <c r="BO22">
+        <v>0</v>
+      </c>
+      <c r="BP22" t="s">
+        <v>123</v>
+      </c>
+      <c r="BQ22" t="s">
+        <v>122</v>
+      </c>
+      <c r="BR22" t="s">
+        <v>122</v>
+      </c>
+      <c r="BS22" t="s">
+        <v>125</v>
+      </c>
+      <c r="BT22">
+        <v>0</v>
+      </c>
+      <c r="BU22">
+        <v>0</v>
+      </c>
+      <c r="BV22">
+        <v>0</v>
+      </c>
+      <c r="BW22" t="s">
+        <v>123</v>
+      </c>
+      <c r="BX22" t="s">
+        <v>122</v>
+      </c>
+      <c r="BY22" t="s">
+        <v>122</v>
+      </c>
+      <c r="BZ22" t="s">
+        <v>125</v>
+      </c>
+      <c r="CA22">
+        <v>0</v>
+      </c>
+      <c r="CB22">
+        <v>0</v>
+      </c>
+      <c r="CC22">
+        <v>0</v>
+      </c>
+      <c r="CD22">
+        <v>0</v>
+      </c>
+      <c r="CE22">
+        <v>0</v>
+      </c>
+      <c r="CF22" t="s">
+        <v>128</v>
+      </c>
+      <c r="CG22">
+        <v>0</v>
+      </c>
+      <c r="CH22">
+        <v>0</v>
+      </c>
+      <c r="CI22" s="3">
+        <v>15137</v>
+      </c>
+      <c r="CJ22" s="3">
+        <v>36008</v>
+      </c>
+      <c r="CK22">
+        <v>57</v>
+      </c>
+      <c r="CL22">
+        <v>999</v>
+      </c>
+      <c r="CM22" s="2">
+        <v>43465</v>
+      </c>
+      <c r="CN22" s="2">
+        <v>55884</v>
+      </c>
+      <c r="CO22">
+        <v>409</v>
+      </c>
+      <c r="CP22">
+        <v>245</v>
+      </c>
+      <c r="CQ22">
+        <v>943</v>
+      </c>
+      <c r="CR22">
+        <v>0</v>
+      </c>
+      <c r="CS22" t="s">
+        <v>129</v>
+      </c>
+      <c r="CT22" t="s">
+        <v>129</v>
+      </c>
+      <c r="CU22">
+        <v>10505.1</v>
+      </c>
+      <c r="CX22">
+        <v>0</v>
+      </c>
+      <c r="CY22">
+        <v>0</v>
+      </c>
+      <c r="CZ22">
+        <v>0</v>
+      </c>
+      <c r="DB22">
+        <v>1</v>
+      </c>
+      <c r="DF22">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:110">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>2018</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>294101</v>
+      </c>
+      <c r="G23">
+        <v>4825.4</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>107.8</v>
+      </c>
+      <c r="J23">
+        <v>11.2</v>
+      </c>
+      <c r="K23">
+        <v>10479.7</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>3.5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>111</v>
+      </c>
+      <c r="O23">
+        <v>2</v>
+      </c>
+      <c r="P23">
+        <v>19</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>117</v>
+      </c>
+      <c r="R23">
+        <v>5049.7</v>
+      </c>
+      <c r="S23">
+        <v>4806.4</v>
+      </c>
+      <c r="T23">
+        <v>99</v>
+      </c>
+      <c r="U23">
+        <v>99</v>
+      </c>
+      <c r="V23" s="2">
+        <v>36286</v>
+      </c>
+      <c r="W23" s="3">
+        <v>72445</v>
+      </c>
+      <c r="X23">
+        <v>400</v>
+      </c>
+      <c r="Y23">
+        <v>362.3</v>
+      </c>
+      <c r="Z23">
+        <v>322.4</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>260</v>
+      </c>
+      <c r="AC23">
+        <v>102.3</v>
+      </c>
+      <c r="AD23">
+        <v>1</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG23">
+        <v>3.5</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>122</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>125</v>
+      </c>
+      <c r="AL23">
+        <v>0</v>
+      </c>
+      <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <v>0</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>122</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>122</v>
+      </c>
+      <c r="AR23" t="s">
+        <v>125</v>
+      </c>
+      <c r="AS23">
+        <v>0</v>
+      </c>
+      <c r="AT23">
+        <v>0</v>
+      </c>
+      <c r="AU23">
+        <v>0</v>
+      </c>
+      <c r="AV23" t="s">
+        <v>126</v>
+      </c>
+      <c r="AW23" t="s">
+        <v>127</v>
+      </c>
+      <c r="AX23" t="s">
+        <v>122</v>
+      </c>
+      <c r="AY23" t="s">
+        <v>117</v>
+      </c>
+      <c r="AZ23">
+        <v>0</v>
+      </c>
+      <c r="BA23">
+        <v>37.7</v>
+      </c>
+      <c r="BB23" t="s">
+        <v>124</v>
+      </c>
+      <c r="BC23" t="s">
+        <v>122</v>
+      </c>
+      <c r="BD23" t="s">
+        <v>122</v>
+      </c>
+      <c r="BE23" t="s">
+        <v>125</v>
+      </c>
+      <c r="BF23">
+        <v>0</v>
+      </c>
+      <c r="BG23">
+        <v>0</v>
+      </c>
+      <c r="BH23">
+        <v>0</v>
+      </c>
+      <c r="BI23" t="s">
+        <v>124</v>
+      </c>
+      <c r="BJ23" t="s">
+        <v>122</v>
+      </c>
+      <c r="BK23" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL23" t="s">
+        <v>125</v>
+      </c>
+      <c r="BM23">
+        <v>0</v>
+      </c>
+      <c r="BN23">
+        <v>0</v>
+      </c>
+      <c r="BO23">
+        <v>0</v>
+      </c>
+      <c r="BP23" t="s">
+        <v>124</v>
+      </c>
+      <c r="BQ23" t="s">
+        <v>122</v>
+      </c>
+      <c r="BR23" t="s">
+        <v>122</v>
+      </c>
+      <c r="BS23" t="s">
+        <v>125</v>
+      </c>
+      <c r="BT23">
+        <v>0</v>
+      </c>
+      <c r="BU23">
+        <v>0</v>
+      </c>
+      <c r="BV23">
+        <v>0</v>
+      </c>
+      <c r="BW23" t="s">
+        <v>123</v>
+      </c>
+      <c r="BX23" t="s">
+        <v>122</v>
+      </c>
+      <c r="BY23" t="s">
+        <v>122</v>
+      </c>
+      <c r="BZ23" t="s">
+        <v>125</v>
+      </c>
+      <c r="CA23">
+        <v>0</v>
+      </c>
+      <c r="CB23">
+        <v>0</v>
+      </c>
+      <c r="CC23">
+        <v>0</v>
+      </c>
+      <c r="CD23">
+        <v>0</v>
+      </c>
+      <c r="CE23">
+        <v>0</v>
+      </c>
+      <c r="CF23" t="s">
+        <v>128</v>
+      </c>
+      <c r="CG23">
+        <v>0</v>
+      </c>
+      <c r="CH23">
+        <v>0</v>
+      </c>
+      <c r="CI23" s="3">
+        <v>14347</v>
+      </c>
+      <c r="CJ23" s="3">
+        <v>36286</v>
+      </c>
+      <c r="CK23">
+        <v>60</v>
+      </c>
+      <c r="CL23">
+        <v>999</v>
+      </c>
+      <c r="CM23" s="2">
+        <v>43465</v>
+      </c>
+      <c r="CN23" s="2">
+        <v>55884</v>
+      </c>
+      <c r="CO23">
+        <v>409</v>
+      </c>
+      <c r="CP23">
+        <v>236</v>
+      </c>
+      <c r="CQ23">
+        <v>952</v>
+      </c>
+      <c r="CR23">
+        <v>0</v>
+      </c>
+      <c r="CS23" t="s">
+        <v>129</v>
+      </c>
+      <c r="CT23" t="s">
+        <v>129</v>
+      </c>
+      <c r="CU23">
+        <v>4944.4</v>
+      </c>
+      <c r="CX23">
+        <v>0</v>
+      </c>
+      <c r="CY23">
+        <v>0</v>
+      </c>
+      <c r="CZ23">
+        <v>0</v>
+      </c>
+      <c r="DB23">
+        <v>1</v>
+      </c>
+      <c r="DF23">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:110">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>2018</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>375801</v>
+      </c>
+      <c r="G24">
+        <v>9069</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>19669</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>2.5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>111</v>
+      </c>
+      <c r="O24">
+        <v>4</v>
+      </c>
+      <c r="P24">
+        <v>19</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>118</v>
+      </c>
+      <c r="R24">
+        <v>9577.5</v>
+      </c>
+      <c r="S24">
+        <v>9032.299999999999</v>
+      </c>
+      <c r="T24">
+        <v>99</v>
+      </c>
+      <c r="U24">
+        <v>99</v>
+      </c>
+      <c r="V24" s="2">
+        <v>36434</v>
+      </c>
+      <c r="W24" s="3">
+        <v>72593</v>
+      </c>
+      <c r="X24">
+        <v>800</v>
+      </c>
+      <c r="Y24">
+        <v>729.2</v>
+      </c>
+      <c r="Z24">
+        <v>649</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>532.9</v>
+      </c>
+      <c r="AC24">
+        <v>196.3</v>
+      </c>
+      <c r="AD24">
+        <v>1</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG24">
+        <v>2.5</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>122</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>125</v>
+      </c>
+      <c r="AL24">
+        <v>0</v>
+      </c>
+      <c r="AM24">
+        <v>0</v>
+      </c>
+      <c r="AN24">
+        <v>0</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>123</v>
+      </c>
+      <c r="AP24" t="s">
+        <v>122</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>122</v>
+      </c>
+      <c r="AR24" t="s">
+        <v>125</v>
+      </c>
+      <c r="AS24">
+        <v>0</v>
+      </c>
+      <c r="AT24">
+        <v>0</v>
+      </c>
+      <c r="AU24">
+        <v>0</v>
+      </c>
+      <c r="AV24" t="s">
+        <v>126</v>
+      </c>
+      <c r="AW24" t="s">
+        <v>127</v>
+      </c>
+      <c r="AX24" t="s">
+        <v>122</v>
+      </c>
+      <c r="AY24" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ24">
+        <v>0</v>
+      </c>
+      <c r="BA24">
+        <v>70.8</v>
+      </c>
+      <c r="BB24" t="s">
+        <v>123</v>
+      </c>
+      <c r="BC24" t="s">
+        <v>122</v>
+      </c>
+      <c r="BD24" t="s">
+        <v>122</v>
+      </c>
+      <c r="BE24" t="s">
+        <v>125</v>
+      </c>
+      <c r="BF24">
+        <v>0</v>
+      </c>
+      <c r="BG24">
+        <v>0</v>
+      </c>
+      <c r="BH24">
+        <v>0</v>
+      </c>
+      <c r="BI24" t="s">
+        <v>123</v>
+      </c>
+      <c r="BJ24" t="s">
+        <v>122</v>
+      </c>
+      <c r="BK24" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL24" t="s">
+        <v>125</v>
+      </c>
+      <c r="BM24">
+        <v>0</v>
+      </c>
+      <c r="BN24">
+        <v>0</v>
+      </c>
+      <c r="BO24">
+        <v>0</v>
+      </c>
+      <c r="BP24" t="s">
+        <v>123</v>
+      </c>
+      <c r="BQ24" t="s">
+        <v>122</v>
+      </c>
+      <c r="BR24" t="s">
+        <v>122</v>
+      </c>
+      <c r="BS24" t="s">
+        <v>125</v>
+      </c>
+      <c r="BT24">
+        <v>0</v>
+      </c>
+      <c r="BU24">
+        <v>0</v>
+      </c>
+      <c r="BV24">
+        <v>0</v>
+      </c>
+      <c r="BW24" t="s">
+        <v>123</v>
+      </c>
+      <c r="BX24" t="s">
+        <v>122</v>
+      </c>
+      <c r="BY24" t="s">
+        <v>122</v>
+      </c>
+      <c r="BZ24" t="s">
+        <v>125</v>
+      </c>
+      <c r="CA24">
+        <v>0</v>
+      </c>
+      <c r="CB24">
+        <v>0</v>
+      </c>
+      <c r="CC24">
+        <v>0</v>
+      </c>
+      <c r="CD24">
+        <v>0</v>
+      </c>
+      <c r="CE24">
+        <v>0</v>
+      </c>
+      <c r="CF24" t="s">
+        <v>128</v>
+      </c>
+      <c r="CG24">
+        <v>0</v>
+      </c>
+      <c r="CH24">
+        <v>0</v>
+      </c>
+      <c r="CI24" s="3">
+        <v>14764</v>
+      </c>
+      <c r="CJ24" s="3">
+        <v>36434</v>
+      </c>
+      <c r="CK24">
+        <v>59</v>
+      </c>
+      <c r="CL24">
+        <v>999</v>
+      </c>
+      <c r="CM24" s="2">
+        <v>43465</v>
+      </c>
+      <c r="CN24" s="2">
+        <v>55884</v>
+      </c>
+      <c r="CO24">
+        <v>409</v>
+      </c>
+      <c r="CP24">
+        <v>231</v>
+      </c>
+      <c r="CQ24">
+        <v>957</v>
+      </c>
+      <c r="CR24">
+        <v>0</v>
+      </c>
+      <c r="CS24" t="s">
+        <v>129</v>
+      </c>
+      <c r="CT24" t="s">
+        <v>129</v>
+      </c>
+      <c r="CU24">
+        <v>9069</v>
+      </c>
+      <c r="CX24">
+        <v>0</v>
+      </c>
+      <c r="CY24">
+        <v>0</v>
+      </c>
+      <c r="CZ24">
+        <v>0</v>
+      </c>
+      <c r="DB24">
+        <v>1</v>
+      </c>
+      <c r="DF24">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:110">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>2018</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>743801</v>
+      </c>
+      <c r="G25">
+        <v>2709.2</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>5370</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>2.5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>111</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>17</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>118</v>
+      </c>
+      <c r="R25">
+        <v>2862.6</v>
+      </c>
+      <c r="S25">
+        <v>2699.4</v>
+      </c>
+      <c r="T25">
+        <v>99</v>
+      </c>
+      <c r="U25">
+        <v>99</v>
+      </c>
+      <c r="V25" s="2">
+        <v>36892</v>
+      </c>
+      <c r="W25" s="3">
+        <v>73050</v>
+      </c>
+      <c r="X25">
+        <v>400</v>
+      </c>
+      <c r="Y25">
+        <v>400</v>
+      </c>
+      <c r="Z25">
+        <v>338.8</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>379.8</v>
+      </c>
+      <c r="AC25">
+        <v>0.9</v>
+      </c>
+      <c r="AD25">
+        <v>1</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG25">
+        <v>2.5</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>122</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>125</v>
+      </c>
+      <c r="AL25">
+        <v>0</v>
+      </c>
+      <c r="AM25">
+        <v>0</v>
+      </c>
+      <c r="AN25">
+        <v>0</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP25" t="s">
+        <v>122</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>122</v>
+      </c>
+      <c r="AR25" t="s">
+        <v>125</v>
+      </c>
+      <c r="AS25">
+        <v>0</v>
+      </c>
+      <c r="AT25">
+        <v>0</v>
+      </c>
+      <c r="AU25">
+        <v>0</v>
+      </c>
+      <c r="AV25" t="s">
+        <v>126</v>
+      </c>
+      <c r="AW25" t="s">
+        <v>122</v>
+      </c>
+      <c r="AX25" t="s">
+        <v>122</v>
+      </c>
+      <c r="AY25" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ25">
+        <v>0</v>
+      </c>
+      <c r="BA25">
+        <v>0</v>
+      </c>
+      <c r="BB25" t="s">
+        <v>124</v>
+      </c>
+      <c r="BC25" t="s">
+        <v>122</v>
+      </c>
+      <c r="BD25" t="s">
+        <v>122</v>
+      </c>
+      <c r="BE25" t="s">
+        <v>125</v>
+      </c>
+      <c r="BF25">
+        <v>0</v>
+      </c>
+      <c r="BG25">
+        <v>0</v>
+      </c>
+      <c r="BH25">
+        <v>0</v>
+      </c>
+      <c r="BI25" t="s">
+        <v>124</v>
+      </c>
+      <c r="BJ25" t="s">
+        <v>122</v>
+      </c>
+      <c r="BK25" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL25" t="s">
+        <v>125</v>
+      </c>
+      <c r="BM25">
+        <v>0</v>
+      </c>
+      <c r="BN25">
+        <v>0</v>
+      </c>
+      <c r="BO25">
+        <v>0</v>
+      </c>
+      <c r="BP25" t="s">
+        <v>124</v>
+      </c>
+      <c r="BQ25" t="s">
+        <v>122</v>
+      </c>
+      <c r="BR25" t="s">
+        <v>122</v>
+      </c>
+      <c r="BS25" t="s">
+        <v>125</v>
+      </c>
+      <c r="BT25">
+        <v>0</v>
+      </c>
+      <c r="BU25">
+        <v>0</v>
+      </c>
+      <c r="BV25">
+        <v>0</v>
+      </c>
+      <c r="BW25" t="s">
+        <v>123</v>
+      </c>
+      <c r="BX25" t="s">
+        <v>122</v>
+      </c>
+      <c r="BY25" t="s">
+        <v>122</v>
+      </c>
+      <c r="BZ25" t="s">
+        <v>125</v>
+      </c>
+      <c r="CA25">
+        <v>0</v>
+      </c>
+      <c r="CB25">
+        <v>0</v>
+      </c>
+      <c r="CC25">
+        <v>0</v>
+      </c>
+      <c r="CD25">
+        <v>0</v>
+      </c>
+      <c r="CE25">
+        <v>0</v>
+      </c>
+      <c r="CF25" t="s">
+        <v>128</v>
+      </c>
+      <c r="CG25">
+        <v>0</v>
+      </c>
+      <c r="CH25">
+        <v>0</v>
+      </c>
+      <c r="CI25" s="3">
+        <v>10218</v>
+      </c>
+      <c r="CJ25" s="3">
+        <v>36892</v>
+      </c>
+      <c r="CK25">
+        <v>73</v>
+      </c>
+      <c r="CL25">
+        <v>999</v>
+      </c>
+      <c r="CM25" s="2">
+        <v>43465</v>
+      </c>
+      <c r="CN25" s="2">
+        <v>55884</v>
+      </c>
+      <c r="CO25">
+        <v>409</v>
+      </c>
+      <c r="CP25">
+        <v>216</v>
+      </c>
+      <c r="CQ25">
+        <v>972</v>
+      </c>
+      <c r="CR25">
+        <v>0</v>
+      </c>
+      <c r="CS25" t="s">
+        <v>129</v>
+      </c>
+      <c r="CT25" t="s">
+        <v>129</v>
+      </c>
+      <c r="CU25">
+        <v>2709.2</v>
+      </c>
+      <c r="CX25">
+        <v>0</v>
+      </c>
+      <c r="CY25">
+        <v>0</v>
+      </c>
+      <c r="CZ25">
+        <v>0</v>
+      </c>
+      <c r="DB25">
+        <v>1</v>
+      </c>
+      <c r="DF25">
         <v>2001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:110">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>2018</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>71601</v>
+      </c>
+      <c r="G26">
+        <v>9029.299999999999</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>54.5</v>
+      </c>
+      <c r="J26">
+        <v>4.8</v>
+      </c>
+      <c r="K26">
+        <v>18023.9</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>3.5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>112</v>
+      </c>
+      <c r="O26">
+        <v>4</v>
+      </c>
+      <c r="P26">
+        <v>20</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>117</v>
+      </c>
+      <c r="R26">
+        <v>9413.299999999999</v>
+      </c>
+      <c r="S26">
+        <v>8997.6</v>
+      </c>
+      <c r="T26">
+        <v>99</v>
+      </c>
+      <c r="U26">
+        <v>99</v>
+      </c>
+      <c r="V26" s="2">
+        <v>36008</v>
+      </c>
+      <c r="W26" s="3">
+        <v>72167</v>
+      </c>
+      <c r="X26">
+        <v>800</v>
+      </c>
+      <c r="Y26">
+        <v>735.1</v>
+      </c>
+      <c r="Z26">
+        <v>654.3</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>376.2</v>
+      </c>
+      <c r="AC26">
+        <v>358.9</v>
+      </c>
+      <c r="AD26">
+        <v>1</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG26">
+        <v>3.5</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>122</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>125</v>
+      </c>
+      <c r="AL26">
+        <v>0</v>
+      </c>
+      <c r="AM26">
+        <v>0</v>
+      </c>
+      <c r="AN26">
+        <v>0</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>123</v>
+      </c>
+      <c r="AP26" t="s">
+        <v>122</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>122</v>
+      </c>
+      <c r="AR26" t="s">
+        <v>125</v>
+      </c>
+      <c r="AS26">
+        <v>0</v>
+      </c>
+      <c r="AT26">
+        <v>0</v>
+      </c>
+      <c r="AU26">
+        <v>0</v>
+      </c>
+      <c r="AV26" t="s">
+        <v>126</v>
+      </c>
+      <c r="AW26" t="s">
+        <v>127</v>
+      </c>
+      <c r="AX26" t="s">
+        <v>122</v>
+      </c>
+      <c r="AY26" t="s">
+        <v>117</v>
+      </c>
+      <c r="AZ26">
+        <v>0</v>
+      </c>
+      <c r="BA26">
+        <v>64.90000000000001</v>
+      </c>
+      <c r="BB26" t="s">
+        <v>123</v>
+      </c>
+      <c r="BC26" t="s">
+        <v>122</v>
+      </c>
+      <c r="BD26" t="s">
+        <v>122</v>
+      </c>
+      <c r="BE26" t="s">
+        <v>125</v>
+      </c>
+      <c r="BF26">
+        <v>0</v>
+      </c>
+      <c r="BG26">
+        <v>0</v>
+      </c>
+      <c r="BH26">
+        <v>0</v>
+      </c>
+      <c r="BI26" t="s">
+        <v>123</v>
+      </c>
+      <c r="BJ26" t="s">
+        <v>122</v>
+      </c>
+      <c r="BK26" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL26" t="s">
+        <v>125</v>
+      </c>
+      <c r="BM26">
+        <v>0</v>
+      </c>
+      <c r="BN26">
+        <v>0</v>
+      </c>
+      <c r="BO26">
+        <v>0</v>
+      </c>
+      <c r="BP26" t="s">
+        <v>123</v>
+      </c>
+      <c r="BQ26" t="s">
+        <v>122</v>
+      </c>
+      <c r="BR26" t="s">
+        <v>122</v>
+      </c>
+      <c r="BS26" t="s">
+        <v>125</v>
+      </c>
+      <c r="BT26">
+        <v>0</v>
+      </c>
+      <c r="BU26">
+        <v>0</v>
+      </c>
+      <c r="BV26">
+        <v>0</v>
+      </c>
+      <c r="BW26" t="s">
+        <v>123</v>
+      </c>
+      <c r="BX26" t="s">
+        <v>122</v>
+      </c>
+      <c r="BY26" t="s">
+        <v>122</v>
+      </c>
+      <c r="BZ26" t="s">
+        <v>125</v>
+      </c>
+      <c r="CA26">
+        <v>0</v>
+      </c>
+      <c r="CB26">
+        <v>0</v>
+      </c>
+      <c r="CC26">
+        <v>0</v>
+      </c>
+      <c r="CD26">
+        <v>0</v>
+      </c>
+      <c r="CE26">
+        <v>0</v>
+      </c>
+      <c r="CF26" t="s">
+        <v>128</v>
+      </c>
+      <c r="CG26">
+        <v>0</v>
+      </c>
+      <c r="CH26">
+        <v>0</v>
+      </c>
+      <c r="CI26" s="3">
+        <v>15348</v>
+      </c>
+      <c r="CJ26" s="3">
+        <v>36008</v>
+      </c>
+      <c r="CK26">
+        <v>56</v>
+      </c>
+      <c r="CL26">
+        <v>999</v>
+      </c>
+      <c r="CM26" s="2">
+        <v>43465</v>
+      </c>
+      <c r="CN26" s="2">
+        <v>55884</v>
+      </c>
+      <c r="CO26">
+        <v>409</v>
+      </c>
+      <c r="CP26">
+        <v>245</v>
+      </c>
+      <c r="CQ26">
+        <v>943</v>
+      </c>
+      <c r="CR26">
+        <v>0</v>
+      </c>
+      <c r="CS26" t="s">
+        <v>129</v>
+      </c>
+      <c r="CT26" t="s">
+        <v>129</v>
+      </c>
+      <c r="CU26">
+        <v>9088.599999999999</v>
+      </c>
+      <c r="CX26">
+        <v>0</v>
+      </c>
+      <c r="CY26">
+        <v>0</v>
+      </c>
+      <c r="CZ26">
+        <v>0</v>
+      </c>
+      <c r="DB26">
+        <v>1</v>
+      </c>
+      <c r="DF26">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:110">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>2018</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>236605</v>
+      </c>
+      <c r="G27">
+        <v>8658.6</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>103.6</v>
+      </c>
+      <c r="J27">
+        <v>11.2</v>
+      </c>
+      <c r="K27">
+        <v>21610</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>2.5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>112</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="P27">
+        <v>18</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>118</v>
+      </c>
+      <c r="R27">
+        <v>9256.799999999999</v>
+      </c>
+      <c r="S27">
+        <v>8615.299999999999</v>
+      </c>
+      <c r="T27">
+        <v>99</v>
+      </c>
+      <c r="U27">
+        <v>99</v>
+      </c>
+      <c r="V27" s="2">
+        <v>36586</v>
+      </c>
+      <c r="W27" s="3">
+        <v>72744</v>
+      </c>
+      <c r="X27">
+        <v>800</v>
+      </c>
+      <c r="Y27">
+        <v>722.2</v>
+      </c>
+      <c r="Z27">
+        <v>642.8</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>367.9</v>
+      </c>
+      <c r="AC27">
+        <v>354.3</v>
+      </c>
+      <c r="AD27">
+        <v>1</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG27">
+        <v>2.5</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>122</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>125</v>
+      </c>
+      <c r="AL27">
+        <v>0</v>
+      </c>
+      <c r="AM27">
+        <v>0</v>
+      </c>
+      <c r="AN27">
+        <v>0</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP27" t="s">
+        <v>122</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>122</v>
+      </c>
+      <c r="AR27" t="s">
+        <v>125</v>
+      </c>
+      <c r="AS27">
+        <v>0</v>
+      </c>
+      <c r="AT27">
+        <v>0</v>
+      </c>
+      <c r="AU27">
+        <v>0</v>
+      </c>
+      <c r="AV27" t="s">
+        <v>126</v>
+      </c>
+      <c r="AW27" t="s">
+        <v>127</v>
+      </c>
+      <c r="AX27" t="s">
+        <v>122</v>
+      </c>
+      <c r="AY27" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ27">
+        <v>0</v>
+      </c>
+      <c r="BA27">
+        <v>77.8</v>
+      </c>
+      <c r="BB27" t="s">
+        <v>124</v>
+      </c>
+      <c r="BC27" t="s">
+        <v>122</v>
+      </c>
+      <c r="BD27" t="s">
+        <v>122</v>
+      </c>
+      <c r="BE27" t="s">
+        <v>125</v>
+      </c>
+      <c r="BF27">
+        <v>0</v>
+      </c>
+      <c r="BG27">
+        <v>0</v>
+      </c>
+      <c r="BH27">
+        <v>0</v>
+      </c>
+      <c r="BI27" t="s">
+        <v>124</v>
+      </c>
+      <c r="BJ27" t="s">
+        <v>122</v>
+      </c>
+      <c r="BK27" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL27" t="s">
+        <v>125</v>
+      </c>
+      <c r="BM27">
+        <v>0</v>
+      </c>
+      <c r="BN27">
+        <v>0</v>
+      </c>
+      <c r="BO27">
+        <v>0</v>
+      </c>
+      <c r="BP27" t="s">
+        <v>124</v>
+      </c>
+      <c r="BQ27" t="s">
+        <v>122</v>
+      </c>
+      <c r="BR27" t="s">
+        <v>122</v>
+      </c>
+      <c r="BS27" t="s">
+        <v>125</v>
+      </c>
+      <c r="BT27">
+        <v>0</v>
+      </c>
+      <c r="BU27">
+        <v>0</v>
+      </c>
+      <c r="BV27">
+        <v>0</v>
+      </c>
+      <c r="BW27" t="s">
+        <v>123</v>
+      </c>
+      <c r="BX27" t="s">
+        <v>122</v>
+      </c>
+      <c r="BY27" t="s">
+        <v>122</v>
+      </c>
+      <c r="BZ27" t="s">
+        <v>125</v>
+      </c>
+      <c r="CA27">
+        <v>0</v>
+      </c>
+      <c r="CB27">
+        <v>0</v>
+      </c>
+      <c r="CC27">
+        <v>0</v>
+      </c>
+      <c r="CD27">
+        <v>0</v>
+      </c>
+      <c r="CE27">
+        <v>0</v>
+      </c>
+      <c r="CF27" t="s">
+        <v>128</v>
+      </c>
+      <c r="CG27">
+        <v>0</v>
+      </c>
+      <c r="CH27">
+        <v>0</v>
+      </c>
+      <c r="CI27" s="3">
+        <v>18649</v>
+      </c>
+      <c r="CJ27" s="3">
+        <v>36586</v>
+      </c>
+      <c r="CK27">
+        <v>49</v>
+      </c>
+      <c r="CL27">
+        <v>999</v>
+      </c>
+      <c r="CM27" s="2">
+        <v>43465</v>
+      </c>
+      <c r="CN27" s="2">
+        <v>55884</v>
+      </c>
+      <c r="CO27">
+        <v>409</v>
+      </c>
+      <c r="CP27">
+        <v>226</v>
+      </c>
+      <c r="CQ27">
+        <v>962</v>
+      </c>
+      <c r="CR27">
+        <v>0</v>
+      </c>
+      <c r="CS27" t="s">
+        <v>129</v>
+      </c>
+      <c r="CT27" t="s">
+        <v>129</v>
+      </c>
+      <c r="CU27">
+        <v>8773.400000000001</v>
+      </c>
+      <c r="CX27">
+        <v>0</v>
+      </c>
+      <c r="CY27">
+        <v>0</v>
+      </c>
+      <c r="CZ27">
+        <v>0</v>
+      </c>
+      <c r="DB27">
+        <v>1</v>
+      </c>
+      <c r="DF27">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:110">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>2018</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>350001</v>
+      </c>
+      <c r="G28">
+        <v>6951.3</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>55.9</v>
+      </c>
+      <c r="J28">
+        <v>3.4</v>
+      </c>
+      <c r="K28">
+        <v>12919.5</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>3.5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>112</v>
+      </c>
+      <c r="O28">
+        <v>4</v>
+      </c>
+      <c r="P28">
+        <v>19</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>117</v>
+      </c>
+      <c r="R28">
+        <v>7243.2</v>
+      </c>
+      <c r="S28">
+        <v>6930.3</v>
+      </c>
+      <c r="T28">
+        <v>99</v>
+      </c>
+      <c r="U28">
+        <v>99</v>
+      </c>
+      <c r="V28" s="2">
+        <v>36373</v>
+      </c>
+      <c r="W28" s="3">
+        <v>72532</v>
+      </c>
+      <c r="X28">
+        <v>800</v>
+      </c>
+      <c r="Y28">
+        <v>753.5</v>
+      </c>
+      <c r="Z28">
+        <v>670.6</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>441.4</v>
+      </c>
+      <c r="AC28">
+        <v>312.1</v>
+      </c>
+      <c r="AD28">
+        <v>1</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG28">
+        <v>3.5</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>122</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>125</v>
+      </c>
+      <c r="AL28">
+        <v>0</v>
+      </c>
+      <c r="AM28">
+        <v>0</v>
+      </c>
+      <c r="AN28">
+        <v>0</v>
+      </c>
+      <c r="AO28" t="s">
+        <v>123</v>
+      </c>
+      <c r="AP28" t="s">
+        <v>122</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>122</v>
+      </c>
+      <c r="AR28" t="s">
+        <v>125</v>
+      </c>
+      <c r="AS28">
+        <v>0</v>
+      </c>
+      <c r="AT28">
+        <v>0</v>
+      </c>
+      <c r="AU28">
+        <v>0</v>
+      </c>
+      <c r="AV28" t="s">
+        <v>126</v>
+      </c>
+      <c r="AW28" t="s">
+        <v>127</v>
+      </c>
+      <c r="AX28" t="s">
+        <v>122</v>
+      </c>
+      <c r="AY28" t="s">
+        <v>117</v>
+      </c>
+      <c r="AZ28">
+        <v>0</v>
+      </c>
+      <c r="BA28">
+        <v>46.5</v>
+      </c>
+      <c r="BB28" t="s">
+        <v>123</v>
+      </c>
+      <c r="BC28" t="s">
+        <v>122</v>
+      </c>
+      <c r="BD28" t="s">
+        <v>122</v>
+      </c>
+      <c r="BE28" t="s">
+        <v>125</v>
+      </c>
+      <c r="BF28">
+        <v>0</v>
+      </c>
+      <c r="BG28">
+        <v>0</v>
+      </c>
+      <c r="BH28">
+        <v>0</v>
+      </c>
+      <c r="BI28" t="s">
+        <v>123</v>
+      </c>
+      <c r="BJ28" t="s">
+        <v>122</v>
+      </c>
+      <c r="BK28" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL28" t="s">
+        <v>125</v>
+      </c>
+      <c r="BM28">
+        <v>0</v>
+      </c>
+      <c r="BN28">
+        <v>0</v>
+      </c>
+      <c r="BO28">
+        <v>0</v>
+      </c>
+      <c r="BP28" t="s">
+        <v>123</v>
+      </c>
+      <c r="BQ28" t="s">
+        <v>122</v>
+      </c>
+      <c r="BR28" t="s">
+        <v>122</v>
+      </c>
+      <c r="BS28" t="s">
+        <v>125</v>
+      </c>
+      <c r="BT28">
+        <v>0</v>
+      </c>
+      <c r="BU28">
+        <v>0</v>
+      </c>
+      <c r="BV28">
+        <v>0</v>
+      </c>
+      <c r="BW28" t="s">
+        <v>123</v>
+      </c>
+      <c r="BX28" t="s">
+        <v>122</v>
+      </c>
+      <c r="BY28" t="s">
+        <v>122</v>
+      </c>
+      <c r="BZ28" t="s">
+        <v>125</v>
+      </c>
+      <c r="CA28">
+        <v>0</v>
+      </c>
+      <c r="CB28">
+        <v>0</v>
+      </c>
+      <c r="CC28">
+        <v>0</v>
+      </c>
+      <c r="CD28">
+        <v>0</v>
+      </c>
+      <c r="CE28">
+        <v>0</v>
+      </c>
+      <c r="CF28" t="s">
+        <v>128</v>
+      </c>
+      <c r="CG28">
+        <v>0</v>
+      </c>
+      <c r="CH28">
+        <v>0</v>
+      </c>
+      <c r="CI28" s="3">
+        <v>12626</v>
+      </c>
+      <c r="CJ28" s="3">
+        <v>36373</v>
+      </c>
+      <c r="CK28">
+        <v>65</v>
+      </c>
+      <c r="CL28">
+        <v>999</v>
+      </c>
+      <c r="CM28" s="2">
+        <v>43465</v>
+      </c>
+      <c r="CN28" s="2">
+        <v>55884</v>
+      </c>
+      <c r="CO28">
+        <v>409</v>
+      </c>
+      <c r="CP28">
+        <v>233</v>
+      </c>
+      <c r="CQ28">
+        <v>955</v>
+      </c>
+      <c r="CR28">
+        <v>0</v>
+      </c>
+      <c r="CS28" t="s">
+        <v>129</v>
+      </c>
+      <c r="CT28" t="s">
+        <v>129</v>
+      </c>
+      <c r="CU28">
+        <v>7010.599999999999</v>
+      </c>
+      <c r="CX28">
+        <v>0</v>
+      </c>
+      <c r="CY28">
+        <v>0</v>
+      </c>
+      <c r="CZ28">
+        <v>0</v>
+      </c>
+      <c r="DB28">
+        <v>1</v>
+      </c>
+      <c r="DF28">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:110">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>2018</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>399202</v>
+      </c>
+      <c r="G29">
+        <v>1832.4</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>59.9</v>
+      </c>
+      <c r="J29">
+        <v>5.7</v>
+      </c>
+      <c r="K29">
+        <v>7256</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>2</v>
+      </c>
+      <c r="N29" t="s">
+        <v>112</v>
+      </c>
+      <c r="O29">
+        <v>2</v>
+      </c>
+      <c r="P29">
+        <v>11</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>119</v>
+      </c>
+      <c r="R29">
+        <v>2118.8</v>
+      </c>
+      <c r="S29">
+        <v>1816.5</v>
+      </c>
+      <c r="T29">
+        <v>99</v>
+      </c>
+      <c r="U29">
+        <v>99</v>
+      </c>
+      <c r="V29" s="2">
+        <v>39173</v>
+      </c>
+      <c r="W29" s="3">
+        <v>75331</v>
+      </c>
+      <c r="X29">
+        <v>300</v>
+      </c>
+      <c r="Y29">
+        <v>273.9</v>
+      </c>
+      <c r="Z29">
+        <v>243.7</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>148.1</v>
+      </c>
+      <c r="AC29">
+        <v>125.8</v>
+      </c>
+      <c r="AD29">
+        <v>1</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG29">
+        <v>2</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>122</v>
+      </c>
+      <c r="AJ29" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>125</v>
+      </c>
+      <c r="AL29">
+        <v>0</v>
+      </c>
+      <c r="AM29">
+        <v>0</v>
+      </c>
+      <c r="AN29">
+        <v>0</v>
+      </c>
+      <c r="AO29" t="s">
+        <v>123</v>
+      </c>
+      <c r="AP29" t="s">
+        <v>122</v>
+      </c>
+      <c r="AQ29" t="s">
+        <v>122</v>
+      </c>
+      <c r="AR29" t="s">
+        <v>125</v>
+      </c>
+      <c r="AS29">
+        <v>0</v>
+      </c>
+      <c r="AT29">
+        <v>0</v>
+      </c>
+      <c r="AU29">
+        <v>0</v>
+      </c>
+      <c r="AV29" t="s">
+        <v>126</v>
+      </c>
+      <c r="AW29" t="s">
+        <v>127</v>
+      </c>
+      <c r="AX29" t="s">
+        <v>122</v>
+      </c>
+      <c r="AY29" t="s">
+        <v>118</v>
+      </c>
+      <c r="AZ29">
+        <v>0</v>
+      </c>
+      <c r="BA29">
+        <v>26.1</v>
+      </c>
+      <c r="BB29" t="s">
+        <v>123</v>
+      </c>
+      <c r="BC29" t="s">
+        <v>122</v>
+      </c>
+      <c r="BD29" t="s">
+        <v>122</v>
+      </c>
+      <c r="BE29" t="s">
+        <v>125</v>
+      </c>
+      <c r="BF29">
+        <v>0</v>
+      </c>
+      <c r="BG29">
+        <v>0</v>
+      </c>
+      <c r="BH29">
+        <v>0</v>
+      </c>
+      <c r="BI29" t="s">
+        <v>123</v>
+      </c>
+      <c r="BJ29" t="s">
+        <v>122</v>
+      </c>
+      <c r="BK29" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL29" t="s">
+        <v>125</v>
+      </c>
+      <c r="BM29">
+        <v>0</v>
+      </c>
+      <c r="BN29">
+        <v>0</v>
+      </c>
+      <c r="BO29">
+        <v>0</v>
+      </c>
+      <c r="BP29" t="s">
+        <v>123</v>
+      </c>
+      <c r="BQ29" t="s">
+        <v>122</v>
+      </c>
+      <c r="BR29" t="s">
+        <v>122</v>
+      </c>
+      <c r="BS29" t="s">
+        <v>125</v>
+      </c>
+      <c r="BT29">
+        <v>0</v>
+      </c>
+      <c r="BU29">
+        <v>0</v>
+      </c>
+      <c r="BV29">
+        <v>0</v>
+      </c>
+      <c r="BW29" t="s">
+        <v>123</v>
+      </c>
+      <c r="BX29" t="s">
+        <v>122</v>
+      </c>
+      <c r="BY29" t="s">
+        <v>122</v>
+      </c>
+      <c r="BZ29" t="s">
+        <v>125</v>
+      </c>
+      <c r="CA29">
+        <v>0</v>
+      </c>
+      <c r="CB29">
+        <v>0</v>
+      </c>
+      <c r="CC29">
+        <v>0</v>
+      </c>
+      <c r="CD29">
+        <v>0</v>
+      </c>
+      <c r="CE29">
+        <v>0</v>
+      </c>
+      <c r="CF29" t="s">
+        <v>128</v>
+      </c>
+      <c r="CG29">
+        <v>0</v>
+      </c>
+      <c r="CH29">
+        <v>0</v>
+      </c>
+      <c r="CI29" s="3">
+        <v>20436</v>
+      </c>
+      <c r="CJ29" s="3">
+        <v>39173</v>
+      </c>
+      <c r="CK29">
+        <v>51</v>
+      </c>
+      <c r="CL29">
+        <v>999</v>
+      </c>
+      <c r="CM29" s="2">
+        <v>43465</v>
+      </c>
+      <c r="CN29" s="2">
+        <v>55884</v>
+      </c>
+      <c r="CO29">
+        <v>409</v>
+      </c>
+      <c r="CP29">
+        <v>141</v>
+      </c>
+      <c r="CQ29">
+        <v>1047</v>
+      </c>
+      <c r="CR29">
+        <v>0</v>
+      </c>
+      <c r="CS29" t="s">
+        <v>129</v>
+      </c>
+      <c r="CT29" t="s">
+        <v>129</v>
+      </c>
+      <c r="CU29">
+        <v>1898</v>
+      </c>
+      <c r="CX29">
+        <v>0</v>
+      </c>
+      <c r="CY29">
+        <v>0</v>
+      </c>
+      <c r="CZ29">
+        <v>0</v>
+      </c>
+      <c r="DB29">
+        <v>1</v>
+      </c>
+      <c r="DF29">
+        <v>2007</v>
       </c>
     </row>
   </sheetData>

--- a/zFT/ptf.xlsx
+++ b/zFT/ptf.xlsx
@@ -1395,7 +1395,7 @@
         <v>1</v>
       </c>
       <c r="DF2">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="DG2">
         <v>0.012</v>

--- a/zFT/ptf.xlsx
+++ b/zFT/ptf.xlsx
@@ -259,6 +259,9 @@
     <t>POLPRCPL9</t>
   </si>
   <si>
+    <t>POLPRCPL8</t>
+  </si>
+  <si>
     <t>POLINDEX</t>
   </si>
   <si>
@@ -328,28 +331,25 @@
     <t>gestionLoading</t>
   </si>
   <si>
+    <t>fraisGestDureePrimesSA</t>
+  </si>
+  <si>
+    <t>fraisGestDureePoliceSA</t>
+  </si>
+  <si>
     <t>fraisFract</t>
   </si>
   <si>
     <t>POLPRCPL7</t>
   </si>
   <si>
-    <t>POLPRCPL8</t>
-  </si>
-  <si>
     <t>POLPRCPLB</t>
   </si>
   <si>
     <t>tauxZill</t>
   </si>
   <si>
-    <t>fraisGestDureePrimesSA</t>
-  </si>
-  <si>
-    <t>fraisGestDureePoliceSA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GKF1995   </t>
+    <t>GKF1995</t>
   </si>
   <si>
     <t>B</t>
@@ -1334,74 +1334,77 @@
       <c r="CE2">
         <v>0</v>
       </c>
-      <c r="CF2" t="s">
+      <c r="CF2">
+        <v>0</v>
+      </c>
+      <c r="CG2" t="s">
         <v>120</v>
       </c>
-      <c r="CG2">
-        <v>0</v>
-      </c>
       <c r="CH2">
         <v>0</v>
       </c>
-      <c r="CI2" s="2">
+      <c r="CI2">
+        <v>0</v>
+      </c>
+      <c r="CJ2" s="2">
         <v>10218</v>
       </c>
-      <c r="CJ2" s="2">
+      <c r="CK2" s="2">
         <v>36892</v>
       </c>
-      <c r="CK2">
+      <c r="CL2">
         <v>73</v>
       </c>
-      <c r="CL2">
+      <c r="CM2">
         <v>999</v>
       </c>
-      <c r="CM2" s="3">
+      <c r="CN2" s="3">
         <v>43465</v>
       </c>
-      <c r="CN2" s="3">
+      <c r="CO2" s="3">
         <v>55884</v>
       </c>
-      <c r="CO2">
+      <c r="CP2">
         <v>409</v>
       </c>
-      <c r="CP2">
+      <c r="CQ2">
         <v>216</v>
       </c>
-      <c r="CQ2">
+      <c r="CR2">
         <v>972</v>
       </c>
-      <c r="CR2">
-        <v>0</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>121</v>
+      <c r="CS2">
+        <v>0</v>
       </c>
       <c r="CT2" t="s">
         <v>121</v>
       </c>
-      <c r="CU2">
+      <c r="CU2" t="s">
+        <v>121</v>
+      </c>
+      <c r="CV2">
         <v>2709.2</v>
       </c>
-      <c r="CX2">
-        <v>0</v>
-      </c>
       <c r="CY2">
         <v>0</v>
       </c>
       <c r="CZ2">
         <v>0</v>
       </c>
-      <c r="DB2">
+      <c r="DA2">
+        <v>0</v>
+      </c>
+      <c r="DC2">
+        <v>0.012</v>
+      </c>
+      <c r="DD2">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="DE2">
         <v>1</v>
       </c>
-      <c r="DF2">
+      <c r="DH2">
         <v>0.08</v>
-      </c>
-      <c r="DG2">
-        <v>0.012</v>
-      </c>
-      <c r="DH2">
-        <v>0.008999999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/zFT/ptf.xlsx
+++ b/zFT/ptf.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="123">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -329,6 +329,9 @@
   </si>
   <si>
     <t>gestionLoading</t>
+  </si>
+  <si>
+    <t>gestionLoadingSA</t>
   </si>
   <si>
     <t>fraisGestDureePrimesSA</t>
@@ -743,13 +746,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DH2"/>
+  <dimension ref="A1:DI2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:112">
+    <row r="1" spans="1:113">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1083,8 +1086,11 @@
       <c r="DH1" s="1" t="s">
         <v>110</v>
       </c>
+      <c r="DI1" s="1" t="s">
+        <v>111</v>
+      </c>
     </row>
-    <row r="2" spans="1:112">
+    <row r="2" spans="1:113">
       <c r="A2" s="1">
         <v>1130</v>
       </c>
@@ -1125,7 +1131,7 @@
         <v>2.5</v>
       </c>
       <c r="N2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -1134,7 +1140,7 @@
         <v>17</v>
       </c>
       <c r="Q2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="R2">
         <v>2862.6</v>
@@ -1176,127 +1182,127 @@
         <v>1</v>
       </c>
       <c r="AE2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG2">
         <v>2.5</v>
       </c>
       <c r="AH2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI2" t="s">
         <v>115</v>
       </c>
-      <c r="AI2" t="s">
-        <v>114</v>
-      </c>
       <c r="AJ2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AK2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2" t="s">
         <v>116</v>
       </c>
-      <c r="AL2">
-        <v>0</v>
-      </c>
-      <c r="AM2">
-        <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>0</v>
-      </c>
-      <c r="AO2" t="s">
+      <c r="AP2" t="s">
         <v>115</v>
       </c>
-      <c r="AP2" t="s">
-        <v>114</v>
-      </c>
       <c r="AQ2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AR2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2" t="s">
         <v>116</v>
       </c>
-      <c r="AS2">
-        <v>0</v>
-      </c>
-      <c r="AT2">
-        <v>0</v>
-      </c>
-      <c r="AU2">
-        <v>0</v>
-      </c>
-      <c r="AV2" t="s">
+      <c r="BC2" t="s">
+        <v>115</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>115</v>
+      </c>
+      <c r="BE2" t="s">
         <v>117</v>
       </c>
-      <c r="AW2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>118</v>
-      </c>
-      <c r="AZ2">
-        <v>0</v>
-      </c>
-      <c r="BA2">
-        <v>0</v>
-      </c>
-      <c r="BB2" t="s">
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>116</v>
+      </c>
+      <c r="BJ2" t="s">
         <v>115</v>
       </c>
-      <c r="BC2" t="s">
-        <v>114</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>114</v>
-      </c>
-      <c r="BE2" t="s">
+      <c r="BK2" t="s">
+        <v>115</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>117</v>
+      </c>
+      <c r="BM2">
+        <v>0</v>
+      </c>
+      <c r="BN2">
+        <v>0</v>
+      </c>
+      <c r="BO2">
+        <v>0</v>
+      </c>
+      <c r="BP2" t="s">
         <v>116</v>
       </c>
-      <c r="BF2">
-        <v>0</v>
-      </c>
-      <c r="BG2">
-        <v>0</v>
-      </c>
-      <c r="BH2">
-        <v>0</v>
-      </c>
-      <c r="BI2" t="s">
+      <c r="BQ2" t="s">
         <v>115</v>
       </c>
-      <c r="BJ2" t="s">
-        <v>114</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>114</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>116</v>
-      </c>
-      <c r="BM2">
-        <v>0</v>
-      </c>
-      <c r="BN2">
-        <v>0</v>
-      </c>
-      <c r="BO2">
-        <v>0</v>
-      </c>
-      <c r="BP2" t="s">
+      <c r="BR2" t="s">
         <v>115</v>
       </c>
-      <c r="BQ2" t="s">
-        <v>114</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>114</v>
-      </c>
       <c r="BS2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="BT2">
         <v>0</v>
@@ -1308,16 +1314,16 @@
         <v>0</v>
       </c>
       <c r="BW2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BX2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="BY2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="BZ2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="CA2">
         <v>0</v>
@@ -1338,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="CG2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="CH2">
         <v>0</v>
@@ -1371,16 +1377,16 @@
         <v>216</v>
       </c>
       <c r="CR2">
-        <v>972</v>
+        <v>288</v>
       </c>
       <c r="CS2">
         <v>0</v>
       </c>
       <c r="CT2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="CU2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="CV2">
         <v>2709.2</v>
@@ -1394,16 +1400,16 @@
       <c r="DA2">
         <v>0</v>
       </c>
-      <c r="DC2">
+      <c r="DD2">
         <v>0.012</v>
       </c>
-      <c r="DD2">
+      <c r="DE2">
         <v>0.008999999999999999</v>
       </c>
-      <c r="DE2">
+      <c r="DF2">
         <v>1</v>
       </c>
-      <c r="DH2">
+      <c r="DI2">
         <v>0.08</v>
       </c>
     </row>

--- a/zFT/ptf.xlsx
+++ b/zFT/ptf.xlsx
@@ -352,19 +352,19 @@
     <t>tauxZill</t>
   </si>
   <si>
-    <t>GKF1995</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>F</t>
+    <t>GKM1995</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>M</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>0000</t>
+    <t xml:space="preserve">    </t>
   </si>
   <si>
     <t xml:space="preserve">   </t>
@@ -373,10 +373,10 @@
     <t>0103</t>
   </si>
   <si>
-    <t xml:space="preserve">B  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    </t>
+    <t>X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A  </t>
   </si>
   <si>
     <t xml:space="preserve">CHF </t>
@@ -1092,10 +1092,10 @@
     </row>
     <row r="2" spans="1:113">
       <c r="A2" s="1">
-        <v>1130</v>
+        <v>118</v>
       </c>
       <c r="B2">
-        <v>1130</v>
+        <v>118</v>
       </c>
       <c r="C2">
         <v>2018</v>
@@ -1107,46 +1107,46 @@
         <v>3</v>
       </c>
       <c r="F2">
-        <v>743801</v>
+        <v>71601</v>
       </c>
       <c r="G2">
-        <v>2709.2</v>
+        <v>9029.299999999999</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>54.5</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="K2">
-        <v>5370</v>
+        <v>18023.9</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="N2" t="s">
         <v>112</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="Q2" t="s">
         <v>113</v>
       </c>
       <c r="R2">
-        <v>2862.6</v>
+        <v>9413.299999999999</v>
       </c>
       <c r="S2">
-        <v>2699.4</v>
+        <v>8997.6</v>
       </c>
       <c r="T2">
         <v>99</v>
@@ -1155,28 +1155,28 @@
         <v>99</v>
       </c>
       <c r="V2" s="2">
-        <v>36892</v>
+        <v>36008</v>
       </c>
       <c r="W2" s="2">
-        <v>73050</v>
+        <v>72167</v>
       </c>
       <c r="X2">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="Y2">
-        <v>400</v>
+        <v>735.1</v>
       </c>
       <c r="Z2">
-        <v>338.8</v>
+        <v>654.3</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>379.8</v>
+        <v>376.2</v>
       </c>
       <c r="AC2">
-        <v>0.9</v>
+        <v>358.9</v>
       </c>
       <c r="AD2">
         <v>1</v>
@@ -1188,7 +1188,7 @@
         <v>115</v>
       </c>
       <c r="AG2">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="AH2" t="s">
         <v>116</v>
@@ -1236,19 +1236,19 @@
         <v>118</v>
       </c>
       <c r="AW2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="AX2" t="s">
         <v>115</v>
       </c>
       <c r="AY2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AZ2">
         <v>0</v>
       </c>
       <c r="BA2">
-        <v>0</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="BB2" t="s">
         <v>116</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="BW2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="BX2" t="s">
         <v>115</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="CJ2" s="2">
-        <v>10218</v>
+        <v>15348</v>
       </c>
       <c r="CK2" s="2">
-        <v>36892</v>
+        <v>36008</v>
       </c>
       <c r="CL2">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="CM2">
         <v>999</v>
@@ -1374,10 +1374,10 @@
         <v>409</v>
       </c>
       <c r="CQ2">
-        <v>216</v>
+        <v>245</v>
       </c>
       <c r="CR2">
-        <v>288</v>
+        <v>943</v>
       </c>
       <c r="CS2">
         <v>0</v>
@@ -1389,7 +1389,7 @@
         <v>122</v>
       </c>
       <c r="CV2">
-        <v>2709.2</v>
+        <v>9088.599999999999</v>
       </c>
       <c r="CY2">
         <v>0</v>
@@ -1401,10 +1401,10 @@
         <v>0</v>
       </c>
       <c r="DD2">
-        <v>0.012</v>
+        <v>0.0055</v>
       </c>
       <c r="DE2">
-        <v>0.008999999999999999</v>
+        <v>0.0045</v>
       </c>
       <c r="DF2">
         <v>1</v>

--- a/zFT/ptf.xlsx
+++ b/zFT/ptf.xlsx
@@ -352,10 +352,10 @@
     <t>tauxZill</t>
   </si>
   <si>
-    <t>GKM1995</t>
-  </si>
-  <si>
-    <t>A</t>
+    <t>EKM05I1</t>
+  </si>
+  <si>
+    <t>A3</t>
   </si>
   <si>
     <t>M</t>
@@ -370,7 +370,7 @@
     <t xml:space="preserve">   </t>
   </si>
   <si>
-    <t>0103</t>
+    <t>1103</t>
   </si>
   <si>
     <t>X</t>
@@ -1092,61 +1092,61 @@
     </row>
     <row r="2" spans="1:113">
       <c r="A2" s="1">
-        <v>118</v>
+        <v>7939</v>
       </c>
       <c r="B2">
-        <v>118</v>
+        <v>7939</v>
       </c>
       <c r="C2">
         <v>2018</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>3</v>
       </c>
       <c r="F2">
-        <v>71601</v>
+        <v>1303</v>
       </c>
       <c r="G2">
-        <v>9029.299999999999</v>
+        <v>30.6</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>54.5</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>18023.9</v>
+        <v>8000</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="N2" t="s">
         <v>112</v>
       </c>
       <c r="O2">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="P2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="s">
         <v>113</v>
       </c>
       <c r="R2">
-        <v>9413.299999999999</v>
+        <v>69</v>
       </c>
       <c r="S2">
-        <v>8997.6</v>
+        <v>30.6</v>
       </c>
       <c r="T2">
         <v>99</v>
@@ -1155,28 +1155,28 @@
         <v>99</v>
       </c>
       <c r="V2" s="2">
-        <v>36008</v>
+        <v>43374</v>
       </c>
       <c r="W2" s="2">
-        <v>72167</v>
+        <v>79532</v>
       </c>
       <c r="X2">
-        <v>800</v>
+        <v>615.6</v>
       </c>
       <c r="Y2">
-        <v>735.1</v>
+        <v>571.5</v>
       </c>
       <c r="Z2">
-        <v>654.3</v>
+        <v>434</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>376.2</v>
+        <v>307.7</v>
       </c>
       <c r="AC2">
-        <v>358.9</v>
+        <v>221.6</v>
       </c>
       <c r="AD2">
         <v>1</v>
@@ -1188,7 +1188,7 @@
         <v>115</v>
       </c>
       <c r="AG2">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="AH2" t="s">
         <v>116</v>
@@ -1248,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="BA2">
-        <v>64.90000000000001</v>
+        <v>44.1</v>
       </c>
       <c r="BB2" t="s">
         <v>116</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="CJ2" s="2">
-        <v>15348</v>
+        <v>21568</v>
       </c>
       <c r="CK2" s="2">
-        <v>36008</v>
+        <v>43374</v>
       </c>
       <c r="CL2">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="CM2">
         <v>999</v>
@@ -1374,10 +1374,10 @@
         <v>409</v>
       </c>
       <c r="CQ2">
-        <v>245</v>
+        <v>3</v>
       </c>
       <c r="CR2">
-        <v>943</v>
+        <v>1185</v>
       </c>
       <c r="CS2">
         <v>0</v>
@@ -1389,7 +1389,7 @@
         <v>122</v>
       </c>
       <c r="CV2">
-        <v>9088.599999999999</v>
+        <v>30.6</v>
       </c>
       <c r="CY2">
         <v>0</v>
@@ -1399,6 +1399,9 @@
       </c>
       <c r="DA2">
         <v>0</v>
+      </c>
+      <c r="DB2">
+        <v>0.01</v>
       </c>
       <c r="DD2">
         <v>0.0055</v>
@@ -1410,7 +1413,7 @@
         <v>1</v>
       </c>
       <c r="DI2">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>

--- a/zFT/ptf.xlsx
+++ b/zFT/ptf.xlsx
@@ -352,10 +352,10 @@
     <t>tauxZill</t>
   </si>
   <si>
-    <t>EKM05I1</t>
-  </si>
-  <si>
-    <t>A3</t>
+    <t>GKM1995</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
   <si>
     <t>M</t>
@@ -370,7 +370,7 @@
     <t xml:space="preserve">   </t>
   </si>
   <si>
-    <t>1103</t>
+    <t>0103</t>
   </si>
   <si>
     <t>X</t>
@@ -1092,61 +1092,61 @@
     </row>
     <row r="2" spans="1:113">
       <c r="A2" s="1">
-        <v>7939</v>
+        <v>118</v>
       </c>
       <c r="B2">
-        <v>7939</v>
+        <v>118</v>
       </c>
       <c r="C2">
         <v>2018</v>
       </c>
       <c r="D2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>3</v>
       </c>
       <c r="F2">
-        <v>1303</v>
+        <v>71601</v>
       </c>
       <c r="G2">
-        <v>30.6</v>
+        <v>9029.299999999999</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>54.5</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="K2">
-        <v>8000</v>
+        <v>18023.9</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="N2" t="s">
         <v>112</v>
       </c>
       <c r="O2">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q2" t="s">
         <v>113</v>
       </c>
       <c r="R2">
-        <v>69</v>
+        <v>9413.299999999999</v>
       </c>
       <c r="S2">
-        <v>30.6</v>
+        <v>8997.6</v>
       </c>
       <c r="T2">
         <v>99</v>
@@ -1155,28 +1155,28 @@
         <v>99</v>
       </c>
       <c r="V2" s="2">
-        <v>43374</v>
+        <v>36008</v>
       </c>
       <c r="W2" s="2">
-        <v>79532</v>
+        <v>72167</v>
       </c>
       <c r="X2">
-        <v>615.6</v>
+        <v>800</v>
       </c>
       <c r="Y2">
-        <v>571.5</v>
+        <v>735.1</v>
       </c>
       <c r="Z2">
-        <v>434</v>
+        <v>654.3</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>307.7</v>
+        <v>376.2</v>
       </c>
       <c r="AC2">
-        <v>221.6</v>
+        <v>358.9</v>
       </c>
       <c r="AD2">
         <v>1</v>
@@ -1188,7 +1188,7 @@
         <v>115</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AH2" t="s">
         <v>116</v>
@@ -1248,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="BA2">
-        <v>44.1</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="BB2" t="s">
         <v>116</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="CJ2" s="2">
-        <v>21568</v>
+        <v>15348</v>
       </c>
       <c r="CK2" s="2">
-        <v>43374</v>
+        <v>36008</v>
       </c>
       <c r="CL2">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="CM2">
         <v>999</v>
@@ -1374,10 +1374,10 @@
         <v>409</v>
       </c>
       <c r="CQ2">
-        <v>3</v>
+        <v>245</v>
       </c>
       <c r="CR2">
-        <v>1185</v>
+        <v>943</v>
       </c>
       <c r="CS2">
         <v>0</v>
@@ -1389,7 +1389,7 @@
         <v>122</v>
       </c>
       <c r="CV2">
-        <v>30.6</v>
+        <v>9088.599999999999</v>
       </c>
       <c r="CY2">
         <v>0</v>
@@ -1399,9 +1399,6 @@
       </c>
       <c r="DA2">
         <v>0</v>
-      </c>
-      <c r="DB2">
-        <v>0.01</v>
       </c>
       <c r="DD2">
         <v>0.0055</v>
@@ -1413,7 +1410,7 @@
         <v>1</v>
       </c>
       <c r="DI2">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
     </row>
   </sheetData>
